--- a/NBIX.xlsx
+++ b/NBIX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2EBF7C-19D3-455C-A49D-19BF89A5CBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353FAB0B-0F34-480C-AC0F-00E3C6BFF327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52995" yWindow="615" windowWidth="30810" windowHeight="19200" activeTab="1" xr2:uid="{409249CC-86EB-47D2-8A0E-5D085FBE782F}"/>
+    <workbookView xWindow="5925" yWindow="360" windowWidth="33330" windowHeight="20340" activeTab="1" xr2:uid="{409249CC-86EB-47D2-8A0E-5D085FBE782F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3069B2B6-6AE1-4411-A9B6-C363B5550C85}</author>
+  </authors>
+  <commentList>
+    <comment ref="AC4" authorId="0" shapeId="0" xr:uid="{3069B2B6-6AE1-4411-A9B6-C363B5550C85}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q3 guidance: 1400-1425</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>Price</t>
   </si>
@@ -302,13 +320,28 @@
   </si>
   <si>
     <t>8038627 - COM - expires 2031 (adjusted for H-W)</t>
+  </si>
+  <si>
+    <t>12/6/22: NBI-827104 "STEAMBOAT" study fails</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -327,6 +360,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -491,14 +530,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25066</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15040</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25066</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15040</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>140368</xdr:rowOff>
     </xdr:to>
@@ -515,7 +554,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7208921" y="0"/>
+          <a:off x="8567487" y="0"/>
           <a:ext cx="0" cy="5594684"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -541,13 +580,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>55145</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>55145</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>140368</xdr:rowOff>
@@ -590,6 +629,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{45E69EB5-F007-4D3F-81A1-66A29F1E36ED}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -887,12 +932,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AC4" dT="2023-01-04T02:46:47.21" personId="{45E69EB5-F007-4D3F-81A1-66A29F1E36ED}" id="{3069B2B6-6AE1-4411-A9B6-C363B5550C85}">
+    <text>Q3 guidance: 1400-1425</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C32A1F6-F911-40A6-8644-267FAD055F12}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1132,6 +1185,11 @@
       </c>
       <c r="G12" s="12"/>
     </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="Ingrezza!A1" display="Ingrezza (valbenazine)" xr:uid="{A3DCB05F-467A-49D9-BDFF-0F9C96F16A9F}"/>
@@ -1142,30 +1200,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2162B0C7-1B6F-4C96-9B91-E9D8930F8C52}">
-  <dimension ref="A1:AQ26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2162B0C7-1B6F-4C96-9B91-E9D8930F8C52}">
+  <dimension ref="A1:AU26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO26" sqref="AO26"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="15" width="9.140625" style="2"/>
-    <col min="41" max="41" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="9.140625" style="2"/>
+    <col min="45" max="45" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1205,116 +1263,131 @@
       <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R2">
+      <c r="P2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2">
         <v>2015</v>
       </c>
-      <c r="S2">
-        <f>+R2+1</f>
+      <c r="W2">
+        <f>+V2+1</f>
         <v>2016</v>
       </c>
-      <c r="T2">
-        <f t="shared" ref="T2:AQ2" si="0">+S2+1</f>
+      <c r="X2">
+        <f t="shared" ref="X2:AU2" si="0">+W2+1</f>
         <v>2017</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="V2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="W2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="X2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="Y2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="Z2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AA2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="N3" s="2">
+        <v>68600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -1326,8 +1399,11 @@
       <c r="M4" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1365,63 +1441,66 @@
         <v>352</v>
       </c>
       <c r="N5" s="5">
-        <f>+J5*1.2</f>
-        <v>346.56</v>
+        <v>379.3</v>
       </c>
       <c r="O5" s="5">
         <f>+K5*1.2</f>
         <v>364.2</v>
       </c>
-      <c r="W5" s="3">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="AA5" s="3">
         <f>SUM(D5:G5)</f>
         <v>994.10000000000014</v>
       </c>
-      <c r="X5" s="3">
+      <c r="AB5" s="3">
         <f>SUM(H5:K5)</f>
         <v>1090.0999999999999</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="AC5" s="3">
         <f>SUM(L5:O5)</f>
-        <v>1367.76</v>
-      </c>
-      <c r="Z5" s="3">
-        <f>+Y5*1.1</f>
-        <v>1504.5360000000001</v>
-      </c>
-      <c r="AA5" s="3">
-        <f t="shared" ref="AA5" si="1">+Z5*1.1</f>
-        <v>1654.9896000000001</v>
-      </c>
-      <c r="AB5" s="3">
-        <f>+AA5*1.05</f>
-        <v>1737.7390800000003</v>
-      </c>
-      <c r="AC5" s="3">
-        <f>+AB5*1.05</f>
-        <v>1824.6260340000003</v>
+        <v>1400.5</v>
       </c>
       <c r="AD5" s="3">
-        <f t="shared" ref="AD5:AE5" si="2">+AC5*1.05</f>
-        <v>1915.8573357000005</v>
+        <f>+AC5*1.1</f>
+        <v>1540.5500000000002</v>
       </c>
       <c r="AE5" s="3">
+        <f t="shared" ref="AE5" si="1">+AD5*1.1</f>
+        <v>1694.6050000000002</v>
+      </c>
+      <c r="AF5" s="3">
+        <f>+AE5*1.05</f>
+        <v>1779.3352500000003</v>
+      </c>
+      <c r="AG5" s="3">
+        <f>+AF5*1.05</f>
+        <v>1868.3020125000005</v>
+      </c>
+      <c r="AH5" s="3">
+        <f t="shared" ref="AH5:AI5" si="2">+AG5*1.05</f>
+        <v>1961.7171131250007</v>
+      </c>
+      <c r="AI5" s="3">
         <f t="shared" si="2"/>
-        <v>2011.6502024850006</v>
-      </c>
-      <c r="AF5" s="3">
-        <f>+AE5*1.01</f>
-        <v>2031.7667045098506</v>
-      </c>
-      <c r="AG5" s="3">
-        <f t="shared" ref="AG5:AH5" si="3">+AF5*1.01</f>
-        <v>2052.084371554949</v>
-      </c>
-      <c r="AH5" s="3">
+        <v>2059.8029687812509</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f>+AI5*1.01</f>
+        <v>2080.4009984690633</v>
+      </c>
+      <c r="AK5" s="3">
+        <f t="shared" ref="AK5:AL5" si="3">+AJ5*1.01</f>
+        <v>2101.2050084537541</v>
+      </c>
+      <c r="AL5" s="3">
         <f t="shared" si="3"/>
-        <v>2072.6052152704983</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2122.2170585382914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1459,55 +1538,58 @@
         <v>26.2</v>
       </c>
       <c r="N6" s="5">
-        <f>AVERAGE(J6:M6)</f>
-        <v>11.875</v>
+        <v>8.6</v>
       </c>
       <c r="O6" s="5">
         <f>AVERAGE(K6:N6)</f>
-        <v>13.043749999999999</v>
-      </c>
-      <c r="Y6" s="3">
+        <v>12.225</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="AC6" s="3">
         <f>SUM(L6:O6)</f>
-        <v>56.71875</v>
-      </c>
-      <c r="Z6" s="3">
-        <f t="shared" ref="Z6:AC6" si="4">SUM(M6:P6)</f>
-        <v>51.118750000000006</v>
-      </c>
-      <c r="AA6" s="3">
-        <f t="shared" si="4"/>
-        <v>24.918749999999999</v>
-      </c>
-      <c r="AB6" s="3">
-        <f t="shared" si="4"/>
-        <v>13.043749999999999</v>
-      </c>
-      <c r="AC6" s="3">
-        <f t="shared" si="4"/>
+        <v>52.625</v>
+      </c>
+      <c r="AD6" s="3">
+        <f>SUM(M6:T6)</f>
+        <v>47.024999999999999</v>
+      </c>
+      <c r="AE6" s="3">
+        <f>SUM(N6:U6)</f>
+        <v>20.824999999999999</v>
+      </c>
+      <c r="AF6" s="3">
+        <f>SUM(O6:V6)</f>
+        <v>12.225</v>
+      </c>
+      <c r="AG6" s="3">
+        <f t="shared" ref="AG6" si="4">SUM(T6:W6)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="3">
-        <f t="shared" ref="AD6" si="5">SUM(Q6:T6)</f>
+      <c r="AH6" s="3">
+        <f t="shared" ref="AH6" si="5">SUM(U6:X6)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="3">
-        <f t="shared" ref="AE6" si="6">SUM(R6:U6)</f>
+      <c r="AI6" s="3">
+        <f t="shared" ref="AI6" si="6">SUM(V6:Y6)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="3">
-        <f t="shared" ref="AF6" si="7">SUM(S6:V6)</f>
+      <c r="AJ6" s="3">
+        <f t="shared" ref="AJ6" si="7">SUM(W6:Z6)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="3">
-        <f t="shared" ref="AG6" si="8">SUM(T6:W6)</f>
+      <c r="AK6" s="3">
+        <f t="shared" ref="AK6" si="8">SUM(X6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="3">
-        <f t="shared" ref="AH6" si="9">SUM(U6:X6)</f>
+      <c r="AL6" s="3">
+        <f t="shared" ref="AL6" si="9">SUM(Y6:AB6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1557,54 +1639,58 @@
       </c>
       <c r="N7" s="7">
         <f t="shared" ref="N7:O7" si="14">+N5+N6</f>
-        <v>358.435</v>
+        <v>387.90000000000003</v>
       </c>
       <c r="O7" s="7">
         <f t="shared" si="14"/>
-        <v>377.24374999999998</v>
-      </c>
-      <c r="Y7" s="6">
-        <f>+Y5+Y6</f>
-        <v>1424.47875</v>
-      </c>
-      <c r="Z7" s="6">
-        <f t="shared" ref="Z7:AC7" si="15">+Z5+Z6</f>
-        <v>1555.6547500000001</v>
-      </c>
-      <c r="AA7" s="6">
+        <v>376.42500000000001</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="AC7" s="6">
+        <f>+AC5+AC6</f>
+        <v>1453.125</v>
+      </c>
+      <c r="AD7" s="6">
+        <f t="shared" ref="AD7:AG7" si="15">+AD5+AD6</f>
+        <v>1587.5750000000003</v>
+      </c>
+      <c r="AE7" s="6">
         <f t="shared" si="15"/>
-        <v>1679.9083500000002</v>
-      </c>
-      <c r="AB7" s="6">
+        <v>1715.4300000000003</v>
+      </c>
+      <c r="AF7" s="6">
         <f t="shared" si="15"/>
-        <v>1750.7828300000003</v>
-      </c>
-      <c r="AC7" s="6">
+        <v>1791.5602500000002</v>
+      </c>
+      <c r="AG7" s="6">
         <f t="shared" si="15"/>
-        <v>1824.6260340000003</v>
-      </c>
-      <c r="AD7" s="6">
-        <f t="shared" ref="AD7" si="16">+AD5+AD6</f>
-        <v>1915.8573357000005</v>
-      </c>
-      <c r="AE7" s="6">
-        <f t="shared" ref="AE7" si="17">+AE5+AE6</f>
-        <v>2011.6502024850006</v>
-      </c>
-      <c r="AF7" s="6">
-        <f t="shared" ref="AF7" si="18">+AF5+AF6</f>
-        <v>2031.7667045098506</v>
-      </c>
-      <c r="AG7" s="6">
-        <f t="shared" ref="AG7" si="19">+AG5+AG6</f>
-        <v>2052.084371554949</v>
+        <v>1868.3020125000005</v>
       </c>
       <c r="AH7" s="6">
-        <f t="shared" ref="AH7" si="20">+AH5+AH6</f>
-        <v>2072.6052152704983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AH7" si="16">+AH5+AH6</f>
+        <v>1961.7171131250007</v>
+      </c>
+      <c r="AI7" s="6">
+        <f t="shared" ref="AI7" si="17">+AI5+AI6</f>
+        <v>2059.8029687812509</v>
+      </c>
+      <c r="AJ7" s="6">
+        <f t="shared" ref="AJ7" si="18">+AJ5+AJ6</f>
+        <v>2080.4009984690633</v>
+      </c>
+      <c r="AK7" s="6">
+        <f t="shared" ref="AK7" si="19">+AK5+AK6</f>
+        <v>2101.2050084537541</v>
+      </c>
+      <c r="AL7" s="6">
+        <f t="shared" ref="AL7" si="20">+AL5+AL6</f>
+        <v>2122.2170585382914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
@@ -1642,55 +1728,58 @@
         <v>4.8</v>
       </c>
       <c r="N8" s="5">
-        <f>+N7-N9</f>
-        <v>3.584350000000029</v>
+        <v>6.1</v>
       </c>
       <c r="O8" s="5">
         <f>+O7-O9</f>
-        <v>3.7724375000000236</v>
-      </c>
-      <c r="Y8" s="3">
+        <v>3.7642500000000041</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="AC8" s="3">
         <f>SUM(L8:O8)</f>
-        <v>16.756787500000051</v>
-      </c>
-      <c r="Z8" s="3">
-        <f>+Z7*0.01</f>
-        <v>15.556547500000002</v>
-      </c>
-      <c r="AA8" s="3">
-        <f t="shared" ref="AA8:AC8" si="21">+AA7*0.01</f>
-        <v>16.799083500000002</v>
-      </c>
-      <c r="AB8" s="3">
+        <v>19.264250000000004</v>
+      </c>
+      <c r="AD8" s="3">
+        <f>+AD7*0.01</f>
+        <v>15.875750000000004</v>
+      </c>
+      <c r="AE8" s="3">
+        <f t="shared" ref="AE8:AG8" si="21">+AE7*0.01</f>
+        <v>17.154300000000003</v>
+      </c>
+      <c r="AF8" s="3">
         <f t="shared" si="21"/>
-        <v>17.507828300000003</v>
-      </c>
-      <c r="AC8" s="3">
+        <v>17.915602500000002</v>
+      </c>
+      <c r="AG8" s="3">
         <f t="shared" si="21"/>
-        <v>18.246260340000003</v>
-      </c>
-      <c r="AD8" s="3">
-        <f t="shared" ref="AD8" si="22">+AD7*0.01</f>
-        <v>19.158573357000005</v>
-      </c>
-      <c r="AE8" s="3">
-        <f t="shared" ref="AE8" si="23">+AE7*0.01</f>
-        <v>20.116502024850007</v>
-      </c>
-      <c r="AF8" s="3">
-        <f t="shared" ref="AF8" si="24">+AF7*0.01</f>
-        <v>20.317667045098506</v>
-      </c>
-      <c r="AG8" s="3">
-        <f t="shared" ref="AG8" si="25">+AG7*0.01</f>
-        <v>20.520843715549489</v>
+        <v>18.683020125000006</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" ref="AH8" si="26">+AH7*0.01</f>
-        <v>20.726052152704984</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AH8" si="22">+AH7*0.01</f>
+        <v>19.617171131250007</v>
+      </c>
+      <c r="AI8" s="3">
+        <f t="shared" ref="AI8" si="23">+AI7*0.01</f>
+        <v>20.59802968781251</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" ref="AJ8" si="24">+AJ7*0.01</f>
+        <v>20.804009984690634</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" ref="AK8" si="25">+AK7*0.01</f>
+        <v>21.012050084537542</v>
+      </c>
+      <c r="AL8" s="3">
+        <f t="shared" ref="AL8" si="26">+AL7*0.01</f>
+        <v>21.222170585382916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1739,55 +1828,59 @@
         <v>373.4</v>
       </c>
       <c r="N9" s="5">
-        <f>+N7*0.99</f>
-        <v>354.85064999999997</v>
+        <f>+N7-N8</f>
+        <v>381.8</v>
       </c>
       <c r="O9" s="5">
         <f>+O7*0.99</f>
-        <v>373.47131249999995</v>
-      </c>
-      <c r="Y9" s="3">
-        <f>+Y7-Y8</f>
-        <v>1407.7219625</v>
-      </c>
-      <c r="Z9" s="3">
-        <f t="shared" ref="Z9:AC9" si="31">+Z7-Z8</f>
-        <v>1540.0982025000001</v>
-      </c>
-      <c r="AA9" s="3">
+        <v>372.66075000000001</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="AC9" s="3">
+        <f>+AC7-AC8</f>
+        <v>1433.8607500000001</v>
+      </c>
+      <c r="AD9" s="3">
+        <f t="shared" ref="AD9:AG9" si="31">+AD7-AD8</f>
+        <v>1571.6992500000003</v>
+      </c>
+      <c r="AE9" s="3">
         <f t="shared" si="31"/>
-        <v>1663.1092665000001</v>
-      </c>
-      <c r="AB9" s="3">
+        <v>1698.2757000000004</v>
+      </c>
+      <c r="AF9" s="3">
         <f t="shared" si="31"/>
-        <v>1733.2750017000003</v>
-      </c>
-      <c r="AC9" s="3">
+        <v>1773.6446475000002</v>
+      </c>
+      <c r="AG9" s="3">
         <f t="shared" si="31"/>
-        <v>1806.3797736600004</v>
-      </c>
-      <c r="AD9" s="3">
-        <f t="shared" ref="AD9" si="32">+AD7-AD8</f>
-        <v>1896.6987623430005</v>
-      </c>
-      <c r="AE9" s="3">
-        <f t="shared" ref="AE9" si="33">+AE7-AE8</f>
-        <v>1991.5337004601506</v>
-      </c>
-      <c r="AF9" s="3">
-        <f t="shared" ref="AF9" si="34">+AF7-AF8</f>
-        <v>2011.4490374647521</v>
-      </c>
-      <c r="AG9" s="3">
-        <f t="shared" ref="AG9" si="35">+AG7-AG8</f>
-        <v>2031.5635278393995</v>
+        <v>1849.6189923750005</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" ref="AH9" si="36">+AH7-AH8</f>
-        <v>2051.8791631177933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AH9" si="32">+AH7-AH8</f>
+        <v>1942.0999419937507</v>
+      </c>
+      <c r="AI9" s="3">
+        <f t="shared" ref="AI9" si="33">+AI7-AI8</f>
+        <v>2039.2049390934385</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" ref="AJ9" si="34">+AJ7-AJ8</f>
+        <v>2059.5969884843726</v>
+      </c>
+      <c r="AK9" s="3">
+        <f t="shared" ref="AK9" si="35">+AK7-AK8</f>
+        <v>2080.1929583692167</v>
+      </c>
+      <c r="AL9" s="3">
+        <f t="shared" ref="AL9" si="36">+AL7-AL8</f>
+        <v>2100.9948879529084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
@@ -1824,10 +1917,16 @@
       <c r="M10" s="5">
         <v>135.9</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="5">
+        <v>107.7</v>
+      </c>
       <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
@@ -1865,55 +1964,58 @@
         <v>182.8</v>
       </c>
       <c r="N11" s="5">
-        <f>AVERAGE(L11:M11)</f>
-        <v>191.75</v>
+        <v>186.3</v>
       </c>
       <c r="O11" s="5">
         <f>AVERAGE(M11:N11)</f>
-        <v>187.27500000000001</v>
-      </c>
-      <c r="Y11" s="3">
+        <v>184.55</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="AC11" s="3">
         <f>SUM(L11:O11)</f>
-        <v>762.52499999999998</v>
-      </c>
-      <c r="Z11" s="3">
-        <f>+Y11*0.5</f>
-        <v>381.26249999999999</v>
-      </c>
-      <c r="AA11" s="3">
-        <f>+Z11*0.9</f>
-        <v>343.13625000000002</v>
-      </c>
-      <c r="AB11" s="3">
-        <f>+AA11*0.9</f>
-        <v>308.82262500000002</v>
-      </c>
-      <c r="AC11" s="3">
-        <f>+AB11</f>
-        <v>308.82262500000002</v>
+        <v>754.34999999999991</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" ref="AD11:AE11" si="37">+AC11</f>
-        <v>308.82262500000002</v>
+        <f>+AC11*0.5</f>
+        <v>377.17499999999995</v>
       </c>
       <c r="AE11" s="3">
+        <f>+AD11*0.9</f>
+        <v>339.45749999999998</v>
+      </c>
+      <c r="AF11" s="3">
+        <f>+AE11*0.9</f>
+        <v>305.51175000000001</v>
+      </c>
+      <c r="AG11" s="3">
+        <f>+AF11</f>
+        <v>305.51175000000001</v>
+      </c>
+      <c r="AH11" s="3">
+        <f t="shared" ref="AH11:AI11" si="37">+AG11</f>
+        <v>305.51175000000001</v>
+      </c>
+      <c r="AI11" s="3">
         <f t="shared" si="37"/>
-        <v>308.82262500000002</v>
-      </c>
-      <c r="AF11" s="3">
-        <f t="shared" ref="AF11:AH11" si="38">+AE11</f>
-        <v>308.82262500000002</v>
-      </c>
-      <c r="AG11" s="3">
+        <v>305.51175000000001</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f t="shared" ref="AJ11:AL11" si="38">+AI11</f>
+        <v>305.51175000000001</v>
+      </c>
+      <c r="AK11" s="3">
         <f t="shared" si="38"/>
-        <v>308.82262500000002</v>
-      </c>
-      <c r="AH11" s="3">
+        <v>305.51175000000001</v>
+      </c>
+      <c r="AL11" s="3">
         <f t="shared" si="38"/>
-        <v>308.82262500000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>305.51175000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1962,55 +2064,59 @@
         <v>318.70000000000005</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" ref="N12:O12" si="43">+N10+N11</f>
-        <v>191.75</v>
+        <f>+N10+N11</f>
+        <v>294</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="43"/>
-        <v>187.27500000000001</v>
-      </c>
-      <c r="Y12" s="3">
-        <f>+Y10+Y11</f>
-        <v>762.52499999999998</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" ref="Z12:AC12" si="44">+Z10+Z11</f>
-        <v>381.26249999999999</v>
-      </c>
-      <c r="AA12" s="3">
+        <f t="shared" ref="O12" si="43">+O10+O11</f>
+        <v>184.55</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="AC12" s="3">
+        <f>+AC10+AC11</f>
+        <v>754.34999999999991</v>
+      </c>
+      <c r="AD12" s="3">
+        <f t="shared" ref="AD12:AG12" si="44">+AD10+AD11</f>
+        <v>377.17499999999995</v>
+      </c>
+      <c r="AE12" s="3">
         <f t="shared" si="44"/>
-        <v>343.13625000000002</v>
-      </c>
-      <c r="AB12" s="3">
+        <v>339.45749999999998</v>
+      </c>
+      <c r="AF12" s="3">
         <f t="shared" si="44"/>
-        <v>308.82262500000002</v>
-      </c>
-      <c r="AC12" s="3">
+        <v>305.51175000000001</v>
+      </c>
+      <c r="AG12" s="3">
         <f t="shared" si="44"/>
-        <v>308.82262500000002</v>
-      </c>
-      <c r="AD12" s="3">
-        <f t="shared" ref="AD12" si="45">+AD10+AD11</f>
-        <v>308.82262500000002</v>
-      </c>
-      <c r="AE12" s="3">
-        <f t="shared" ref="AE12" si="46">+AE10+AE11</f>
-        <v>308.82262500000002</v>
-      </c>
-      <c r="AF12" s="3">
-        <f t="shared" ref="AF12" si="47">+AF10+AF11</f>
-        <v>308.82262500000002</v>
-      </c>
-      <c r="AG12" s="3">
-        <f t="shared" ref="AG12" si="48">+AG10+AG11</f>
-        <v>308.82262500000002</v>
+        <v>305.51175000000001</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" ref="AH12" si="49">+AH10+AH11</f>
-        <v>308.82262500000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AH12" si="45">+AH10+AH11</f>
+        <v>305.51175000000001</v>
+      </c>
+      <c r="AI12" s="3">
+        <f t="shared" ref="AI12" si="46">+AI10+AI11</f>
+        <v>305.51175000000001</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" ref="AJ12" si="47">+AJ10+AJ11</f>
+        <v>305.51175000000001</v>
+      </c>
+      <c r="AK12" s="3">
+        <f t="shared" ref="AK12" si="48">+AK10+AK11</f>
+        <v>305.51175000000001</v>
+      </c>
+      <c r="AL12" s="3">
+        <f t="shared" ref="AL12" si="49">+AL10+AL11</f>
+        <v>305.51175000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
@@ -2059,55 +2165,59 @@
         <v>54.699999999999932</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" ref="N13:O13" si="54">+N9-N12</f>
-        <v>163.10064999999997</v>
+        <f>+N9-N12</f>
+        <v>87.800000000000011</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="54"/>
-        <v>186.19631249999995</v>
-      </c>
-      <c r="Y13" s="3">
-        <f>+Y9-Y12</f>
-        <v>645.19696250000004</v>
-      </c>
-      <c r="Z13" s="3">
-        <f t="shared" ref="Z13:AC13" si="55">+Z9-Z12</f>
-        <v>1158.8357025</v>
-      </c>
-      <c r="AA13" s="3">
+        <f t="shared" ref="O13" si="54">+O9-O12</f>
+        <v>188.11075</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="AC13" s="3">
+        <f>+AC9-AC12</f>
+        <v>679.51075000000014</v>
+      </c>
+      <c r="AD13" s="3">
+        <f t="shared" ref="AD13:AG13" si="55">+AD9-AD12</f>
+        <v>1194.5242500000004</v>
+      </c>
+      <c r="AE13" s="3">
         <f t="shared" si="55"/>
-        <v>1319.9730165000001</v>
-      </c>
-      <c r="AB13" s="3">
+        <v>1358.8182000000004</v>
+      </c>
+      <c r="AF13" s="3">
         <f t="shared" si="55"/>
-        <v>1424.4523767000003</v>
-      </c>
-      <c r="AC13" s="3">
+        <v>1468.1328975000001</v>
+      </c>
+      <c r="AG13" s="3">
         <f t="shared" si="55"/>
-        <v>1497.5571486600004</v>
-      </c>
-      <c r="AD13" s="3">
-        <f t="shared" ref="AD13" si="56">+AD9-AD12</f>
-        <v>1587.8761373430004</v>
-      </c>
-      <c r="AE13" s="3">
-        <f t="shared" ref="AE13" si="57">+AE9-AE12</f>
-        <v>1682.7110754601506</v>
-      </c>
-      <c r="AF13" s="3">
-        <f t="shared" ref="AF13" si="58">+AF9-AF12</f>
-        <v>1702.6264124647521</v>
-      </c>
-      <c r="AG13" s="3">
-        <f t="shared" ref="AG13" si="59">+AG9-AG12</f>
-        <v>1722.7409028393995</v>
+        <v>1544.1072423750006</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" ref="AH13" si="60">+AH9-AH12</f>
-        <v>1743.0565381177933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AH13" si="56">+AH9-AH12</f>
+        <v>1636.5881919937506</v>
+      </c>
+      <c r="AI13" s="3">
+        <f t="shared" ref="AI13" si="57">+AI9-AI12</f>
+        <v>1733.6931890934384</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" ref="AJ13" si="58">+AJ9-AJ12</f>
+        <v>1754.0852384843724</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" ref="AK13" si="59">+AK9-AK12</f>
+        <v>1774.6812083692166</v>
+      </c>
+      <c r="AL13" s="3">
+        <f t="shared" ref="AL13" si="60">+AL9-AL12</f>
+        <v>1795.4831379529082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
@@ -2145,55 +2255,58 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="N14" s="5">
-        <f>SUM(J14:M14)</f>
-        <v>-18</v>
+        <v>-1.2</v>
       </c>
       <c r="O14" s="5">
         <f>SUM(K14:N14)</f>
-        <v>-29.4</v>
-      </c>
-      <c r="Y14" s="3">
+        <v>-12.599999999999998</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="AC14" s="3">
         <f>AVERAGE(L14:O14)</f>
-        <v>-13.05</v>
-      </c>
-      <c r="Z14" s="3">
-        <f>+Y25*$AO$26</f>
-        <v>36.285527099999996</v>
-      </c>
-      <c r="AA14" s="3">
-        <f t="shared" ref="AA14:AH14" si="61">+Z25*$AO$26</f>
-        <v>64.968436610399991</v>
-      </c>
-      <c r="AB14" s="3">
-        <f t="shared" si="61"/>
-        <v>98.207031485049583</v>
-      </c>
-      <c r="AC14" s="3">
-        <f t="shared" si="61"/>
-        <v>134.7508572814908</v>
+        <v>-4.6499999999999995</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="61"/>
-        <v>173.92624942408656</v>
+        <f>+AC25*$AS$26</f>
+        <v>0</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="61"/>
-        <v>216.20950670649665</v>
+        <f t="shared" ref="AE14:AL14" si="61">+AD25*$AS$26</f>
+        <v>28.668582000000008</v>
       </c>
       <c r="AF14" s="3">
         <f t="shared" si="61"/>
-        <v>261.78360067849621</v>
+        <v>61.968264768000004</v>
       </c>
       <c r="AG14" s="3">
         <f t="shared" si="61"/>
-        <v>308.92944099393418</v>
+        <v>98.690692662431999</v>
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="61"/>
-        <v>357.68952924593418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>138.11784310333039</v>
+      </c>
+      <c r="AI14" s="3">
+        <f t="shared" si="61"/>
+        <v>180.71078794566034</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f t="shared" si="61"/>
+        <v>226.65648339459869</v>
+      </c>
+      <c r="AK14" s="3">
+        <f t="shared" si="61"/>
+        <v>274.194284719694</v>
+      </c>
+      <c r="AL14" s="3">
+        <f t="shared" si="61"/>
+        <v>323.36729655382788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
@@ -2243,54 +2356,58 @@
       </c>
       <c r="N15" s="5">
         <f t="shared" ref="N15:O15" si="66">+N13+N14</f>
-        <v>145.10064999999997</v>
+        <v>86.600000000000009</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" si="66"/>
-        <v>156.79631249999994</v>
-      </c>
-      <c r="Y15" s="3">
-        <f>+Y13+Y14</f>
-        <v>632.14696250000009</v>
-      </c>
-      <c r="Z15" s="3">
-        <f t="shared" ref="Z15:AH15" si="67">+Z13+Z14</f>
-        <v>1195.1212296000001</v>
-      </c>
-      <c r="AA15" s="3">
-        <f t="shared" si="67"/>
-        <v>1384.9414531104001</v>
-      </c>
-      <c r="AB15" s="3">
-        <f t="shared" si="67"/>
-        <v>1522.6594081850499</v>
-      </c>
+        <v>175.51075</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
       <c r="AC15" s="3">
-        <f t="shared" si="67"/>
-        <v>1632.3080059414913</v>
+        <f>+AC13+AC14</f>
+        <v>674.86075000000017</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="67"/>
-        <v>1761.802386767087</v>
+        <f t="shared" ref="AD15:AL15" si="67">+AD13+AD14</f>
+        <v>1194.5242500000004</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" si="67"/>
-        <v>1898.9205821666474</v>
+        <v>1387.4867820000004</v>
       </c>
       <c r="AF15" s="3">
         <f t="shared" si="67"/>
-        <v>1964.4100131432483</v>
+        <v>1530.1011622680001</v>
       </c>
       <c r="AG15" s="3">
         <f t="shared" si="67"/>
-        <v>2031.6703438333336</v>
+        <v>1642.7979350374326</v>
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="67"/>
-        <v>2100.7460673637274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1774.706035097081</v>
+      </c>
+      <c r="AI15" s="3">
+        <f t="shared" si="67"/>
+        <v>1914.4039770390987</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f t="shared" si="67"/>
+        <v>1980.741721878971</v>
+      </c>
+      <c r="AK15" s="3">
+        <f t="shared" si="67"/>
+        <v>2048.8754930889108</v>
+      </c>
+      <c r="AL15" s="3">
+        <f t="shared" si="67"/>
+        <v>2118.8504345067363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
@@ -2328,55 +2445,58 @@
         <v>0</v>
       </c>
       <c r="N16" s="5">
-        <f>+N15*0.2</f>
-        <v>29.020129999999995</v>
+        <v>29.4</v>
       </c>
       <c r="O16" s="5">
         <f>+O15*0.2</f>
-        <v>31.359262499999989</v>
-      </c>
-      <c r="Y16" s="3">
-        <f>+Y15*0.2</f>
-        <v>126.42939250000002</v>
-      </c>
-      <c r="Z16" s="3">
-        <f t="shared" ref="Z16:AH16" si="68">+Z15*0.2</f>
-        <v>239.02424592000003</v>
-      </c>
-      <c r="AA16" s="3">
-        <f t="shared" si="68"/>
-        <v>276.98829062208</v>
-      </c>
-      <c r="AB16" s="3">
-        <f t="shared" si="68"/>
-        <v>304.53188163700997</v>
-      </c>
+        <v>35.102150000000002</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
       <c r="AC16" s="3">
-        <f t="shared" si="68"/>
-        <v>326.46160118829829</v>
+        <f>+AC15*0.2</f>
+        <v>134.97215000000003</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="68"/>
-        <v>352.36047735341742</v>
+        <f t="shared" ref="AD16:AL16" si="68">+AD15*0.2</f>
+        <v>238.9048500000001</v>
       </c>
       <c r="AE16" s="3">
         <f t="shared" si="68"/>
-        <v>379.78411643332947</v>
+        <v>277.49735640000011</v>
       </c>
       <c r="AF16" s="3">
         <f t="shared" si="68"/>
-        <v>392.88200262864967</v>
+        <v>306.02023245360004</v>
       </c>
       <c r="AG16" s="3">
         <f t="shared" si="68"/>
-        <v>406.33406876666675</v>
+        <v>328.55958700748653</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="68"/>
-        <v>420.14921347274549</v>
-      </c>
-    </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
+        <v>354.9412070194162</v>
+      </c>
+      <c r="AI16" s="3">
+        <f t="shared" si="68"/>
+        <v>382.88079540781973</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f t="shared" si="68"/>
+        <v>396.14834437579424</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" si="68"/>
+        <v>409.77509861778219</v>
+      </c>
+      <c r="AL16" s="3">
+        <f t="shared" si="68"/>
+        <v>423.77008690134727</v>
+      </c>
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
@@ -2426,58 +2546,62 @@
       </c>
       <c r="N17" s="5">
         <f t="shared" ref="N17:O17" si="73">+N15-N16</f>
-        <v>116.08051999999998</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" si="73"/>
-        <v>125.43704999999996</v>
-      </c>
-      <c r="Y17" s="3">
-        <f>+Y15-Y16</f>
-        <v>505.71757000000008</v>
-      </c>
-      <c r="Z17" s="3">
-        <f t="shared" ref="Z17:AH17" si="74">+Z15-Z16</f>
-        <v>956.09698368000011</v>
-      </c>
-      <c r="AA17" s="3">
-        <f t="shared" si="74"/>
-        <v>1107.95316248832</v>
-      </c>
-      <c r="AB17" s="3">
-        <f t="shared" si="74"/>
-        <v>1218.1275265480399</v>
-      </c>
+        <v>140.40860000000001</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
       <c r="AC17" s="3">
-        <f t="shared" si="74"/>
-        <v>1305.8464047531929</v>
+        <f>+AC15-AC16</f>
+        <v>539.88860000000011</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="74"/>
-        <v>1409.4419094136697</v>
+        <f t="shared" ref="AD17:AL17" si="74">+AD15-AD16</f>
+        <v>955.61940000000027</v>
       </c>
       <c r="AE17" s="3">
         <f t="shared" si="74"/>
-        <v>1519.1364657333179</v>
+        <v>1109.9894256000002</v>
       </c>
       <c r="AF17" s="3">
         <f t="shared" si="74"/>
-        <v>1571.5280105145987</v>
+        <v>1224.0809298144</v>
       </c>
       <c r="AG17" s="3">
         <f t="shared" si="74"/>
-        <v>1625.336275066667</v>
+        <v>1314.2383480299461</v>
       </c>
       <c r="AH17" s="3">
         <f t="shared" si="74"/>
-        <v>1680.5968538909819</v>
-      </c>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-    </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
+        <v>1419.7648280776648</v>
+      </c>
+      <c r="AI17" s="3">
+        <f t="shared" si="74"/>
+        <v>1531.5231816312789</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f t="shared" si="74"/>
+        <v>1584.5933775031767</v>
+      </c>
+      <c r="AK17" s="3">
+        <f t="shared" si="74"/>
+        <v>1639.1003944711288</v>
+      </c>
+      <c r="AL17" s="3">
+        <f t="shared" si="74"/>
+        <v>1695.0803476053891</v>
+      </c>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+    </row>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
@@ -2527,58 +2651,62 @@
       </c>
       <c r="N18" s="4">
         <f>+N17/N19</f>
-        <v>1.214231380753138</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="O18" s="4">
         <f>+O17/O19</f>
-        <v>1.312103033472803</v>
-      </c>
-      <c r="Y18" s="1">
-        <f>+Y17/Y19</f>
-        <v>5.2624096774193561</v>
-      </c>
-      <c r="Z18" s="1">
-        <f>+Z17/Z19</f>
-        <v>9.9489800591051001</v>
-      </c>
-      <c r="AA18" s="1">
-        <f t="shared" ref="AA18:AH18" si="79">+AA17/AA19</f>
-        <v>11.529169224644329</v>
-      </c>
-      <c r="AB18" s="1">
-        <f t="shared" si="79"/>
-        <v>12.675624625890114</v>
-      </c>
+        <v>1.4182686868686869</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
       <c r="AC18" s="1">
-        <f t="shared" si="79"/>
-        <v>13.58841212022053</v>
+        <f>+AC17/AC19</f>
+        <v>5.5203333333333342</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" si="79"/>
-        <v>14.666409046968468</v>
+        <f>+AD17/AD19</f>
+        <v>9.771159509202457</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="79"/>
-        <v>15.807871651751487</v>
+        <f t="shared" ref="AE18:AL18" si="79">+AE17/AE19</f>
+        <v>11.349585128834358</v>
       </c>
       <c r="AF18" s="1">
         <f t="shared" si="79"/>
-        <v>16.353049016801236</v>
+        <v>12.516164926527606</v>
       </c>
       <c r="AG18" s="1">
         <f t="shared" si="79"/>
-        <v>16.912968523066255</v>
+        <v>13.438019918506606</v>
       </c>
       <c r="AH18" s="1">
         <f t="shared" si="79"/>
-        <v>17.48800056078025</v>
-      </c>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-    </row>
-    <row r="19" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>14.517022781980213</v>
+      </c>
+      <c r="AI18" s="1">
+        <f t="shared" si="79"/>
+        <v>15.65974623344866</v>
+      </c>
+      <c r="AJ18" s="1">
+        <f t="shared" si="79"/>
+        <v>16.202386273038616</v>
+      </c>
+      <c r="AK18" s="1">
+        <f t="shared" si="79"/>
+        <v>16.759717734878617</v>
+      </c>
+      <c r="AL18" s="1">
+        <f t="shared" si="79"/>
+        <v>17.332109893715636</v>
+      </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+    </row>
+    <row r="19" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
@@ -2616,55 +2744,58 @@
         <v>95.6</v>
       </c>
       <c r="N19" s="5">
-        <f>+M19</f>
-        <v>95.6</v>
+        <v>99</v>
       </c>
       <c r="O19" s="5">
         <f>+N19</f>
-        <v>95.6</v>
-      </c>
-      <c r="Y19" s="3">
+        <v>99</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="AC19" s="3">
         <f>AVERAGE(L19:O19)</f>
-        <v>96.1</v>
-      </c>
-      <c r="Z19" s="3">
-        <f>+Y19</f>
-        <v>96.1</v>
-      </c>
-      <c r="AA19" s="3">
-        <f t="shared" ref="AA19:AH19" si="80">+Z19</f>
-        <v>96.1</v>
-      </c>
-      <c r="AB19" s="3">
-        <f t="shared" si="80"/>
-        <v>96.1</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" si="80"/>
-        <v>96.1</v>
+        <v>97.8</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="80"/>
-        <v>96.1</v>
+        <f>+AC19</f>
+        <v>97.8</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="80"/>
-        <v>96.1</v>
+        <f t="shared" ref="AE19:AL19" si="80">+AD19</f>
+        <v>97.8</v>
       </c>
       <c r="AF19" s="3">
         <f t="shared" si="80"/>
-        <v>96.1</v>
+        <v>97.8</v>
       </c>
       <c r="AG19" s="3">
         <f t="shared" si="80"/>
-        <v>96.1</v>
+        <v>97.8</v>
       </c>
       <c r="AH19" s="3">
         <f t="shared" si="80"/>
-        <v>96.1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
+        <v>97.8</v>
+      </c>
+      <c r="AI19" s="3">
+        <f t="shared" si="80"/>
+        <v>97.8</v>
+      </c>
+      <c r="AJ19" s="3">
+        <f t="shared" si="80"/>
+        <v>97.8</v>
+      </c>
+      <c r="AK19" s="3">
+        <f t="shared" si="80"/>
+        <v>97.8</v>
+      </c>
+      <c r="AL19" s="3">
+        <f t="shared" si="80"/>
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>75</v>
       </c>
@@ -2694,62 +2825,66 @@
       </c>
       <c r="N21" s="16">
         <f t="shared" ref="N21:O21" si="82">+N5/J5-1</f>
-        <v>0.19999999999999996</v>
+        <v>0.31336565096952906</v>
       </c>
       <c r="O21" s="16">
         <f t="shared" si="82"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="X21" s="17">
-        <f>+X5/W5-1</f>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="AB21" s="17">
+        <f>+AB5/AA5-1</f>
         <v>9.6569761593400916E-2</v>
       </c>
-      <c r="Y21" s="17">
-        <f>+Y5/X5-1</f>
-        <v>0.25471057701128341</v>
-      </c>
-      <c r="Z21" s="17">
-        <f>+Z5/Y5-1</f>
+      <c r="AC21" s="17">
+        <f>+AC5/AB5-1</f>
+        <v>0.28474451885148166</v>
+      </c>
+      <c r="AD21" s="17">
+        <f>+AD5/AC5-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AA21" s="17">
-        <f t="shared" ref="AA21:AH21" si="83">+AA5/Z5-1</f>
+      <c r="AE21" s="17">
+        <f t="shared" ref="AE21:AL21" si="83">+AE5/AD5-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AB21" s="17">
+      <c r="AF21" s="17">
         <f t="shared" si="83"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AC21" s="17">
+      <c r="AG21" s="17">
         <f t="shared" si="83"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AD21" s="17">
+      <c r="AH21" s="17">
         <f t="shared" si="83"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AE21" s="17">
+      <c r="AI21" s="17">
         <f t="shared" si="83"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AF21" s="17">
+      <c r="AJ21" s="17">
         <f t="shared" si="83"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AG21" s="17">
+      <c r="AK21" s="17">
         <f t="shared" si="83"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AH21" s="17">
+      <c r="AL21" s="17">
         <f t="shared" si="83"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-    </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>76</v>
       </c>
@@ -2799,39 +2934,27 @@
       </c>
       <c r="N23" s="16">
         <f t="shared" ref="N23:O23" si="88">N9/N7</f>
-        <v>0.98999999999999988</v>
+        <v>0.98427429749935547</v>
       </c>
       <c r="O23" s="16">
         <f t="shared" si="88"/>
         <v>0.99</v>
       </c>
-      <c r="Y23" s="16">
-        <f t="shared" ref="Y23:AH23" si="89">Y9/Y7</f>
-        <v>0.98823654793025173</v>
-      </c>
-      <c r="Z23" s="16">
-        <f t="shared" si="89"/>
-        <v>0.99</v>
-      </c>
-      <c r="AA23" s="16">
-        <f t="shared" si="89"/>
-        <v>0.99</v>
-      </c>
-      <c r="AB23" s="16">
-        <f t="shared" si="89"/>
-        <v>0.99</v>
-      </c>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
       <c r="AC23" s="16">
-        <f t="shared" si="89"/>
-        <v>0.99</v>
+        <f t="shared" ref="AC23:AL23" si="89">AC9/AC7</f>
+        <v>0.98674288172043012</v>
       </c>
       <c r="AD23" s="16">
         <f t="shared" si="89"/>
-        <v>0.99</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="AE23" s="16">
         <f t="shared" si="89"/>
-        <v>0.99</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="AF23" s="16">
         <f t="shared" si="89"/>
@@ -2845,27 +2968,43 @@
         <f t="shared" si="89"/>
         <v>0.99</v>
       </c>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-      <c r="AN23" t="s">
+      <c r="AI23" s="16">
+        <f t="shared" si="89"/>
+        <v>0.99</v>
+      </c>
+      <c r="AJ23" s="16">
+        <f t="shared" si="89"/>
+        <v>0.99</v>
+      </c>
+      <c r="AK23" s="16">
+        <f t="shared" si="89"/>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="AL23" s="16">
+        <f t="shared" si="89"/>
+        <v>0.98999999999999988</v>
+      </c>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AR23" t="s">
         <v>84</v>
       </c>
-      <c r="AO23" s="17">
+      <c r="AS23" s="17">
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="AN24" t="s">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AR24" t="s">
         <v>83</v>
       </c>
-      <c r="AO24" s="3">
-        <f>NPV(AO23,Z17:AL17)+Main!L5-Main!L6</f>
-        <v>9282.6543342274399</v>
-      </c>
-    </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AS24" s="3">
+        <f>NPV(AS23,AD17:AP17)+Main!L5-Main!L6</f>
+        <v>9331.9887582974225</v>
+      </c>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -2873,77 +3012,76 @@
         <f>1137-169</f>
         <v>968</v>
       </c>
-      <c r="N25" s="5">
-        <f>+M25+N17</f>
-        <v>1084.08052</v>
-      </c>
-      <c r="O25" s="5">
-        <f>+N25+O17</f>
-        <v>1209.51757</v>
-      </c>
-      <c r="Y25" s="3">
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="AC25" s="3">
         <f>+O25</f>
-        <v>1209.51757</v>
-      </c>
-      <c r="Z25" s="3">
-        <f>+Y25+Z17</f>
-        <v>2165.61455368</v>
-      </c>
-      <c r="AA25" s="3">
-        <f t="shared" ref="AA25:AH25" si="90">+Z25+AA17</f>
-        <v>3273.5677161683197</v>
-      </c>
-      <c r="AB25" s="3">
-        <f t="shared" si="90"/>
-        <v>4491.6952427163596</v>
-      </c>
-      <c r="AC25" s="3">
-        <f t="shared" si="90"/>
-        <v>5797.5416474695521</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="3">
-        <f t="shared" si="90"/>
-        <v>7206.9835568832223</v>
+        <f>+AC25+AD17</f>
+        <v>955.61940000000027</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="90"/>
-        <v>8726.1200226165402</v>
+        <f t="shared" ref="AE25:AL25" si="90">+AD25+AE17</f>
+        <v>2065.6088256000003</v>
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="90"/>
-        <v>10297.64803313114</v>
+        <v>3289.6897554144002</v>
       </c>
       <c r="AG25" s="3">
         <f t="shared" si="90"/>
-        <v>11922.984308197807</v>
+        <v>4603.9281034443466</v>
       </c>
       <c r="AH25" s="3">
         <f t="shared" si="90"/>
-        <v>13603.581162088789</v>
-      </c>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AN25" t="s">
+        <v>6023.6929315220113</v>
+      </c>
+      <c r="AI25" s="3">
+        <f t="shared" si="90"/>
+        <v>7555.2161131532903</v>
+      </c>
+      <c r="AJ25" s="3">
+        <f t="shared" si="90"/>
+        <v>9139.8094906564675</v>
+      </c>
+      <c r="AK25" s="3">
+        <f t="shared" si="90"/>
+        <v>10778.909885127596</v>
+      </c>
+      <c r="AL25" s="3">
+        <f t="shared" si="90"/>
+        <v>12473.990232732986</v>
+      </c>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AR25" t="s">
         <v>85</v>
       </c>
-      <c r="AO25" s="1">
-        <f>AO24/Main!L3</f>
-        <v>97.058973622652971</v>
-      </c>
-    </row>
-    <row r="26" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="AN26" t="s">
+      <c r="AS25" s="1">
+        <f>AS24/Main!L3</f>
+        <v>97.57481191546124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AR26" t="s">
         <v>86</v>
       </c>
-      <c r="AO26" s="17">
+      <c r="AS26" s="17">
         <v>0.03</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/NBIX.xlsx
+++ b/NBIX.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353FAB0B-0F34-480C-AC0F-00E3C6BFF327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358D2DD6-C1B4-4BC8-BC5A-7D6D0A39059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="360" windowWidth="33330" windowHeight="20340" activeTab="1" xr2:uid="{409249CC-86EB-47D2-8A0E-5D085FBE782F}"/>
+    <workbookView xWindow="-27015" yWindow="750" windowWidth="26490" windowHeight="19650" activeTab="1" xr2:uid="{409249CC-86EB-47D2-8A0E-5D085FBE782F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Ingrezza" sheetId="3" r:id="rId3"/>
+    <sheet name="1065845" sheetId="4" r:id="rId4"/>
+    <sheet name="crinecerfont" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,9 +43,11 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={3069B2B6-6AE1-4411-A9B6-C363B5550C85}</author>
+    <author>tc={E76A3321-30D1-474A-816C-3601963F366F}</author>
+    <author>tc={98D11F55-839D-450A-B2B9-0C3B07A81771}</author>
   </authors>
   <commentList>
-    <comment ref="AC4" authorId="0" shapeId="0" xr:uid="{3069B2B6-6AE1-4411-A9B6-C363B5550C85}">
+    <comment ref="AG4" authorId="0" shapeId="0" xr:uid="{3069B2B6-6AE1-4411-A9B6-C363B5550C85}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,12 +55,28 @@
     Q3 guidance: 1400-1425</t>
       </text>
     </comment>
+    <comment ref="AI4" authorId="1" shapeId="0" xr:uid="{E76A3321-30D1-474A-816C-3601963F366F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Raised guidance to 2.25-2.30B</t>
+      </text>
+    </comment>
+    <comment ref="AW4" authorId="2" shapeId="0" xr:uid="{98D11F55-839D-450A-B2B9-0C3B07A81771}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Settlement with generics</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
   <si>
     <t>Price</t>
   </si>
@@ -148,9 +168,6 @@
     <t>CEO</t>
   </si>
   <si>
-    <t>Kevin Gorman</t>
-  </si>
-  <si>
     <t>Ingrezza Rx</t>
   </si>
   <si>
@@ -250,9 +267,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>III</t>
-  </si>
-  <si>
     <t>II</t>
   </si>
   <si>
@@ -298,9 +312,6 @@
     <t>valbenazine</t>
   </si>
   <si>
-    <t>Tardive Dyskinesia</t>
-  </si>
-  <si>
     <t>VMAT2 inhibitor</t>
   </si>
   <si>
@@ -335,13 +346,133 @@
   </si>
   <si>
     <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>Tardive Dyskinesia, Huntington's chorea</t>
+  </si>
+  <si>
+    <t>Ingrezza, Dysval in Japan, Remleas in other Asian markets.</t>
+  </si>
+  <si>
+    <t>Orilissa (elagolix)</t>
+  </si>
+  <si>
+    <t>Endometriosis</t>
+  </si>
+  <si>
+    <t>Kyle Gano succeeding Kevin Gorman</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>AMPA PAM</t>
+  </si>
+  <si>
+    <t>NMDA NR2B nam</t>
+  </si>
+  <si>
+    <t>NBI-1076968</t>
+  </si>
+  <si>
+    <t>M4 antagonist</t>
+  </si>
+  <si>
+    <t>luvadaxistat</t>
+  </si>
+  <si>
+    <t>12/29/24 PDUFA</t>
+  </si>
+  <si>
+    <t>Phase III "CAHtalyst"</t>
+  </si>
+  <si>
+    <t>DAAO inhibitor</t>
+  </si>
+  <si>
+    <t>NBI-1065890</t>
+  </si>
+  <si>
+    <t>NBI-1076986</t>
+  </si>
+  <si>
+    <t>VYGR</t>
+  </si>
+  <si>
+    <t>day 28: -4.3 MADRS, p=0.0159 for one dose, -3.0 p=0.0873 for another dose</t>
+  </si>
+  <si>
+    <t>day 56: -7.5 MADRS, p=0.0016 for one dose, -3.6, p=0.1082 for another dose.</t>
+  </si>
+  <si>
+    <t>Takeda</t>
+  </si>
+  <si>
+    <t>Phase II "SAVITRI" n=183 MDD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -366,6 +497,19 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -476,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -508,13 +652,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A950530C-830D-4EC2-A396-8EDC8806AA3C}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -530,14 +678,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>15040</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>35092</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>15040</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>35092</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>140368</xdr:rowOff>
     </xdr:to>
@@ -554,7 +702,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8567487" y="0"/>
+          <a:off x="12868776" y="0"/>
           <a:ext cx="0" cy="5594684"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -580,14 +728,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>55145</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>20052</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>55145</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>20052</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>140368</xdr:rowOff>
     </xdr:to>
@@ -604,7 +752,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14723645" y="0"/>
+          <a:off x="20804605" y="0"/>
           <a:ext cx="0" cy="5594684"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -638,9 +786,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -678,7 +826,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -784,7 +932,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -926,7 +1074,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -934,18 +1082,24 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AC4" dT="2023-01-04T02:46:47.21" personId="{45E69EB5-F007-4D3F-81A1-66A29F1E36ED}" id="{3069B2B6-6AE1-4411-A9B6-C363B5550C85}">
+  <threadedComment ref="AG4" dT="2023-01-04T02:46:47.21" personId="{45E69EB5-F007-4D3F-81A1-66A29F1E36ED}" id="{3069B2B6-6AE1-4411-A9B6-C363B5550C85}">
     <text>Q3 guidance: 1400-1425</text>
+  </threadedComment>
+  <threadedComment ref="AI4" dT="2024-09-03T12:13:42.48" personId="{45E69EB5-F007-4D3F-81A1-66A29F1E36ED}" id="{E76A3321-30D1-474A-816C-3601963F366F}">
+    <text>Raised guidance to 2.25-2.30B</text>
+  </threadedComment>
+  <threadedComment ref="AW4" dT="2024-09-03T12:31:23.19" personId="{45E69EB5-F007-4D3F-81A1-66A29F1E36ED}" id="{98D11F55-839D-450A-B2B9-0C3B07A81771}">
+    <text>Settlement with generics</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C32A1F6-F911-40A6-8644-267FAD055F12}">
-  <dimension ref="B2:M15"/>
+  <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -954,6 +1108,7 @@
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -965,22 +1120,22 @@
         <v>24</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>109.54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -991,103 +1146,95 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="20">
         <v>42836</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="9"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>95.639320999999995</v>
+        <v>100.976249</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="B4" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E4" s="20"/>
       <c r="G4" s="9"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>10476.331222340001</v>
+        <v>12823.983623</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="9"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <f>163.3+485+405.2+83.8</f>
-        <v>1137.3</v>
+        <f>139.7+899.2+637.8+143.6</f>
+        <v>1820.3</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G7" s="9"/>
       <c r="K7" t="s">
@@ -1095,104 +1242,182 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>9508.0312223400015</v>
+        <v>11003.683623000001</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>63</v>
       </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="9"/>
       <c r="K9" t="s">
         <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
-        <v>66</v>
+      <c r="B10" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
+      <c r="E19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
-        <v>88</v>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="Ingrezza!A1" display="Ingrezza (valbenazine)" xr:uid="{A3DCB05F-467A-49D9-BDFF-0F9C96F16A9F}"/>
+    <hyperlink ref="B10" location="crinecerfont!A1" display="crinecerfont" xr:uid="{7A8087B6-C265-401A-978F-A93E99DCCDEE}"/>
+    <hyperlink ref="B18" location="'1065845'!A1" display="NBI-1065845" xr:uid="{6C6A8A42-AED5-4204-B4CB-F292C8E12385}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1201,31 +1426,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2162B0C7-1B6F-4C96-9B91-E9D8930F8C52}">
-  <dimension ref="A1:AU26"/>
+  <dimension ref="A1:AY41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="AR25" sqref="AR25:AS28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="19" width="9.140625" style="2"/>
-    <col min="45" max="45" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="23" width="9.140625" style="2"/>
+    <col min="49" max="49" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -1264,130 +1489,142 @@
         <v>19</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V2">
+      <c r="W2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2">
         <v>2015</v>
       </c>
-      <c r="W2">
-        <f>+V2+1</f>
+      <c r="AA2">
+        <f>+Z2+1</f>
         <v>2016</v>
       </c>
-      <c r="X2">
-        <f t="shared" ref="X2:AU2" si="0">+W2+1</f>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AY2" si="0">+AA2+1</f>
         <v>2017</v>
       </c>
-      <c r="Y2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="Z2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AA2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="AT2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="AU2">
+      <c r="AY2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>68600</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -1402,8 +1639,23 @@
       <c r="N4" s="2">
         <v>376</v>
       </c>
-    </row>
-    <row r="5" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5">
+        <v>439.7</v>
+      </c>
+      <c r="R4" s="5">
+        <v>486</v>
+      </c>
+      <c r="S4" s="5">
+        <v>500</v>
+      </c>
+      <c r="T4" s="5">
+        <v>506</v>
+      </c>
+      <c r="U4" s="5">
+        <v>579.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1444,63 +1696,84 @@
         <v>379.3</v>
       </c>
       <c r="O5" s="5">
-        <f>+K5*1.2</f>
-        <v>364.2</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="AA5" s="3">
+        <v>404.6</v>
+      </c>
+      <c r="P5" s="5">
+        <v>415.3</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>446.3</v>
+      </c>
+      <c r="R5" s="5">
+        <v>491.8</v>
+      </c>
+      <c r="S5" s="5">
+        <v>507.2</v>
+      </c>
+      <c r="T5" s="5">
+        <v>509</v>
+      </c>
+      <c r="U5" s="5">
+        <v>583.79999999999995</v>
+      </c>
+      <c r="V5" s="5">
+        <f>+Q5*1.3</f>
+        <v>580.19000000000005</v>
+      </c>
+      <c r="W5" s="5">
+        <f>+R5*1.3</f>
+        <v>639.34</v>
+      </c>
+      <c r="AE5" s="3">
         <f>SUM(D5:G5)</f>
         <v>994.10000000000014</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AF5" s="3">
         <f>SUM(H5:K5)</f>
         <v>1090.0999999999999</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AG5" s="3">
         <f>SUM(L5:O5)</f>
-        <v>1400.5</v>
-      </c>
-      <c r="AD5" s="3">
-        <f>+AC5*1.1</f>
-        <v>1540.5500000000002</v>
-      </c>
-      <c r="AE5" s="3">
-        <f t="shared" ref="AE5" si="1">+AD5*1.1</f>
-        <v>1694.6050000000002</v>
-      </c>
-      <c r="AF5" s="3">
-        <f>+AE5*1.05</f>
-        <v>1779.3352500000003</v>
-      </c>
-      <c r="AG5" s="3">
-        <f>+AF5*1.05</f>
-        <v>1868.3020125000005</v>
+        <v>1440.9</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" ref="AH5:AI5" si="2">+AG5*1.05</f>
-        <v>1961.7171131250007</v>
+        <f>SUM(P5:S5)</f>
+        <v>1860.6000000000001</v>
       </c>
       <c r="AI5" s="3">
+        <f>SUM(T5:W5)</f>
+        <v>2312.33</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f>+AI5*1.05</f>
+        <v>2427.9465</v>
+      </c>
+      <c r="AK5" s="3">
+        <f>+AJ5*1.05</f>
+        <v>2549.3438249999999</v>
+      </c>
+      <c r="AL5" s="3">
+        <f t="shared" ref="AL5:AM5" si="1">+AK5*1.05</f>
+        <v>2676.8110162500002</v>
+      </c>
+      <c r="AM5" s="3">
+        <f t="shared" si="1"/>
+        <v>2810.6515670625004</v>
+      </c>
+      <c r="AN5" s="3">
+        <f>+AM5*1.01</f>
+        <v>2838.7580827331253</v>
+      </c>
+      <c r="AO5" s="3">
+        <f t="shared" ref="AO5:AP5" si="2">+AN5*1.01</f>
+        <v>2867.1456635604568</v>
+      </c>
+      <c r="AP5" s="3">
         <f t="shared" si="2"/>
-        <v>2059.8029687812509</v>
-      </c>
-      <c r="AJ5" s="3">
-        <f>+AI5*1.01</f>
-        <v>2080.4009984690633</v>
-      </c>
-      <c r="AK5" s="3">
-        <f t="shared" ref="AK5:AL5" si="3">+AJ5*1.01</f>
-        <v>2101.2050084537541</v>
-      </c>
-      <c r="AL5" s="3">
-        <f t="shared" si="3"/>
-        <v>2122.2170585382914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2895.8171201960613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1541,68 +1814,83 @@
         <v>8.6</v>
       </c>
       <c r="O6" s="5">
-        <f>AVERAGE(K6:N6)</f>
-        <v>12.225</v>
-      </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="AC6" s="3">
-        <f>SUM(L6:O6)</f>
-        <v>52.625</v>
-      </c>
-      <c r="AD6" s="3">
-        <f>SUM(M6:T6)</f>
-        <v>47.024999999999999</v>
-      </c>
-      <c r="AE6" s="3">
-        <f>SUM(N6:U6)</f>
-        <v>20.824999999999999</v>
-      </c>
-      <c r="AF6" s="3">
-        <f>SUM(O6:V6)</f>
-        <v>12.225</v>
-      </c>
+        <v>7.4</v>
+      </c>
+      <c r="P6" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="R6" s="5">
+        <v>7</v>
+      </c>
+      <c r="S6" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="T6" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="U6" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
       <c r="AG6" s="3">
-        <f t="shared" ref="AG6" si="4">SUM(T6:W6)</f>
+        <f t="shared" ref="AG6" si="3">SUM(L6:O6)</f>
+        <v>47.8</v>
+      </c>
+      <c r="AH6" s="3">
+        <f t="shared" ref="AH6" si="4">SUM(P6:S6)</f>
+        <v>25.9</v>
+      </c>
+      <c r="AI6" s="3">
+        <f t="shared" ref="AI6" si="5">SUM(T6:W6)</f>
+        <v>12.7</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f>SUM(O6:Z6)</f>
+        <v>45.999999999999993</v>
+      </c>
+      <c r="AK6" s="3">
+        <f t="shared" ref="AK6" si="6">SUM(X6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="3">
-        <f t="shared" ref="AH6" si="5">SUM(U6:X6)</f>
+      <c r="AL6" s="3">
+        <f t="shared" ref="AL6" si="7">SUM(Y6:AB6)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="3">
-        <f t="shared" ref="AI6" si="6">SUM(V6:Y6)</f>
+      <c r="AM6" s="3">
+        <f t="shared" ref="AM6" si="8">SUM(Z6:AC6)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="3">
-        <f t="shared" ref="AJ6" si="7">SUM(W6:Z6)</f>
+      <c r="AN6" s="3">
+        <f t="shared" ref="AN6" si="9">SUM(AA6:AD6)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="3">
-        <f t="shared" ref="AK6" si="8">SUM(X6:AA6)</f>
+      <c r="AO6" s="3">
+        <f t="shared" ref="AO6" si="10">SUM(AB6:AE6)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="3">
-        <f t="shared" ref="AL6" si="9">SUM(Y6:AB6)</f>
+      <c r="AP6" s="3">
+        <f t="shared" ref="AP6" si="11">SUM(AC6:AF6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:47" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="7">
-        <f t="shared" ref="C7" si="10">+C5+C6</f>
+        <f t="shared" ref="C7" si="12">+C5+C6</f>
         <v>244.1</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" ref="D7" si="11">+D5+D6</f>
+        <f t="shared" ref="D7" si="13">+D5+D6</f>
         <v>237.1</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" ref="E7" si="12">+E5+E6</f>
+        <f t="shared" ref="E7" si="14">+E5+E6</f>
         <v>302.40000000000003</v>
       </c>
       <c r="F7" s="7">
@@ -1622,7 +1910,7 @@
         <v>288.90000000000003</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" ref="J7" si="13">+J5+J6</f>
+        <f t="shared" ref="J7" si="15">+J5+J6</f>
         <v>296</v>
       </c>
       <c r="K7" s="7">
@@ -1638,61 +1926,97 @@
         <v>378.2</v>
       </c>
       <c r="N7" s="7">
-        <f t="shared" ref="N7:O7" si="14">+N5+N6</f>
+        <f t="shared" ref="N7:W7" si="16">+N5+N6</f>
         <v>387.90000000000003</v>
       </c>
       <c r="O7" s="7">
-        <f t="shared" si="14"/>
-        <v>376.42500000000001</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="AC7" s="6">
-        <f>+AC5+AC6</f>
-        <v>1453.125</v>
-      </c>
-      <c r="AD7" s="6">
-        <f t="shared" ref="AD7:AG7" si="15">+AD5+AD6</f>
-        <v>1587.5750000000003</v>
+        <f t="shared" si="16"/>
+        <v>412</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="16"/>
+        <v>420.40000000000003</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="16"/>
+        <v>452.7</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="16"/>
+        <v>498.8</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="16"/>
+        <v>514.6</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="16"/>
+        <v>515.29999999999995</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="16"/>
+        <v>590.19999999999993</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="16"/>
+        <v>580.19000000000005</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="16"/>
+        <v>639.34</v>
       </c>
       <c r="AE7" s="6">
-        <f t="shared" si="15"/>
-        <v>1715.4300000000003</v>
+        <f>+AE5+AE6</f>
+        <v>994.10000000000014</v>
       </c>
       <c r="AF7" s="6">
-        <f t="shared" si="15"/>
-        <v>1791.5602500000002</v>
+        <f>+AF5+AF6</f>
+        <v>1090.0999999999999</v>
       </c>
       <c r="AG7" s="6">
-        <f t="shared" si="15"/>
-        <v>1868.3020125000005</v>
+        <f>+AG5+AG6</f>
+        <v>1488.7</v>
       </c>
       <c r="AH7" s="6">
-        <f t="shared" ref="AH7" si="16">+AH5+AH6</f>
-        <v>1961.7171131250007</v>
+        <f t="shared" ref="AH7:AK7" si="17">+AH5+AH6</f>
+        <v>1886.5000000000002</v>
       </c>
       <c r="AI7" s="6">
-        <f t="shared" ref="AI7" si="17">+AI5+AI6</f>
-        <v>2059.8029687812509</v>
+        <f t="shared" si="17"/>
+        <v>2325.0299999999997</v>
       </c>
       <c r="AJ7" s="6">
-        <f t="shared" ref="AJ7" si="18">+AJ5+AJ6</f>
-        <v>2080.4009984690633</v>
+        <f t="shared" si="17"/>
+        <v>2473.9465</v>
       </c>
       <c r="AK7" s="6">
-        <f t="shared" ref="AK7" si="19">+AK5+AK6</f>
-        <v>2101.2050084537541</v>
+        <f t="shared" si="17"/>
+        <v>2549.3438249999999</v>
       </c>
       <c r="AL7" s="6">
-        <f t="shared" ref="AL7" si="20">+AL5+AL6</f>
-        <v>2122.2170585382914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AL7" si="18">+AL5+AL6</f>
+        <v>2676.8110162500002</v>
+      </c>
+      <c r="AM7" s="6">
+        <f t="shared" ref="AM7" si="19">+AM5+AM6</f>
+        <v>2810.6515670625004</v>
+      </c>
+      <c r="AN7" s="6">
+        <f t="shared" ref="AN7" si="20">+AN5+AN6</f>
+        <v>2838.7580827331253</v>
+      </c>
+      <c r="AO7" s="6">
+        <f t="shared" ref="AO7" si="21">+AO5+AO6</f>
+        <v>2867.1456635604568</v>
+      </c>
+      <c r="AP7" s="6">
+        <f t="shared" ref="AP7" si="22">+AP5+AP6</f>
+        <v>2895.8171201960613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5">
         <v>2.5</v>
@@ -1731,68 +2055,89 @@
         <v>6.1</v>
       </c>
       <c r="O8" s="5">
-        <f>+O7-O9</f>
-        <v>3.7642500000000041</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="AC8" s="3">
-        <f>SUM(L8:O8)</f>
-        <v>19.264250000000004</v>
-      </c>
-      <c r="AD8" s="3">
-        <f>+AD7*0.01</f>
-        <v>15.875750000000004</v>
-      </c>
-      <c r="AE8" s="3">
-        <f t="shared" ref="AE8:AG8" si="21">+AE7*0.01</f>
-        <v>17.154300000000003</v>
-      </c>
-      <c r="AF8" s="3">
-        <f t="shared" si="21"/>
-        <v>17.915602500000002</v>
+        <v>7.7</v>
+      </c>
+      <c r="P8" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="R8" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="S8" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="T8" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="U8" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="V8" s="5">
+        <f>+V7*0.02</f>
+        <v>11.603800000000001</v>
+      </c>
+      <c r="W8" s="5">
+        <f>+W7*0.02</f>
+        <v>12.786800000000001</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="21"/>
-        <v>18.683020125000006</v>
+        <f t="shared" ref="AG8" si="23">SUM(L8:O8)</f>
+        <v>23.2</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" ref="AH8" si="22">+AH7*0.01</f>
-        <v>19.617171131250007</v>
+        <f t="shared" ref="AH8" si="24">SUM(P8:S8)</f>
+        <v>39.700000000000003</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" ref="AI8" si="23">+AI7*0.01</f>
-        <v>20.59802968781251</v>
+        <f t="shared" ref="AI8" si="25">SUM(T8:W8)</f>
+        <v>41.090600000000002</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" ref="AJ8" si="24">+AJ7*0.01</f>
-        <v>20.804009984690634</v>
+        <f t="shared" ref="AI8:AK8" si="26">+AJ7*0.01</f>
+        <v>24.739464999999999</v>
       </c>
       <c r="AK8" s="3">
-        <f t="shared" ref="AK8" si="25">+AK7*0.01</f>
-        <v>21.012050084537542</v>
+        <f t="shared" si="26"/>
+        <v>25.493438250000001</v>
       </c>
       <c r="AL8" s="3">
-        <f t="shared" ref="AL8" si="26">+AL7*0.01</f>
-        <v>21.222170585382916</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AL8" si="27">+AL7*0.01</f>
+        <v>26.768110162500001</v>
+      </c>
+      <c r="AM8" s="3">
+        <f t="shared" ref="AM8" si="28">+AM7*0.01</f>
+        <v>28.106515670625004</v>
+      </c>
+      <c r="AN8" s="3">
+        <f t="shared" ref="AN8" si="29">+AN7*0.01</f>
+        <v>28.387580827331252</v>
+      </c>
+      <c r="AO8" s="3">
+        <f t="shared" ref="AO8" si="30">+AO7*0.01</f>
+        <v>28.671456635604567</v>
+      </c>
+      <c r="AP8" s="3">
+        <f t="shared" ref="AP8" si="31">+AP7*0.01</f>
+        <v>28.958171201960614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" ref="C9" si="27">+C7-C8</f>
+        <f t="shared" ref="C9" si="32">+C7-C8</f>
         <v>241.6</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D9" si="28">+D7-D8</f>
+        <f t="shared" ref="D9" si="33">+D7-D8</f>
         <v>235</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ref="E9" si="29">+E7-E8</f>
+        <f t="shared" ref="E9" si="34">+E7-E8</f>
         <v>300.00000000000006</v>
       </c>
       <c r="F9" s="5">
@@ -1812,7 +2157,7 @@
         <v>285.8</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" ref="J9" si="30">+J7-J8</f>
+        <f t="shared" ref="J9" si="35">+J7-J8</f>
         <v>291.8</v>
       </c>
       <c r="K9" s="5">
@@ -1832,57 +2177,85 @@
         <v>381.8</v>
       </c>
       <c r="O9" s="5">
-        <f>+O7*0.99</f>
-        <v>372.66075000000001</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="AC9" s="3">
-        <f>+AC7-AC8</f>
-        <v>1433.8607500000001</v>
-      </c>
-      <c r="AD9" s="3">
-        <f t="shared" ref="AD9:AG9" si="31">+AD7-AD8</f>
-        <v>1571.6992500000003</v>
-      </c>
-      <c r="AE9" s="3">
-        <f t="shared" si="31"/>
-        <v>1698.2757000000004</v>
-      </c>
-      <c r="AF9" s="3">
-        <f t="shared" si="31"/>
-        <v>1773.6446475000002</v>
+        <f>+O7-O8</f>
+        <v>404.3</v>
+      </c>
+      <c r="P9" s="5">
+        <f>+P7-P8</f>
+        <v>411.90000000000003</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>+Q7-Q8</f>
+        <v>441.2</v>
+      </c>
+      <c r="R9" s="5">
+        <f>+R7-R8</f>
+        <v>487.6</v>
+      </c>
+      <c r="S9" s="5">
+        <f>+S7-S8</f>
+        <v>506.1</v>
+      </c>
+      <c r="T9" s="5">
+        <f>+T7-T8</f>
+        <v>507.79999999999995</v>
+      </c>
+      <c r="U9" s="5">
+        <f>+U7-U8</f>
+        <v>580.99999999999989</v>
+      </c>
+      <c r="V9" s="5">
+        <f>+V7-V8</f>
+        <v>568.58620000000008</v>
+      </c>
+      <c r="W9" s="5">
+        <f>+W7-W8</f>
+        <v>626.55320000000006</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="31"/>
-        <v>1849.6189923750005</v>
+        <f>+AG7-AG8</f>
+        <v>1465.5</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" ref="AH9" si="32">+AH7-AH8</f>
-        <v>1942.0999419937507</v>
+        <f t="shared" ref="AH9:AK9" si="36">+AH7-AH8</f>
+        <v>1846.8000000000002</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" ref="AI9" si="33">+AI7-AI8</f>
-        <v>2039.2049390934385</v>
+        <f t="shared" si="36"/>
+        <v>2283.9393999999998</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" ref="AJ9" si="34">+AJ7-AJ8</f>
-        <v>2059.5969884843726</v>
+        <f t="shared" si="36"/>
+        <v>2449.2070349999999</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" ref="AK9" si="35">+AK7-AK8</f>
-        <v>2080.1929583692167</v>
+        <f t="shared" si="36"/>
+        <v>2523.8503867499999</v>
       </c>
       <c r="AL9" s="3">
-        <f t="shared" ref="AL9" si="36">+AL7-AL8</f>
-        <v>2100.9948879529084</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AL9" si="37">+AL7-AL8</f>
+        <v>2650.0429060875003</v>
+      </c>
+      <c r="AM9" s="3">
+        <f t="shared" ref="AM9" si="38">+AM7-AM8</f>
+        <v>2782.5450513918754</v>
+      </c>
+      <c r="AN9" s="3">
+        <f t="shared" ref="AN9" si="39">+AN7-AN8</f>
+        <v>2810.3705019057938</v>
+      </c>
+      <c r="AO9" s="3">
+        <f t="shared" ref="AO9" si="40">+AO7-AO8</f>
+        <v>2838.4742069248523</v>
+      </c>
+      <c r="AP9" s="3">
+        <f t="shared" ref="AP9" si="41">+AP7-AP8</f>
+        <v>2866.8589489941005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>55.3</v>
@@ -1920,15 +2293,45 @@
       <c r="N10" s="5">
         <v>107.7</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="5">
+        <v>118</v>
+      </c>
+      <c r="P10" s="5">
+        <v>139.5</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="R10" s="5">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="S10" s="5">
+        <v>137.5</v>
+      </c>
+      <c r="T10" s="5">
+        <v>159.4</v>
+      </c>
+      <c r="U10" s="5">
+        <v>191.1</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="AG10" s="3">
+        <f t="shared" ref="AG10:AG11" si="42">SUM(L10:O10)</f>
+        <v>463.8</v>
+      </c>
+      <c r="AH10" s="3">
+        <f t="shared" ref="AH10:AH11" si="43">SUM(P10:S10)</f>
+        <v>565</v>
+      </c>
+      <c r="AI10" s="3">
+        <f t="shared" ref="AI10:AI11" si="44">SUM(T10:W10)</f>
+        <v>350.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5">
         <v>101.3</v>
@@ -1967,68 +2370,83 @@
         <v>186.3</v>
       </c>
       <c r="O11" s="5">
-        <f>AVERAGE(M11:N11)</f>
-        <v>184.55</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="AC11" s="3">
-        <f>SUM(L11:O11)</f>
-        <v>754.34999999999991</v>
-      </c>
-      <c r="AD11" s="3">
-        <f>+AC11*0.5</f>
-        <v>377.17499999999995</v>
-      </c>
-      <c r="AE11" s="3">
-        <f>+AD11*0.9</f>
-        <v>339.45749999999998</v>
-      </c>
-      <c r="AF11" s="3">
-        <f>+AE11*0.9</f>
-        <v>305.51175000000001</v>
-      </c>
+        <v>182.9</v>
+      </c>
+      <c r="P11" s="5">
+        <v>143.9</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>221.8</v>
+      </c>
+      <c r="R11" s="5">
+        <v>204.2</v>
+      </c>
+      <c r="S11" s="5">
+        <v>218.9</v>
+      </c>
+      <c r="T11" s="5">
+        <v>243.1</v>
+      </c>
+      <c r="U11" s="5">
+        <v>242</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
       <c r="AG11" s="3">
-        <f>+AF11</f>
-        <v>305.51175000000001</v>
+        <f t="shared" si="42"/>
+        <v>752.69999999999993</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" ref="AH11:AI11" si="37">+AG11</f>
-        <v>305.51175000000001</v>
+        <f t="shared" si="43"/>
+        <v>788.80000000000007</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="37"/>
-        <v>305.51175000000001</v>
+        <f t="shared" si="44"/>
+        <v>485.1</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" ref="AJ11:AL11" si="38">+AI11</f>
-        <v>305.51175000000001</v>
+        <f>+AI11*0.9</f>
+        <v>436.59000000000003</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="38"/>
-        <v>305.51175000000001</v>
+        <f>+AJ11</f>
+        <v>436.59000000000003</v>
       </c>
       <c r="AL11" s="3">
-        <f t="shared" si="38"/>
-        <v>305.51175000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AL11:AM11" si="45">+AK11</f>
+        <v>436.59000000000003</v>
+      </c>
+      <c r="AM11" s="3">
+        <f t="shared" si="45"/>
+        <v>436.59000000000003</v>
+      </c>
+      <c r="AN11" s="3">
+        <f t="shared" ref="AN11:AP11" si="46">+AM11</f>
+        <v>436.59000000000003</v>
+      </c>
+      <c r="AO11" s="3">
+        <f t="shared" si="46"/>
+        <v>436.59000000000003</v>
+      </c>
+      <c r="AP11" s="3">
+        <f t="shared" si="46"/>
+        <v>436.59000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" ref="C12" si="39">+C10+C11</f>
+        <f t="shared" ref="C12" si="47">+C10+C11</f>
         <v>156.6</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" ref="D12" si="40">+D10+D11</f>
+        <f t="shared" ref="D12" si="48">+D10+D11</f>
         <v>176.1</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ref="E12" si="41">+E10+E11</f>
+        <f t="shared" ref="E12" si="49">+E10+E11</f>
         <v>177.4</v>
       </c>
       <c r="F12" s="5">
@@ -2048,7 +2466,7 @@
         <v>218</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" ref="J12" si="42">+J10+J11</f>
+        <f t="shared" ref="J12" si="50">+J10+J11</f>
         <v>247.3</v>
       </c>
       <c r="K12" s="5">
@@ -2068,68 +2486,96 @@
         <v>294</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ref="O12" si="43">+O10+O11</f>
-        <v>184.55</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="AC12" s="3">
-        <f>+AC10+AC11</f>
-        <v>754.34999999999991</v>
-      </c>
-      <c r="AD12" s="3">
-        <f t="shared" ref="AD12:AG12" si="44">+AD10+AD11</f>
-        <v>377.17499999999995</v>
-      </c>
-      <c r="AE12" s="3">
-        <f t="shared" si="44"/>
-        <v>339.45749999999998</v>
-      </c>
-      <c r="AF12" s="3">
-        <f t="shared" si="44"/>
-        <v>305.51175000000001</v>
+        <f t="shared" ref="O12:P12" si="51">+O10+O11</f>
+        <v>300.89999999999998</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="51"/>
+        <v>283.39999999999998</v>
+      </c>
+      <c r="Q12" s="5">
+        <f>+Q10+Q11</f>
+        <v>367.6</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" ref="R12:W12" si="52">+R10+R11</f>
+        <v>346.4</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="52"/>
+        <v>356.4</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="52"/>
+        <v>402.5</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="52"/>
+        <v>433.1</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" si="52"/>
+        <v>0</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="44"/>
-        <v>305.51175000000001</v>
+        <f>+AG10+AG11</f>
+        <v>1216.5</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" ref="AH12" si="45">+AH10+AH11</f>
-        <v>305.51175000000001</v>
+        <f t="shared" ref="AH12:AK12" si="53">+AH10+AH11</f>
+        <v>1353.8000000000002</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" ref="AI12" si="46">+AI10+AI11</f>
-        <v>305.51175000000001</v>
+        <f t="shared" si="53"/>
+        <v>835.6</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" ref="AJ12" si="47">+AJ10+AJ11</f>
-        <v>305.51175000000001</v>
+        <f t="shared" si="53"/>
+        <v>436.59000000000003</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" ref="AK12" si="48">+AK10+AK11</f>
-        <v>305.51175000000001</v>
+        <f t="shared" si="53"/>
+        <v>436.59000000000003</v>
       </c>
       <c r="AL12" s="3">
-        <f t="shared" ref="AL12" si="49">+AL10+AL11</f>
-        <v>305.51175000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AL12" si="54">+AL10+AL11</f>
+        <v>436.59000000000003</v>
+      </c>
+      <c r="AM12" s="3">
+        <f t="shared" ref="AM12" si="55">+AM10+AM11</f>
+        <v>436.59000000000003</v>
+      </c>
+      <c r="AN12" s="3">
+        <f t="shared" ref="AN12" si="56">+AN10+AN11</f>
+        <v>436.59000000000003</v>
+      </c>
+      <c r="AO12" s="3">
+        <f t="shared" ref="AO12" si="57">+AO10+AO11</f>
+        <v>436.59000000000003</v>
+      </c>
+      <c r="AP12" s="3">
+        <f t="shared" ref="AP12" si="58">+AP10+AP11</f>
+        <v>436.59000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ref="C13" si="50">+C9-C12</f>
+        <f t="shared" ref="C13" si="59">+C9-C12</f>
         <v>85</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" ref="D13" si="51">+D9-D12</f>
+        <f t="shared" ref="D13" si="60">+D9-D12</f>
         <v>58.900000000000006</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" ref="E13" si="52">+E9-E12</f>
+        <f t="shared" ref="E13" si="61">+E9-E12</f>
         <v>122.60000000000005</v>
       </c>
       <c r="F13" s="5">
@@ -2149,7 +2595,7 @@
         <v>67.800000000000011</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" ref="J13" si="53">+J9-J12</f>
+        <f t="shared" ref="J13" si="62">+J9-J12</f>
         <v>44.5</v>
       </c>
       <c r="K13" s="5">
@@ -2169,57 +2615,85 @@
         <v>87.800000000000011</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" ref="O13" si="54">+O9-O12</f>
-        <v>188.11075</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="AC13" s="3">
-        <f>+AC9-AC12</f>
-        <v>679.51075000000014</v>
-      </c>
-      <c r="AD13" s="3">
-        <f t="shared" ref="AD13:AG13" si="55">+AD9-AD12</f>
-        <v>1194.5242500000004</v>
-      </c>
-      <c r="AE13" s="3">
-        <f t="shared" si="55"/>
-        <v>1358.8182000000004</v>
-      </c>
-      <c r="AF13" s="3">
-        <f t="shared" si="55"/>
-        <v>1468.1328975000001</v>
+        <f t="shared" ref="O13:P13" si="63">+O9-O12</f>
+        <v>103.40000000000003</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="63"/>
+        <v>128.50000000000006</v>
+      </c>
+      <c r="Q13" s="5">
+        <f>+Q9-Q12</f>
+        <v>73.599999999999966</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" ref="R13:W13" si="64">+R9-R12</f>
+        <v>141.20000000000005</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="64"/>
+        <v>149.70000000000005</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="64"/>
+        <v>105.29999999999995</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="64"/>
+        <v>147.89999999999986</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="64"/>
+        <v>568.58620000000008</v>
+      </c>
+      <c r="W13" s="5">
+        <f t="shared" si="64"/>
+        <v>626.55320000000006</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" si="55"/>
-        <v>1544.1072423750006</v>
+        <f>+AG9-AG12</f>
+        <v>249</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" ref="AH13" si="56">+AH9-AH12</f>
-        <v>1636.5881919937506</v>
+        <f t="shared" ref="AH13:AK13" si="65">+AH9-AH12</f>
+        <v>493</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" ref="AI13" si="57">+AI9-AI12</f>
-        <v>1733.6931890934384</v>
+        <f t="shared" si="65"/>
+        <v>1448.3393999999998</v>
       </c>
       <c r="AJ13" s="3">
-        <f t="shared" ref="AJ13" si="58">+AJ9-AJ12</f>
-        <v>1754.0852384843724</v>
+        <f t="shared" si="65"/>
+        <v>2012.6170349999998</v>
       </c>
       <c r="AK13" s="3">
-        <f t="shared" ref="AK13" si="59">+AK9-AK12</f>
-        <v>1774.6812083692166</v>
+        <f t="shared" si="65"/>
+        <v>2087.2603867499997</v>
       </c>
       <c r="AL13" s="3">
-        <f t="shared" ref="AL13" si="60">+AL9-AL12</f>
-        <v>1795.4831379529082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AL13" si="66">+AL9-AL12</f>
+        <v>2213.4529060875002</v>
+      </c>
+      <c r="AM13" s="3">
+        <f t="shared" ref="AM13" si="67">+AM9-AM12</f>
+        <v>2345.9550513918753</v>
+      </c>
+      <c r="AN13" s="3">
+        <f t="shared" ref="AN13" si="68">+AN9-AN12</f>
+        <v>2373.7805019057937</v>
+      </c>
+      <c r="AO13" s="3">
+        <f t="shared" ref="AO13" si="69">+AO9-AO12</f>
+        <v>2401.8842069248522</v>
+      </c>
+      <c r="AP13" s="3">
+        <f t="shared" ref="AP13" si="70">+AP9-AP12</f>
+        <v>2430.2689489941004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5">
         <v>-8.1999999999999993</v>
@@ -2258,68 +2732,88 @@
         <v>-1.2</v>
       </c>
       <c r="O14" s="5">
-        <f>SUM(K14:N14)</f>
-        <v>-12.599999999999998</v>
-      </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="AC14" s="3">
-        <f>AVERAGE(L14:O14)</f>
-        <v>-4.6499999999999995</v>
-      </c>
-      <c r="AD14" s="3">
-        <f>+AC25*$AS$26</f>
+        <f>-1.1+8.4</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="P14" s="5">
+        <f>-1.1+9.8</f>
+        <v>8.7000000000000011</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>10.7</v>
+      </c>
+      <c r="R14" s="5">
+        <f>-1.1+15.6</f>
+        <v>14.5</v>
+      </c>
+      <c r="S14" s="5">
+        <f>-1.1+20</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="T14" s="5">
+        <f>23.4-1.1</f>
+        <v>22.299999999999997</v>
+      </c>
+      <c r="U14" s="5">
+        <v>22.8</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="AG14" s="3">
+        <f t="shared" ref="AG14" si="71">SUM(L14:O14)</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="AH14" s="3">
+        <f t="shared" ref="AH14" si="72">SUM(P14:S14)</f>
+        <v>52.8</v>
+      </c>
+      <c r="AI14" s="3">
+        <f t="shared" ref="AI14" si="73">SUM(T14:W14)</f>
+        <v>45.099999999999994</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f>+AI25*$AS$28</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="3">
-        <f t="shared" ref="AE14:AL14" si="61">+AD25*$AS$26</f>
-        <v>28.668582000000008</v>
-      </c>
-      <c r="AF14" s="3">
-        <f t="shared" si="61"/>
-        <v>61.968264768000004</v>
-      </c>
-      <c r="AG14" s="3">
-        <f t="shared" si="61"/>
-        <v>98.690692662431999</v>
-      </c>
-      <c r="AH14" s="3">
-        <f t="shared" si="61"/>
-        <v>138.11784310333039</v>
-      </c>
-      <c r="AI14" s="3">
-        <f t="shared" si="61"/>
-        <v>180.71078794566034</v>
-      </c>
-      <c r="AJ14" s="3">
-        <f t="shared" si="61"/>
-        <v>226.65648339459869</v>
-      </c>
       <c r="AK14" s="3">
-        <f t="shared" si="61"/>
-        <v>274.194284719694</v>
+        <f>+AJ25*$AS$28</f>
+        <v>0</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" si="61"/>
-        <v>323.36729655382788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AK25*$AS$28</f>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="3">
+        <f>+AL25*$AS$28</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="3">
+        <f>+AM25*$AS$28</f>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3">
+        <f>+AN25*$AS$28</f>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="3">
+        <f>+AO25*$AS$28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" ref="C15" si="62">+C13+C14</f>
+        <f t="shared" ref="C15" si="74">+C13+C14</f>
         <v>76.8</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" ref="D15" si="63">+D13+D14</f>
+        <f t="shared" ref="D15" si="75">+D13+D14</f>
         <v>50.7</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" ref="E15" si="64">+E13+E14</f>
+        <f t="shared" ref="E15" si="76">+E13+E14</f>
         <v>114.30000000000005</v>
       </c>
       <c r="F15" s="5">
@@ -2339,7 +2833,7 @@
         <v>61.600000000000009</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" ref="J15" si="65">+J13+J14</f>
+        <f t="shared" ref="J15" si="77">+J13+J14</f>
         <v>37.9</v>
       </c>
       <c r="K15" s="5">
@@ -2355,61 +2849,89 @@
         <v>52.499999999999929</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" ref="N15:O15" si="66">+N13+N14</f>
+        <f t="shared" ref="N15:P15" si="78">+N13+N14</f>
         <v>86.600000000000009</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="66"/>
-        <v>175.51075</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="AC15" s="3">
-        <f>+AC13+AC14</f>
-        <v>674.86075000000017</v>
-      </c>
-      <c r="AD15" s="3">
-        <f t="shared" ref="AD15:AL15" si="67">+AD13+AD14</f>
-        <v>1194.5242500000004</v>
-      </c>
-      <c r="AE15" s="3">
-        <f t="shared" si="67"/>
-        <v>1387.4867820000004</v>
-      </c>
-      <c r="AF15" s="3">
-        <f t="shared" si="67"/>
-        <v>1530.1011622680001</v>
+        <f t="shared" si="78"/>
+        <v>110.70000000000003</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="78"/>
+        <v>137.20000000000005</v>
+      </c>
+      <c r="Q15" s="5">
+        <f>+Q13+Q14</f>
+        <v>84.299999999999969</v>
+      </c>
+      <c r="R15" s="5">
+        <f>+R13+R14</f>
+        <v>155.70000000000005</v>
+      </c>
+      <c r="S15" s="5">
+        <f>+S13+S14</f>
+        <v>168.60000000000005</v>
+      </c>
+      <c r="T15" s="5">
+        <f>+T13+T14</f>
+        <v>127.59999999999995</v>
+      </c>
+      <c r="U15" s="5">
+        <f>+U13+U14</f>
+        <v>170.69999999999987</v>
+      </c>
+      <c r="V15" s="5">
+        <f>+V13+V14</f>
+        <v>568.58620000000008</v>
+      </c>
+      <c r="W15" s="5">
+        <f>+W13+W14</f>
+        <v>626.55320000000006</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="67"/>
-        <v>1642.7979350374326</v>
+        <f>+AG13+AG14</f>
+        <v>250.3</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="67"/>
-        <v>1774.706035097081</v>
+        <f t="shared" ref="AH15:AP15" si="79">+AH13+AH14</f>
+        <v>545.79999999999995</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="67"/>
-        <v>1914.4039770390987</v>
+        <f t="shared" si="79"/>
+        <v>1493.4393999999998</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" si="67"/>
-        <v>1980.741721878971</v>
+        <f t="shared" si="79"/>
+        <v>2012.6170349999998</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" si="67"/>
-        <v>2048.8754930889108</v>
+        <f t="shared" si="79"/>
+        <v>2087.2603867499997</v>
       </c>
       <c r="AL15" s="3">
-        <f t="shared" si="67"/>
-        <v>2118.8504345067363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="79"/>
+        <v>2213.4529060875002</v>
+      </c>
+      <c r="AM15" s="3">
+        <f t="shared" si="79"/>
+        <v>2345.9550513918753</v>
+      </c>
+      <c r="AN15" s="3">
+        <f t="shared" si="79"/>
+        <v>2373.7805019057937</v>
+      </c>
+      <c r="AO15" s="3">
+        <f t="shared" si="79"/>
+        <v>2401.8842069248522</v>
+      </c>
+      <c r="AP15" s="3">
+        <f t="shared" si="79"/>
+        <v>2430.2689489941004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5">
         <v>4.5999999999999996</v>
@@ -2448,68 +2970,83 @@
         <v>29.4</v>
       </c>
       <c r="O16" s="5">
-        <f>+O15*0.2</f>
-        <v>35.102150000000002</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="AC16" s="3">
-        <f>+AC15*0.2</f>
-        <v>134.97215000000003</v>
-      </c>
-      <c r="AD16" s="3">
-        <f t="shared" ref="AD16:AL16" si="68">+AD15*0.2</f>
-        <v>238.9048500000001</v>
-      </c>
-      <c r="AE16" s="3">
-        <f t="shared" si="68"/>
-        <v>277.49735640000011</v>
-      </c>
-      <c r="AF16" s="3">
-        <f t="shared" si="68"/>
-        <v>306.02023245360004</v>
-      </c>
+        <v>14.5</v>
+      </c>
+      <c r="P16" s="5">
+        <v>-26.7</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>26.1</v>
+      </c>
+      <c r="R16" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="S16" s="5">
+        <v>50.5</v>
+      </c>
+      <c r="T16" s="5">
+        <v>-8.9</v>
+      </c>
+      <c r="U16" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
       <c r="AG16" s="3">
-        <f t="shared" si="68"/>
-        <v>328.55958700748653</v>
+        <f t="shared" ref="AG16" si="80">SUM(L16:O16)</f>
+        <v>51.4</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="68"/>
-        <v>354.9412070194162</v>
+        <f t="shared" ref="AH16" si="81">SUM(P16:S16)</f>
+        <v>82.4</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="68"/>
-        <v>382.88079540781973</v>
+        <f t="shared" ref="AI16" si="82">SUM(T16:W16)</f>
+        <v>24.700000000000003</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="68"/>
-        <v>396.14834437579424</v>
+        <f t="shared" ref="AH16:AP16" si="83">+AJ15*0.2</f>
+        <v>402.52340699999996</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="68"/>
-        <v>409.77509861778219</v>
+        <f t="shared" si="83"/>
+        <v>417.45207734999997</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" si="68"/>
-        <v>423.77008690134727</v>
-      </c>
-    </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.2">
+        <f t="shared" si="83"/>
+        <v>442.69058121750004</v>
+      </c>
+      <c r="AM16" s="3">
+        <f t="shared" si="83"/>
+        <v>469.19101027837507</v>
+      </c>
+      <c r="AN16" s="3">
+        <f t="shared" si="83"/>
+        <v>474.75610038115877</v>
+      </c>
+      <c r="AO16" s="3">
+        <f t="shared" si="83"/>
+        <v>480.37684138497048</v>
+      </c>
+      <c r="AP16" s="3">
+        <f t="shared" si="83"/>
+        <v>486.05378979882011</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" ref="C17" si="69">+C15-C16</f>
+        <f t="shared" ref="C17" si="84">+C15-C16</f>
         <v>72.2</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" ref="D17" si="70">+D15-D16</f>
+        <f t="shared" ref="D17" si="85">+D15-D16</f>
         <v>49.2</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" ref="E17" si="71">+E15-E16</f>
+        <f t="shared" ref="E17" si="86">+E15-E16</f>
         <v>110.70000000000006</v>
       </c>
       <c r="F17" s="5">
@@ -2529,7 +3066,7 @@
         <v>46.400000000000006</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" ref="J17" si="72">+J15-J16</f>
+        <f t="shared" ref="J17" si="87">+J15-J16</f>
         <v>37.9</v>
       </c>
       <c r="K17" s="5">
@@ -2545,76 +3082,104 @@
         <v>52.499999999999929</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" ref="N17:O17" si="73">+N15-N16</f>
+        <f t="shared" ref="N17:P17" si="88">+N15-N16</f>
         <v>57.20000000000001</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="73"/>
-        <v>140.40860000000001</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="AC17" s="3">
-        <f>+AC15-AC16</f>
-        <v>539.88860000000011</v>
-      </c>
-      <c r="AD17" s="3">
-        <f t="shared" ref="AD17:AL17" si="74">+AD15-AD16</f>
-        <v>955.61940000000027</v>
-      </c>
-      <c r="AE17" s="3">
-        <f t="shared" si="74"/>
-        <v>1109.9894256000002</v>
-      </c>
-      <c r="AF17" s="3">
-        <f t="shared" si="74"/>
-        <v>1224.0809298144</v>
+        <f t="shared" si="88"/>
+        <v>96.200000000000031</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="88"/>
+        <v>163.90000000000003</v>
+      </c>
+      <c r="Q17" s="5">
+        <f>+Q15-Q16</f>
+        <v>58.199999999999967</v>
+      </c>
+      <c r="R17" s="5">
+        <f>+R15-R16</f>
+        <v>123.20000000000005</v>
+      </c>
+      <c r="S17" s="5">
+        <f>+S15-S16</f>
+        <v>118.10000000000005</v>
+      </c>
+      <c r="T17" s="5">
+        <f>+T15-T16</f>
+        <v>136.49999999999994</v>
+      </c>
+      <c r="U17" s="5">
+        <f>+U15-U16</f>
+        <v>137.09999999999988</v>
+      </c>
+      <c r="V17" s="5">
+        <f>+V15-V16</f>
+        <v>568.58620000000008</v>
+      </c>
+      <c r="W17" s="5">
+        <f>+W15-W16</f>
+        <v>626.55320000000006</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" si="74"/>
-        <v>1314.2383480299461</v>
+        <f>+AG15-AG16</f>
+        <v>198.9</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" si="74"/>
-        <v>1419.7648280776648</v>
+        <f t="shared" ref="AH17:AP17" si="89">+AH15-AH16</f>
+        <v>463.4</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" si="74"/>
-        <v>1531.5231816312789</v>
+        <f t="shared" si="89"/>
+        <v>1468.7393999999997</v>
       </c>
       <c r="AJ17" s="3">
-        <f t="shared" si="74"/>
-        <v>1584.5933775031767</v>
+        <f t="shared" si="89"/>
+        <v>1610.0936279999999</v>
       </c>
       <c r="AK17" s="3">
-        <f t="shared" si="74"/>
-        <v>1639.1003944711288</v>
+        <f t="shared" si="89"/>
+        <v>1669.8083093999999</v>
       </c>
       <c r="AL17" s="3">
-        <f t="shared" si="74"/>
-        <v>1695.0803476053891</v>
-      </c>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-    </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.2">
+        <f t="shared" si="89"/>
+        <v>1770.7623248700002</v>
+      </c>
+      <c r="AM17" s="3">
+        <f t="shared" si="89"/>
+        <v>1876.7640411135003</v>
+      </c>
+      <c r="AN17" s="3">
+        <f t="shared" si="89"/>
+        <v>1899.0244015246349</v>
+      </c>
+      <c r="AO17" s="3">
+        <f t="shared" si="89"/>
+        <v>1921.5073655398817</v>
+      </c>
+      <c r="AP17" s="3">
+        <f t="shared" si="89"/>
+        <v>1944.2151591952802</v>
+      </c>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+    </row>
+    <row r="18" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18" si="75">+C17/C19</f>
+        <f t="shared" ref="C18" si="90">+C17/C19</f>
         <v>0.74279835390946503</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18" si="76">+D17/D19</f>
+        <f t="shared" ref="D18" si="91">+D17/D19</f>
         <v>0.5072164948453608</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" ref="E18" si="77">+E17/E19</f>
+        <f t="shared" ref="E18" si="92">+E17/E19</f>
         <v>1.1272912423625261</v>
       </c>
       <c r="F18" s="4">
@@ -2634,7 +3199,7 @@
         <v>0.47492323439099288</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" ref="J18" si="78">+J17/J19</f>
+        <f t="shared" ref="J18" si="93">+J17/J19</f>
         <v>0.38792221084953937</v>
       </c>
       <c r="K18" s="4">
@@ -2655,58 +3220,86 @@
       </c>
       <c r="O18" s="4">
         <f>+O17/O19</f>
-        <v>1.4182686868686869</v>
-      </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="AC18" s="1">
-        <f>+AC17/AC19</f>
-        <v>5.5203333333333342</v>
-      </c>
-      <c r="AD18" s="1">
-        <f>+AD17/AD19</f>
-        <v>9.771159509202457</v>
-      </c>
-      <c r="AE18" s="1">
-        <f t="shared" ref="AE18:AL18" si="79">+AE17/AE19</f>
-        <v>11.349585128834358</v>
-      </c>
-      <c r="AF18" s="1">
-        <f t="shared" si="79"/>
-        <v>12.516164926527606</v>
+        <v>0.95247524752475277</v>
+      </c>
+      <c r="P18" s="4">
+        <f>+P17/P19</f>
+        <v>1.687950566426365</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>+Q17/Q19</f>
+        <v>0.58083832335329311</v>
+      </c>
+      <c r="R18" s="4">
+        <f>+R17/R19</f>
+        <v>1.2185954500494565</v>
+      </c>
+      <c r="S18" s="4">
+        <f>+S17/S19</f>
+        <v>1.1716269841269846</v>
+      </c>
+      <c r="T18" s="4">
+        <f>+T17/T19</f>
+        <v>1.3175675675675671</v>
+      </c>
+      <c r="U18" s="4">
+        <f>+U17/U19</f>
+        <v>1.3195380173243492</v>
+      </c>
+      <c r="V18" s="4">
+        <f>+V17/V19</f>
+        <v>5.4724369586140522</v>
+      </c>
+      <c r="W18" s="4">
+        <f>+W17/W19</f>
+        <v>6.0303484119345523</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="79"/>
-        <v>13.438019918506606</v>
+        <f>+AG17/AG19</f>
+        <v>2.0233977619532046</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="79"/>
-        <v>14.517022781980213</v>
+        <f>+AH17/AH19</f>
+        <v>4.6432865731462929</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="79"/>
-        <v>15.65974623344866</v>
+        <f t="shared" ref="AI18:AP18" si="94">+AI17/AI19</f>
+        <v>14.146298097760654</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="79"/>
-        <v>16.202386273038616</v>
+        <f t="shared" si="94"/>
+        <v>15.507764295689864</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" si="79"/>
-        <v>16.759717734878617</v>
+        <f t="shared" si="94"/>
+        <v>16.082911720683843</v>
       </c>
       <c r="AL18" s="1">
-        <f t="shared" si="79"/>
-        <v>17.332109893715636</v>
-      </c>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-    </row>
-    <row r="19" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="94"/>
+        <v>17.05525957014207</v>
+      </c>
+      <c r="AM18" s="1">
+        <f t="shared" si="94"/>
+        <v>18.076224812073203</v>
+      </c>
+      <c r="AN18" s="1">
+        <f t="shared" si="94"/>
+        <v>18.290627512878739</v>
+      </c>
+      <c r="AO18" s="1">
+        <f t="shared" si="94"/>
+        <v>18.507174240692336</v>
+      </c>
+      <c r="AP18" s="1">
+        <f t="shared" si="94"/>
+        <v>18.725886435784062</v>
+      </c>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+    </row>
+    <row r="19" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
@@ -2747,264 +3340,326 @@
         <v>99</v>
       </c>
       <c r="O19" s="5">
-        <f>+N19</f>
-        <v>99</v>
-      </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="AC19" s="3">
+        <v>101</v>
+      </c>
+      <c r="P19" s="5">
+        <v>97.1</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>100.2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>101.1</v>
+      </c>
+      <c r="S19" s="5">
+        <v>100.8</v>
+      </c>
+      <c r="T19" s="5">
+        <v>103.6</v>
+      </c>
+      <c r="U19" s="5">
+        <v>103.9</v>
+      </c>
+      <c r="V19" s="5">
+        <f>+U19</f>
+        <v>103.9</v>
+      </c>
+      <c r="W19" s="5">
+        <f>+V19</f>
+        <v>103.9</v>
+      </c>
+      <c r="AG19" s="3">
         <f>AVERAGE(L19:O19)</f>
-        <v>97.8</v>
-      </c>
-      <c r="AD19" s="3">
-        <f>+AC19</f>
-        <v>97.8</v>
-      </c>
-      <c r="AE19" s="3">
-        <f t="shared" ref="AE19:AL19" si="80">+AD19</f>
-        <v>97.8</v>
-      </c>
-      <c r="AF19" s="3">
-        <f t="shared" si="80"/>
-        <v>97.8</v>
-      </c>
-      <c r="AG19" s="3">
-        <f t="shared" si="80"/>
-        <v>97.8</v>
+        <v>98.3</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="80"/>
-        <v>97.8</v>
+        <f>AVERAGE(P19:S19)</f>
+        <v>99.8</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="80"/>
-        <v>97.8</v>
+        <f>AVERAGE(T19:W19)</f>
+        <v>103.82499999999999</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="80"/>
-        <v>97.8</v>
+        <f t="shared" ref="AI19:AP19" si="95">+AI19</f>
+        <v>103.82499999999999</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="80"/>
-        <v>97.8</v>
+        <f t="shared" si="95"/>
+        <v>103.82499999999999</v>
       </c>
       <c r="AL19" s="3">
-        <f t="shared" si="80"/>
-        <v>97.8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
+        <f t="shared" si="95"/>
+        <v>103.82499999999999</v>
+      </c>
+      <c r="AM19" s="3">
+        <f t="shared" si="95"/>
+        <v>103.82499999999999</v>
+      </c>
+      <c r="AN19" s="3">
+        <f t="shared" si="95"/>
+        <v>103.82499999999999</v>
+      </c>
+      <c r="AO19" s="3">
+        <f t="shared" si="95"/>
+        <v>103.82499999999999</v>
+      </c>
+      <c r="AP19" s="3">
+        <f t="shared" si="95"/>
+        <v>103.82499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H21" s="16">
-        <f t="shared" ref="H21:M21" si="81">+H5/D5-1</f>
+        <f t="shared" ref="H21:M21" si="96">+H5/D5-1</f>
         <v>-4.3271311120729461E-4</v>
       </c>
       <c r="I21" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>-2.989536621823663E-3</v>
       </c>
       <c r="J21" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0.13656040928768198</v>
       </c>
       <c r="K21" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0.25777041027766256</v>
       </c>
       <c r="L21" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0.32034632034632038</v>
       </c>
       <c r="M21" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0.31934032983508231</v>
       </c>
       <c r="N21" s="16">
-        <f t="shared" ref="N21:O21" si="82">+N5/J5-1</f>
+        <f t="shared" ref="N21:W21" si="97">+N5/J5-1</f>
         <v>0.31336565096952906</v>
       </c>
       <c r="O21" s="16">
-        <f t="shared" si="82"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="AB21" s="17">
-        <f>+AB5/AA5-1</f>
+        <f t="shared" si="97"/>
+        <v>0.33311367380560131</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="97"/>
+        <v>0.36163934426229516</v>
+      </c>
+      <c r="Q21" s="16">
+        <f t="shared" si="97"/>
+        <v>0.2678977272727272</v>
+      </c>
+      <c r="R21" s="16">
+        <f t="shared" si="97"/>
+        <v>0.2965989981544952</v>
+      </c>
+      <c r="S21" s="16">
+        <f t="shared" si="97"/>
+        <v>0.25358378645575863</v>
+      </c>
+      <c r="T21" s="16">
+        <f t="shared" si="97"/>
+        <v>0.22562003371057071</v>
+      </c>
+      <c r="U21" s="16">
+        <f t="shared" si="97"/>
+        <v>0.30808872955411148</v>
+      </c>
+      <c r="V21" s="16">
+        <f t="shared" si="97"/>
+        <v>0.17972753151687693</v>
+      </c>
+      <c r="W21" s="16">
+        <f t="shared" si="97"/>
+        <v>0.26052839116719251</v>
+      </c>
+      <c r="AF21" s="17">
+        <f>+AF5/AE5-1</f>
         <v>9.6569761593400916E-2</v>
       </c>
-      <c r="AC21" s="17">
-        <f>+AC5/AB5-1</f>
-        <v>0.28474451885148166</v>
-      </c>
-      <c r="AD21" s="17">
-        <f>+AD5/AC5-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AE21" s="17">
-        <f t="shared" ref="AE21:AL21" si="83">+AE5/AD5-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AF21" s="17">
-        <f t="shared" si="83"/>
+      <c r="AG21" s="17">
+        <f>+AG5/AF5-1</f>
+        <v>0.32180533895972863</v>
+      </c>
+      <c r="AH21" s="17">
+        <f>+AH5/AG5-1</f>
+        <v>0.29127628565479902</v>
+      </c>
+      <c r="AI21" s="17">
+        <f t="shared" ref="AI21:AP21" si="98">+AI5/AH5-1</f>
+        <v>0.24278727292271296</v>
+      </c>
+      <c r="AJ21" s="17">
+        <f t="shared" si="98"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AG21" s="17">
-        <f t="shared" si="83"/>
+      <c r="AK21" s="17">
+        <f t="shared" si="98"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AH21" s="17">
-        <f t="shared" si="83"/>
+      <c r="AL21" s="17">
+        <f t="shared" si="98"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AI21" s="17">
-        <f t="shared" si="83"/>
+      <c r="AM21" s="17">
+        <f t="shared" si="98"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AJ21" s="17">
-        <f t="shared" si="83"/>
+      <c r="AN21" s="17">
+        <f t="shared" si="98"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AK21" s="17">
-        <f t="shared" si="83"/>
+      <c r="AO21" s="17">
+        <f t="shared" si="98"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AL21" s="17">
-        <f t="shared" si="83"/>
+      <c r="AP21" s="17">
+        <f t="shared" si="98"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
-    </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
+    </row>
+    <row r="23" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="16">
-        <f t="shared" ref="C23" si="84">C9/C7</f>
+        <f t="shared" ref="C23" si="99">C9/C7</f>
         <v>0.98975829578041785</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" ref="D23" si="85">D9/D7</f>
+        <f t="shared" ref="D23" si="100">D9/D7</f>
         <v>0.99114297764656267</v>
       </c>
       <c r="E23" s="16">
-        <f t="shared" ref="E23" si="86">E9/E7</f>
+        <f t="shared" ref="E23" si="101">E9/E7</f>
         <v>0.99206349206349209</v>
       </c>
       <c r="F23" s="16">
-        <f t="shared" ref="F23:M23" si="87">F9/F7</f>
+        <f t="shared" ref="F23:M23" si="102">F9/F7</f>
         <v>0.98878143133462282</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="102"/>
         <v>0.98830173457039128</v>
       </c>
       <c r="H23" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="102"/>
         <v>0.98774302620456467</v>
       </c>
       <c r="I23" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="102"/>
         <v>0.98926964347525093</v>
       </c>
       <c r="J23" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="102"/>
         <v>0.9858108108108109</v>
       </c>
       <c r="K23" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="102"/>
         <v>0.98685897435897429</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="102"/>
         <v>0.98518995492594974</v>
       </c>
       <c r="M23" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="102"/>
         <v>0.98730830248545742</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" ref="N23:O23" si="88">N9/N7</f>
+        <f t="shared" ref="N23:W23" si="103">N9/N7</f>
         <v>0.98427429749935547</v>
       </c>
       <c r="O23" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="103"/>
+        <v>0.98131067961165053</v>
+      </c>
+      <c r="P23" s="16">
+        <f t="shared" si="103"/>
+        <v>0.97978116079923883</v>
+      </c>
+      <c r="Q23" s="16">
+        <f t="shared" si="103"/>
+        <v>0.97459686326485528</v>
+      </c>
+      <c r="R23" s="16">
+        <f t="shared" si="103"/>
+        <v>0.97754611066559749</v>
+      </c>
+      <c r="S23" s="16">
+        <f t="shared" si="103"/>
+        <v>0.98348231636222305</v>
+      </c>
+      <c r="T23" s="16">
+        <f t="shared" si="103"/>
+        <v>0.9854453716281778</v>
+      </c>
+      <c r="U23" s="16">
+        <f t="shared" si="103"/>
+        <v>0.98441206370721779</v>
+      </c>
+      <c r="V23" s="16">
+        <f t="shared" si="103"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="103"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="AG23" s="16">
+        <f t="shared" ref="AG23:AP23" si="104">AG9/AG7</f>
+        <v>0.98441593336468058</v>
+      </c>
+      <c r="AH23" s="16">
+        <f t="shared" si="104"/>
+        <v>0.97895573813941161</v>
+      </c>
+      <c r="AI23" s="16">
+        <f t="shared" si="104"/>
+        <v>0.98232685169653722</v>
+      </c>
+      <c r="AJ23" s="16">
+        <f t="shared" si="104"/>
         <v>0.99</v>
       </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="AC23" s="16">
-        <f t="shared" ref="AC23:AL23" si="89">AC9/AC7</f>
-        <v>0.98674288172043012</v>
-      </c>
-      <c r="AD23" s="16">
-        <f t="shared" si="89"/>
+      <c r="AK23" s="16">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="AL23" s="16">
+        <f t="shared" si="104"/>
         <v>0.9900000000000001</v>
       </c>
-      <c r="AE23" s="16">
-        <f t="shared" si="89"/>
-        <v>0.9900000000000001</v>
-      </c>
-      <c r="AF23" s="16">
-        <f t="shared" si="89"/>
+      <c r="AM23" s="16">
+        <f t="shared" si="104"/>
         <v>0.99</v>
       </c>
-      <c r="AG23" s="16">
-        <f t="shared" si="89"/>
+      <c r="AN23" s="16">
+        <f t="shared" si="104"/>
+        <v>0.98999999999999988</v>
+      </c>
+      <c r="AO23" s="16">
+        <f t="shared" si="104"/>
         <v>0.99</v>
       </c>
-      <c r="AH23" s="16">
-        <f t="shared" si="89"/>
+      <c r="AP23" s="16">
+        <f t="shared" si="104"/>
         <v>0.99</v>
       </c>
-      <c r="AI23" s="16">
-        <f t="shared" si="89"/>
-        <v>0.99</v>
-      </c>
-      <c r="AJ23" s="16">
-        <f t="shared" si="89"/>
-        <v>0.99</v>
-      </c>
-      <c r="AK23" s="16">
-        <f t="shared" si="89"/>
-        <v>0.9900000000000001</v>
-      </c>
-      <c r="AL23" s="16">
-        <f t="shared" si="89"/>
-        <v>0.98999999999999988</v>
-      </c>
-      <c r="AM23" s="16"/>
-      <c r="AN23" s="16"/>
-      <c r="AO23" s="16"/>
-      <c r="AP23" s="16"/>
-      <c r="AR23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS23" s="17">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="AR24" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS24" s="3">
-        <f>NPV(AS23,AD17:AP17)+Main!L5-Main!L6</f>
-        <v>9331.9887582974225</v>
-      </c>
-    </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+    </row>
+    <row r="25" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -3018,64 +3673,172 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
-      <c r="AC25" s="3">
-        <f>+O25</f>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="3">
-        <f>+AC25+AD17</f>
-        <v>955.61940000000027</v>
-      </c>
-      <c r="AE25" s="3">
-        <f t="shared" ref="AE25:AL25" si="90">+AD25+AE17</f>
-        <v>2065.6088256000003</v>
-      </c>
-      <c r="AF25" s="3">
-        <f t="shared" si="90"/>
-        <v>3289.6897554144002</v>
-      </c>
-      <c r="AG25" s="3">
-        <f t="shared" si="90"/>
-        <v>4603.9281034443466</v>
-      </c>
-      <c r="AH25" s="3">
-        <f t="shared" si="90"/>
-        <v>6023.6929315220113</v>
-      </c>
-      <c r="AI25" s="3">
-        <f t="shared" si="90"/>
-        <v>7555.2161131532903</v>
-      </c>
-      <c r="AJ25" s="3">
-        <f t="shared" si="90"/>
-        <v>9139.8094906564675</v>
-      </c>
-      <c r="AK25" s="3">
-        <f t="shared" si="90"/>
-        <v>10778.909885127596</v>
-      </c>
-      <c r="AL25" s="3">
-        <f t="shared" si="90"/>
-        <v>12473.990232732986</v>
-      </c>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5">
+        <f>139.7+899.2+637.8+143.6</f>
+        <v>1820.3</v>
+      </c>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
       <c r="AR25" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS25" s="1">
-        <f>AS24/Main!L3</f>
-        <v>97.57481191546124</v>
-      </c>
-    </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="AS25" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="AT25" s="3"/>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="U26" s="5">
+        <v>468.2</v>
+      </c>
       <c r="AR26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS26" s="17">
+        <v>80</v>
+      </c>
+      <c r="AS26" s="3">
+        <f>NPV(AS25,AH17:AT17)+Main!L5-Main!L6</f>
+        <v>11520.700112077373</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="U27" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS27" s="1">
+        <f>AS26/Main!L3</f>
+        <v>114.09316771191781</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U28" s="5">
+        <v>120.2</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS28" s="17">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="U29" s="5">
+        <v>419.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="U30" s="5">
+        <v>262.89999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="U31" s="5">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="U32" s="5">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="U33" s="5">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="U34" s="5">
+        <f>SUM(U25:U33)</f>
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="U36" s="5">
+        <v>358.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="U37" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="U38" s="5">
+        <v>256.2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="U39" s="5">
+        <v>141.1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="U40" s="5">
+        <v>2509.1999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="U41" s="5">
+        <f>SUM(U36:U40)</f>
+        <v>3305</v>
       </c>
     </row>
   </sheetData>
@@ -3089,9 +3852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C74248D-D5A5-4F71-9210-08718D86A5A2}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3108,15 +3869,15 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3124,28 +3885,28 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3154,4 +3915,144 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45F8799-2FF4-4EC6-9BEA-095D9A17383B}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{88EB219B-DDE0-46CC-B788-95B6DCB73CE8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380D85D1-9DCE-4499-A8CA-F486173AC1B3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{65E08BD3-BBDC-4586-867C-9363D1662C2B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NBIX.xlsx
+++ b/NBIX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358D2DD6-C1B4-4BC8-BC5A-7D6D0A39059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2E3A92-02E2-442B-94ED-5606E06C2D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27015" yWindow="750" windowWidth="26490" windowHeight="19650" activeTab="1" xr2:uid="{409249CC-86EB-47D2-8A0E-5D085FBE782F}"/>
+    <workbookView xWindow="-28260" yWindow="480" windowWidth="27345" windowHeight="19950" xr2:uid="{409249CC-86EB-47D2-8A0E-5D085FBE782F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Ingrezza" sheetId="3" r:id="rId3"/>
     <sheet name="1065845" sheetId="4" r:id="rId4"/>
     <sheet name="crinecerfont" sheetId="5" r:id="rId5"/>
+    <sheet name="1117568" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
   <si>
     <t>Price</t>
   </si>
@@ -466,13 +467,40 @@
   </si>
   <si>
     <t>Phase II "SAVITRI" n=183 MDD</t>
+  </si>
+  <si>
+    <t>Ongentys</t>
+  </si>
+  <si>
+    <t>Elagolix</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Phase III - initiate early 2025</t>
+  </si>
+  <si>
+    <t>Phase II "SCZ2028"</t>
+  </si>
+  <si>
+    <t>placebo -10.7 from baseline</t>
+  </si>
+  <si>
+    <t>Week 6 PANSS 7.5point (18.2 from baseline) vs placebo, p=0.011</t>
+  </si>
+  <si>
+    <t>Cobenfy separation ~11.3 points in EMERGENT-3, 8.4 in EMERGENT-2</t>
+  </si>
+  <si>
+    <t>III starting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -491,12 +519,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -620,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -652,8 +674,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -686,7 +709,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>35092</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>140368</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -736,7 +759,7 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>20052</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>140368</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -774,6 +797,55 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>572223</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>608670</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>106994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF1416C-AC32-BC3D-D25F-A1C4A2A53140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4149906" y="1695914"/>
+          <a:ext cx="3079801" cy="2964495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1098,16 +1170,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C32A1F6-F911-40A6-8644-267FAD055F12}">
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
@@ -1135,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -1179,7 +1251,7 @@
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>12823.983623</v>
+        <v>11410.316137</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -1221,7 +1293,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
@@ -1231,7 +1303,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1242,7 +1314,7 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>11003.683623000001</v>
+        <v>9590.0161370000005</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1418,6 +1490,7 @@
     <hyperlink ref="B3" location="Ingrezza!A1" display="Ingrezza (valbenazine)" xr:uid="{A3DCB05F-467A-49D9-BDFF-0F9C96F16A9F}"/>
     <hyperlink ref="B10" location="crinecerfont!A1" display="crinecerfont" xr:uid="{7A8087B6-C265-401A-978F-A93E99DCCDEE}"/>
     <hyperlink ref="B18" location="'1065845'!A1" display="NBI-1065845" xr:uid="{6C6A8A42-AED5-4204-B4CB-F292C8E12385}"/>
+    <hyperlink ref="B7" location="'1117568'!A1" display="NBI-1117568" xr:uid="{EB14CADC-5E3F-40B1-A298-788FF9E76F3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1426,13 +1499,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2162B0C7-1B6F-4C96-9B91-E9D8930F8C52}">
-  <dimension ref="A1:AY41"/>
+  <dimension ref="A1:AY44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AH6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR25" sqref="AR25:AS28"/>
+      <selection pane="bottomRight" activeCell="AT29" sqref="AT29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1654,2190 +1727,2639 @@
       <c r="U4" s="5">
         <v>579.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="AC4" s="3">
+        <v>409.6</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>752.9</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>993.1</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>1081.9000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="5">
         <v>237.9</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="5">
         <v>231.1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="5">
         <v>267.60000000000002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="5">
         <v>254.1</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G6" s="5">
         <v>241.3</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H6" s="5">
         <v>231</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I6" s="5">
         <v>266.8</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J6" s="5">
         <v>288.8</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K6" s="5">
         <v>303.5</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L6" s="5">
         <v>305</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M6" s="5">
         <v>352</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N6" s="5">
         <v>379.3</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O6" s="5">
         <v>404.6</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P6" s="5">
         <v>415.3</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q6" s="5">
         <v>446.3</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R6" s="5">
         <v>491.8</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S6" s="5">
         <v>507.2</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T6" s="5">
         <v>509</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U6" s="5">
         <v>583.79999999999995</v>
       </c>
-      <c r="V5" s="5">
-        <f>+Q5*1.3</f>
+      <c r="V6" s="5">
+        <f>+Q6*1.3</f>
         <v>580.19000000000005</v>
       </c>
-      <c r="W5" s="5">
-        <f>+R5*1.3</f>
+      <c r="W6" s="5">
+        <f>+R6*1.3</f>
         <v>639.34</v>
       </c>
-      <c r="AE5" s="3">
-        <f>SUM(D5:G5)</f>
-        <v>994.10000000000014</v>
-      </c>
-      <c r="AF5" s="3">
-        <f>SUM(H5:K5)</f>
-        <v>1090.0999999999999</v>
-      </c>
-      <c r="AG5" s="3">
-        <f>SUM(L5:O5)</f>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>116.6</v>
+      </c>
+      <c r="AC6" s="3">
+        <f>+AC4+AC5</f>
+        <v>409.6</v>
+      </c>
+      <c r="AD6" s="3">
+        <f>+AD4+AD5</f>
+        <v>752.9</v>
+      </c>
+      <c r="AE6" s="3">
+        <f>+AE4+AE5</f>
+        <v>994.1</v>
+      </c>
+      <c r="AF6" s="3">
+        <f>+AF4+AF5</f>
+        <v>1090.1000000000001</v>
+      </c>
+      <c r="AG6" s="3">
+        <f>SUM(L6:O6)</f>
         <v>1440.9</v>
       </c>
-      <c r="AH5" s="3">
-        <f>SUM(P5:S5)</f>
+      <c r="AH6" s="3">
+        <f>SUM(P6:S6)</f>
         <v>1860.6000000000001</v>
       </c>
-      <c r="AI5" s="3">
-        <f>SUM(T5:W5)</f>
+      <c r="AI6" s="3">
+        <f>SUM(T6:W6)</f>
         <v>2312.33</v>
       </c>
-      <c r="AJ5" s="3">
-        <f>+AI5*1.05</f>
+      <c r="AJ6" s="3">
+        <f>+AI6*1.05</f>
         <v>2427.9465</v>
       </c>
-      <c r="AK5" s="3">
-        <f>+AJ5*1.05</f>
+      <c r="AK6" s="3">
+        <f>+AJ6*1.05</f>
         <v>2549.3438249999999</v>
       </c>
-      <c r="AL5" s="3">
-        <f t="shared" ref="AL5:AM5" si="1">+AK5*1.05</f>
+      <c r="AL6" s="3">
+        <f t="shared" ref="AL6:AM6" si="1">+AK6*1.05</f>
         <v>2676.8110162500002</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AM6" s="3">
         <f t="shared" si="1"/>
         <v>2810.6515670625004</v>
       </c>
-      <c r="AN5" s="3">
-        <f>+AM5*1.01</f>
+      <c r="AN6" s="3">
+        <f>+AM6*1.01</f>
         <v>2838.7580827331253</v>
       </c>
-      <c r="AO5" s="3">
-        <f t="shared" ref="AO5:AP5" si="2">+AN5*1.01</f>
+      <c r="AO6" s="3">
+        <f t="shared" ref="AO6:AP6" si="2">+AN6*1.01</f>
         <v>2867.1456635604568</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AP6" s="3">
         <f t="shared" si="2"/>
         <v>2895.8171201960613</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="AD7" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="AD8" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>32.6</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C9" s="5">
         <v>6.2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D9" s="5">
         <v>6</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E9" s="5">
         <v>34.799999999999997</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F9" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G9" s="5">
         <v>6.6</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H9" s="5">
         <v>5.6</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I9" s="5">
         <v>22.1</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J9" s="5">
         <v>7.2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K9" s="5">
         <v>8.5</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L9" s="5">
         <v>5.6</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M9" s="5">
         <v>26.2</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N9" s="5">
         <v>8.6</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O9" s="5">
         <v>7.4</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P9" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q9" s="5">
         <v>6.4</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R9" s="5">
         <v>7</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S9" s="5">
         <v>7.4</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T9" s="5">
         <v>6.3</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U9" s="5">
         <v>6.4</v>
       </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="AG6" s="3">
-        <f t="shared" ref="AG6" si="3">SUM(L6:O6)</f>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="AC9" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="AD9" s="3">
+        <f>+AD7+AD8</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AE9" s="3">
+        <f>+AE7+AE8</f>
+        <v>51.8</v>
+      </c>
+      <c r="AF9" s="3">
+        <f>+AF7+AF8</f>
+        <v>43.400000000000006</v>
+      </c>
+      <c r="AG9" s="3">
+        <f t="shared" ref="AG9" si="3">SUM(L9:O9)</f>
         <v>47.8</v>
       </c>
-      <c r="AH6" s="3">
-        <f t="shared" ref="AH6" si="4">SUM(P6:S6)</f>
+      <c r="AH9" s="3">
+        <f t="shared" ref="AH9" si="4">SUM(P9:S9)</f>
         <v>25.9</v>
       </c>
-      <c r="AI6" s="3">
-        <f t="shared" ref="AI6" si="5">SUM(T6:W6)</f>
+      <c r="AI9" s="3">
+        <f t="shared" ref="AI9" si="5">SUM(T9:W9)</f>
         <v>12.7</v>
       </c>
-      <c r="AJ6" s="3">
-        <f>SUM(O6:Z6)</f>
+      <c r="AJ9" s="3">
+        <f>SUM(O9:Z9)</f>
         <v>45.999999999999993</v>
       </c>
-      <c r="AK6" s="3">
-        <f t="shared" ref="AK6" si="6">SUM(X6:AA6)</f>
+      <c r="AK9" s="3">
+        <f t="shared" ref="AK9" si="6">SUM(X9:AA9)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="3">
-        <f t="shared" ref="AL6" si="7">SUM(Y6:AB6)</f>
+      <c r="AL9" s="3">
+        <f t="shared" ref="AL9" si="7">SUM(Y9:AB9)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="3">
-        <f t="shared" ref="AM6" si="8">SUM(Z6:AC6)</f>
-        <v>0</v>
-      </c>
-      <c r="AN6" s="3">
-        <f t="shared" ref="AN6" si="9">SUM(AA6:AD6)</f>
-        <v>0</v>
-      </c>
-      <c r="AO6" s="3">
-        <f t="shared" ref="AO6" si="10">SUM(AB6:AE6)</f>
-        <v>0</v>
-      </c>
-      <c r="AP6" s="3">
-        <f t="shared" ref="AP6" si="11">SUM(AC6:AF6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="AM9" s="3">
+        <f t="shared" ref="AM9" si="8">SUM(Z9:AC9)</f>
+        <v>41.6</v>
+      </c>
+      <c r="AN9" s="3">
+        <f t="shared" ref="AN9" si="9">SUM(AA9:AD9)</f>
+        <v>76.800000000000011</v>
+      </c>
+      <c r="AO9" s="3">
+        <f t="shared" ref="AO9" si="10">SUM(AB9:AE9)</f>
+        <v>128.60000000000002</v>
+      </c>
+      <c r="AP9" s="3">
+        <f t="shared" ref="AP9" si="11">SUM(AC9:AF9)</f>
+        <v>172.00000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
-        <f t="shared" ref="C7" si="12">+C5+C6</f>
+      <c r="C10" s="7">
+        <f t="shared" ref="C10" si="12">+C6+C9</f>
         <v>244.1</v>
       </c>
-      <c r="D7" s="7">
-        <f t="shared" ref="D7" si="13">+D5+D6</f>
+      <c r="D10" s="7">
+        <f t="shared" ref="D10" si="13">+D6+D9</f>
         <v>237.1</v>
       </c>
-      <c r="E7" s="7">
-        <f t="shared" ref="E7" si="14">+E5+E6</f>
+      <c r="E10" s="7">
+        <f t="shared" ref="E10" si="14">+E6+E9</f>
         <v>302.40000000000003</v>
       </c>
-      <c r="F7" s="7">
-        <f>+F5+F6</f>
+      <c r="F10" s="7">
+        <f>+F6+F9</f>
         <v>258.5</v>
       </c>
-      <c r="G7" s="7">
-        <f>+G5+G6</f>
+      <c r="G10" s="7">
+        <f>+G6+G9</f>
         <v>247.9</v>
       </c>
-      <c r="H7" s="7">
-        <f>+H5+H6</f>
+      <c r="H10" s="7">
+        <f>+H6+H9</f>
         <v>236.6</v>
       </c>
-      <c r="I7" s="7">
-        <f>+I5+I6</f>
+      <c r="I10" s="7">
+        <f>+I6+I9</f>
         <v>288.90000000000003</v>
       </c>
-      <c r="J7" s="7">
-        <f t="shared" ref="J7" si="15">+J5+J6</f>
+      <c r="J10" s="7">
+        <f t="shared" ref="J10" si="15">+J6+J9</f>
         <v>296</v>
       </c>
-      <c r="K7" s="7">
-        <f>+K5+K6</f>
+      <c r="K10" s="7">
+        <f>+K6+K9</f>
         <v>312</v>
       </c>
-      <c r="L7" s="7">
-        <f>+L5+L6</f>
+      <c r="L10" s="7">
+        <f>+L6+L9</f>
         <v>310.60000000000002</v>
       </c>
-      <c r="M7" s="7">
-        <f>+M5+M6</f>
+      <c r="M10" s="7">
+        <f>+M6+M9</f>
         <v>378.2</v>
       </c>
-      <c r="N7" s="7">
-        <f t="shared" ref="N7:W7" si="16">+N5+N6</f>
+      <c r="N10" s="7">
+        <f t="shared" ref="N10:W10" si="16">+N6+N9</f>
         <v>387.90000000000003</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O10" s="7">
         <f t="shared" si="16"/>
         <v>412</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P10" s="7">
         <f t="shared" si="16"/>
         <v>420.40000000000003</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q10" s="7">
         <f t="shared" si="16"/>
         <v>452.7</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R10" s="7">
         <f t="shared" si="16"/>
         <v>498.8</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S10" s="7">
         <f t="shared" si="16"/>
         <v>514.6</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T10" s="7">
         <f t="shared" si="16"/>
         <v>515.29999999999995</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U10" s="7">
         <f t="shared" si="16"/>
         <v>590.19999999999993</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V10" s="7">
         <f t="shared" si="16"/>
         <v>580.19000000000005</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W10" s="7">
         <f t="shared" si="16"/>
         <v>639.34</v>
       </c>
-      <c r="AE7" s="6">
-        <f>+AE5+AE6</f>
-        <v>994.10000000000014</v>
-      </c>
-      <c r="AF7" s="6">
-        <f>+AF5+AF6</f>
-        <v>1090.0999999999999</v>
-      </c>
-      <c r="AG7" s="6">
-        <f>+AG5+AG6</f>
+      <c r="AA10" s="6">
+        <f>+AA6+AA9</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="6">
+        <f>+AB6+AB9</f>
+        <v>116.6</v>
+      </c>
+      <c r="AC10" s="6">
+        <f>+AC6+AC9</f>
+        <v>451.20000000000005</v>
+      </c>
+      <c r="AD10" s="6">
+        <f>+AD6+AD9</f>
+        <v>788.1</v>
+      </c>
+      <c r="AE10" s="6">
+        <f>+AE6+AE9</f>
+        <v>1045.9000000000001</v>
+      </c>
+      <c r="AF10" s="6">
+        <f>+AF6+AF9</f>
+        <v>1133.5000000000002</v>
+      </c>
+      <c r="AG10" s="6">
+        <f>+AG6+AG9</f>
         <v>1488.7</v>
       </c>
-      <c r="AH7" s="6">
-        <f t="shared" ref="AH7:AK7" si="17">+AH5+AH6</f>
+      <c r="AH10" s="6">
+        <f t="shared" ref="AH10:AK10" si="17">+AH6+AH9</f>
         <v>1886.5000000000002</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AI10" s="6">
         <f t="shared" si="17"/>
         <v>2325.0299999999997</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AJ10" s="6">
         <f t="shared" si="17"/>
         <v>2473.9465</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AK10" s="6">
         <f t="shared" si="17"/>
         <v>2549.3438249999999</v>
       </c>
-      <c r="AL7" s="6">
-        <f t="shared" ref="AL7" si="18">+AL5+AL6</f>
+      <c r="AL10" s="6">
+        <f t="shared" ref="AL10" si="18">+AL6+AL9</f>
         <v>2676.8110162500002</v>
       </c>
-      <c r="AM7" s="6">
-        <f t="shared" ref="AM7" si="19">+AM5+AM6</f>
-        <v>2810.6515670625004</v>
-      </c>
-      <c r="AN7" s="6">
-        <f t="shared" ref="AN7" si="20">+AN5+AN6</f>
-        <v>2838.7580827331253</v>
-      </c>
-      <c r="AO7" s="6">
-        <f t="shared" ref="AO7" si="21">+AO5+AO6</f>
-        <v>2867.1456635604568</v>
-      </c>
-      <c r="AP7" s="6">
-        <f t="shared" ref="AP7" si="22">+AP5+AP6</f>
-        <v>2895.8171201960613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="AM10" s="6">
+        <f t="shared" ref="AM10" si="19">+AM6+AM9</f>
+        <v>2852.2515670625003</v>
+      </c>
+      <c r="AN10" s="6">
+        <f t="shared" ref="AN10" si="20">+AN6+AN9</f>
+        <v>2915.5580827331255</v>
+      </c>
+      <c r="AO10" s="6">
+        <f t="shared" ref="AO10" si="21">+AO6+AO9</f>
+        <v>2995.7456635604567</v>
+      </c>
+      <c r="AP10" s="6">
+        <f t="shared" ref="AP10" si="22">+AP6+AP9</f>
+        <v>3067.8171201960613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C11" s="5">
         <v>2.5</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D11" s="5">
         <v>2.1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E11" s="5">
         <v>2.4</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F11" s="5">
         <v>2.9</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G11" s="5">
         <v>2.9</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H11" s="5">
         <v>2.9</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I11" s="5">
         <v>3.1</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J11" s="5">
         <v>4.2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K11" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L11" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M11" s="5">
         <v>4.8</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N11" s="5">
         <v>6.1</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O11" s="5">
         <v>7.7</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P11" s="5">
         <v>8.5</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q11" s="5">
         <v>11.5</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R11" s="5">
         <v>11.2</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S11" s="5">
         <v>8.5</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T11" s="5">
         <v>7.5</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U11" s="5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="V8" s="5">
-        <f>+V7*0.02</f>
+      <c r="V11" s="5">
+        <f>+V10*0.02</f>
         <v>11.603800000000001</v>
       </c>
-      <c r="W8" s="5">
-        <f>+W7*0.02</f>
+      <c r="W11" s="5">
+        <f>+W10*0.02</f>
         <v>12.786800000000001</v>
       </c>
-      <c r="AG8" s="3">
-        <f t="shared" ref="AG8" si="23">SUM(L8:O8)</f>
+      <c r="AC11" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="AG11" s="3">
+        <f t="shared" ref="AG11" si="23">SUM(L11:O11)</f>
         <v>23.2</v>
       </c>
-      <c r="AH8" s="3">
-        <f t="shared" ref="AH8" si="24">SUM(P8:S8)</f>
+      <c r="AH11" s="3">
+        <f t="shared" ref="AH11" si="24">SUM(P11:S11)</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="AI8" s="3">
-        <f t="shared" ref="AI8" si="25">SUM(T8:W8)</f>
+      <c r="AI11" s="3">
+        <f t="shared" ref="AI11" si="25">SUM(T11:W11)</f>
         <v>41.090600000000002</v>
       </c>
-      <c r="AJ8" s="3">
-        <f t="shared" ref="AI8:AK8" si="26">+AJ7*0.01</f>
+      <c r="AJ11" s="3">
+        <f t="shared" ref="AJ11:AK11" si="26">+AJ10*0.01</f>
         <v>24.739464999999999</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AK11" s="3">
         <f t="shared" si="26"/>
         <v>25.493438250000001</v>
       </c>
-      <c r="AL8" s="3">
-        <f t="shared" ref="AL8" si="27">+AL7*0.01</f>
+      <c r="AL11" s="3">
+        <f t="shared" ref="AL11" si="27">+AL10*0.01</f>
         <v>26.768110162500001</v>
       </c>
-      <c r="AM8" s="3">
-        <f t="shared" ref="AM8" si="28">+AM7*0.01</f>
-        <v>28.106515670625004</v>
-      </c>
-      <c r="AN8" s="3">
-        <f t="shared" ref="AN8" si="29">+AN7*0.01</f>
-        <v>28.387580827331252</v>
-      </c>
-      <c r="AO8" s="3">
-        <f t="shared" ref="AO8" si="30">+AO7*0.01</f>
-        <v>28.671456635604567</v>
-      </c>
-      <c r="AP8" s="3">
-        <f t="shared" ref="AP8" si="31">+AP7*0.01</f>
-        <v>28.958171201960614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="5">
-        <f t="shared" ref="C9" si="32">+C7-C8</f>
-        <v>241.6</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" ref="D9" si="33">+D7-D8</f>
-        <v>235</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" ref="E9" si="34">+E7-E8</f>
-        <v>300.00000000000006</v>
-      </c>
-      <c r="F9" s="5">
-        <f>+F7-F8</f>
-        <v>255.6</v>
-      </c>
-      <c r="G9" s="5">
-        <f>+G7-G8</f>
-        <v>245</v>
-      </c>
-      <c r="H9" s="5">
-        <f>+H7-H8</f>
-        <v>233.7</v>
-      </c>
-      <c r="I9" s="5">
-        <f>+I7-I8</f>
-        <v>285.8</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" ref="J9" si="35">+J7-J8</f>
-        <v>291.8</v>
-      </c>
-      <c r="K9" s="5">
-        <f>+K7-K8</f>
-        <v>307.89999999999998</v>
-      </c>
-      <c r="L9" s="5">
-        <f>+L7-L8</f>
-        <v>306</v>
-      </c>
-      <c r="M9" s="5">
-        <f>+M7-M8</f>
-        <v>373.4</v>
-      </c>
-      <c r="N9" s="5">
-        <f>+N7-N8</f>
-        <v>381.8</v>
-      </c>
-      <c r="O9" s="5">
-        <f>+O7-O8</f>
-        <v>404.3</v>
-      </c>
-      <c r="P9" s="5">
-        <f>+P7-P8</f>
-        <v>411.90000000000003</v>
-      </c>
-      <c r="Q9" s="5">
-        <f>+Q7-Q8</f>
-        <v>441.2</v>
-      </c>
-      <c r="R9" s="5">
-        <f>+R7-R8</f>
-        <v>487.6</v>
-      </c>
-      <c r="S9" s="5">
-        <f>+S7-S8</f>
-        <v>506.1</v>
-      </c>
-      <c r="T9" s="5">
-        <f>+T7-T8</f>
-        <v>507.79999999999995</v>
-      </c>
-      <c r="U9" s="5">
-        <f>+U7-U8</f>
-        <v>580.99999999999989</v>
-      </c>
-      <c r="V9" s="5">
-        <f>+V7-V8</f>
-        <v>568.58620000000008</v>
-      </c>
-      <c r="W9" s="5">
-        <f>+W7-W8</f>
-        <v>626.55320000000006</v>
-      </c>
-      <c r="AG9" s="3">
-        <f>+AG7-AG8</f>
-        <v>1465.5</v>
-      </c>
-      <c r="AH9" s="3">
-        <f t="shared" ref="AH9:AK9" si="36">+AH7-AH8</f>
-        <v>1846.8000000000002</v>
-      </c>
-      <c r="AI9" s="3">
-        <f t="shared" si="36"/>
-        <v>2283.9393999999998</v>
-      </c>
-      <c r="AJ9" s="3">
-        <f t="shared" si="36"/>
-        <v>2449.2070349999999</v>
-      </c>
-      <c r="AK9" s="3">
-        <f t="shared" si="36"/>
-        <v>2523.8503867499999</v>
-      </c>
-      <c r="AL9" s="3">
-        <f t="shared" ref="AL9" si="37">+AL7-AL8</f>
-        <v>2650.0429060875003</v>
-      </c>
-      <c r="AM9" s="3">
-        <f t="shared" ref="AM9" si="38">+AM7-AM8</f>
-        <v>2782.5450513918754</v>
-      </c>
-      <c r="AN9" s="3">
-        <f t="shared" ref="AN9" si="39">+AN7-AN8</f>
-        <v>2810.3705019057938</v>
-      </c>
-      <c r="AO9" s="3">
-        <f t="shared" ref="AO9" si="40">+AO7-AO8</f>
-        <v>2838.4742069248523</v>
-      </c>
-      <c r="AP9" s="3">
-        <f t="shared" ref="AP9" si="41">+AP7-AP8</f>
-        <v>2866.8589489941005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="5">
-        <v>55.3</v>
-      </c>
-      <c r="D10" s="5">
-        <v>58.3</v>
-      </c>
-      <c r="E10" s="5">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="F10" s="5">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="G10" s="5">
-        <v>66.7</v>
-      </c>
-      <c r="H10" s="5">
-        <v>73.2</v>
-      </c>
-      <c r="I10" s="5">
-        <v>74.8</v>
-      </c>
-      <c r="J10" s="5">
-        <v>92.7</v>
-      </c>
-      <c r="K10" s="5">
-        <v>87.4</v>
-      </c>
-      <c r="L10" s="5">
-        <v>102.2</v>
-      </c>
-      <c r="M10" s="5">
-        <v>135.9</v>
-      </c>
-      <c r="N10" s="5">
-        <v>107.7</v>
-      </c>
-      <c r="O10" s="5">
-        <v>118</v>
-      </c>
-      <c r="P10" s="5">
-        <v>139.5</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>145.80000000000001</v>
-      </c>
-      <c r="R10" s="5">
-        <v>142.19999999999999</v>
-      </c>
-      <c r="S10" s="5">
-        <v>137.5</v>
-      </c>
-      <c r="T10" s="5">
-        <v>159.4</v>
-      </c>
-      <c r="U10" s="5">
-        <v>191.1</v>
-      </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="AG10" s="3">
-        <f t="shared" ref="AG10:AG11" si="42">SUM(L10:O10)</f>
-        <v>463.8</v>
-      </c>
-      <c r="AH10" s="3">
-        <f t="shared" ref="AH10:AH11" si="43">SUM(P10:S10)</f>
-        <v>565</v>
-      </c>
-      <c r="AI10" s="3">
-        <f t="shared" ref="AI10:AI11" si="44">SUM(T10:W10)</f>
-        <v>350.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="5">
-        <v>101.3</v>
-      </c>
-      <c r="D11" s="5">
-        <v>117.8</v>
-      </c>
-      <c r="E11" s="5">
-        <v>96.5</v>
-      </c>
-      <c r="F11" s="5">
-        <v>112.5</v>
-      </c>
-      <c r="G11" s="5">
-        <v>106.5</v>
-      </c>
-      <c r="H11" s="5">
-        <v>129</v>
-      </c>
-      <c r="I11" s="5">
-        <v>143.19999999999999</v>
-      </c>
-      <c r="J11" s="5">
-        <v>154.6</v>
-      </c>
-      <c r="K11" s="5">
-        <v>156.5</v>
-      </c>
-      <c r="L11" s="5">
-        <v>200.7</v>
-      </c>
-      <c r="M11" s="5">
-        <v>182.8</v>
-      </c>
-      <c r="N11" s="5">
-        <v>186.3</v>
-      </c>
-      <c r="O11" s="5">
-        <v>182.9</v>
-      </c>
-      <c r="P11" s="5">
-        <v>143.9</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>221.8</v>
-      </c>
-      <c r="R11" s="5">
-        <v>204.2</v>
-      </c>
-      <c r="S11" s="5">
-        <v>218.9</v>
-      </c>
-      <c r="T11" s="5">
-        <v>243.1</v>
-      </c>
-      <c r="U11" s="5">
-        <v>242</v>
-      </c>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="AG11" s="3">
-        <f t="shared" si="42"/>
-        <v>752.69999999999993</v>
-      </c>
-      <c r="AH11" s="3">
-        <f t="shared" si="43"/>
-        <v>788.80000000000007</v>
-      </c>
-      <c r="AI11" s="3">
-        <f t="shared" si="44"/>
-        <v>485.1</v>
-      </c>
-      <c r="AJ11" s="3">
-        <f>+AI11*0.9</f>
-        <v>436.59000000000003</v>
-      </c>
-      <c r="AK11" s="3">
-        <f>+AJ11</f>
-        <v>436.59000000000003</v>
-      </c>
-      <c r="AL11" s="3">
-        <f t="shared" ref="AL11:AM11" si="45">+AK11</f>
-        <v>436.59000000000003</v>
-      </c>
       <c r="AM11" s="3">
-        <f t="shared" si="45"/>
-        <v>436.59000000000003</v>
+        <f t="shared" ref="AM11" si="28">+AM10*0.01</f>
+        <v>28.522515670625005</v>
       </c>
       <c r="AN11" s="3">
-        <f t="shared" ref="AN11:AP11" si="46">+AM11</f>
-        <v>436.59000000000003</v>
+        <f t="shared" ref="AN11" si="29">+AN10*0.01</f>
+        <v>29.155580827331256</v>
       </c>
       <c r="AO11" s="3">
-        <f t="shared" si="46"/>
-        <v>436.59000000000003</v>
+        <f t="shared" ref="AO11" si="30">+AO10*0.01</f>
+        <v>29.957456635604569</v>
       </c>
       <c r="AP11" s="3">
-        <f t="shared" si="46"/>
-        <v>436.59000000000003</v>
+        <f t="shared" ref="AP11" si="31">+AP10*0.01</f>
+        <v>30.678171201960613</v>
       </c>
     </row>
     <row r="12" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" ref="C12" si="47">+C10+C11</f>
-        <v>156.6</v>
+        <f t="shared" ref="C12" si="32">+C10-C11</f>
+        <v>241.6</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" ref="D12" si="48">+D10+D11</f>
-        <v>176.1</v>
+        <f t="shared" ref="D12" si="33">+D10-D11</f>
+        <v>235</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ref="E12" si="49">+E10+E11</f>
-        <v>177.4</v>
+        <f t="shared" ref="E12" si="34">+E10-E11</f>
+        <v>300.00000000000006</v>
       </c>
       <c r="F12" s="5">
-        <f>+F10+F11</f>
-        <v>181.6</v>
+        <f>+F10-F11</f>
+        <v>255.6</v>
       </c>
       <c r="G12" s="5">
-        <f>+G10+G11</f>
-        <v>173.2</v>
+        <f>+G10-G11</f>
+        <v>245</v>
       </c>
       <c r="H12" s="5">
-        <f>+H10+H11</f>
-        <v>202.2</v>
+        <f>+H10-H11</f>
+        <v>233.7</v>
       </c>
       <c r="I12" s="5">
-        <f>+I10+I11</f>
-        <v>218</v>
+        <f>+I10-I11</f>
+        <v>285.8</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" ref="J12" si="50">+J10+J11</f>
-        <v>247.3</v>
+        <f t="shared" ref="J12" si="35">+J10-J11</f>
+        <v>291.8</v>
       </c>
       <c r="K12" s="5">
-        <f>+K10+K11</f>
-        <v>243.9</v>
+        <f t="shared" ref="K12:W12" si="36">+K10-K11</f>
+        <v>307.89999999999998</v>
       </c>
       <c r="L12" s="5">
-        <f>+L10+L11</f>
-        <v>302.89999999999998</v>
+        <f t="shared" si="36"/>
+        <v>306</v>
       </c>
       <c r="M12" s="5">
-        <f>+M10+M11</f>
-        <v>318.70000000000005</v>
+        <f t="shared" si="36"/>
+        <v>373.4</v>
       </c>
       <c r="N12" s="5">
-        <f>+N10+N11</f>
-        <v>294</v>
+        <f t="shared" si="36"/>
+        <v>381.8</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ref="O12:P12" si="51">+O10+O11</f>
-        <v>300.89999999999998</v>
+        <f t="shared" si="36"/>
+        <v>404.3</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="51"/>
-        <v>283.39999999999998</v>
+        <f t="shared" si="36"/>
+        <v>411.90000000000003</v>
       </c>
       <c r="Q12" s="5">
-        <f>+Q10+Q11</f>
-        <v>367.6</v>
+        <f t="shared" si="36"/>
+        <v>441.2</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" ref="R12:W12" si="52">+R10+R11</f>
-        <v>346.4</v>
+        <f t="shared" si="36"/>
+        <v>487.6</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" si="52"/>
-        <v>356.4</v>
+        <f t="shared" si="36"/>
+        <v>506.1</v>
       </c>
       <c r="T12" s="5">
-        <f t="shared" si="52"/>
-        <v>402.5</v>
+        <f t="shared" si="36"/>
+        <v>507.79999999999995</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" si="52"/>
-        <v>433.1</v>
+        <f t="shared" si="36"/>
+        <v>580.99999999999989</v>
       </c>
       <c r="V12" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="36"/>
+        <v>568.58620000000008</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" si="36"/>
+        <v>626.55320000000006</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" ref="AA12:AC12" si="37">+AA10-AA11</f>
         <v>0</v>
       </c>
-      <c r="W12" s="5">
-        <f t="shared" si="52"/>
-        <v>0</v>
+      <c r="AB12" s="3">
+        <f t="shared" si="37"/>
+        <v>116.6</v>
+      </c>
+      <c r="AC12" s="3">
+        <f t="shared" si="37"/>
+        <v>446.30000000000007</v>
+      </c>
+      <c r="AD12" s="3">
+        <f>+AD10-AD11</f>
+        <v>780.7</v>
+      </c>
+      <c r="AE12" s="3">
+        <f>+AE10-AE11</f>
+        <v>1035.8000000000002</v>
+      </c>
+      <c r="AF12" s="3">
+        <f>+AF10-AF11</f>
+        <v>1119.2000000000003</v>
       </c>
       <c r="AG12" s="3">
-        <f>+AG10+AG11</f>
-        <v>1216.5</v>
+        <f>+AG10-AG11</f>
+        <v>1465.5</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" ref="AH12:AK12" si="53">+AH10+AH11</f>
-        <v>1353.8000000000002</v>
+        <f t="shared" ref="AH12:AK12" si="38">+AH10-AH11</f>
+        <v>1846.8000000000002</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="53"/>
-        <v>835.6</v>
+        <f t="shared" si="38"/>
+        <v>2283.9393999999998</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" si="53"/>
-        <v>436.59000000000003</v>
+        <f t="shared" si="38"/>
+        <v>2449.2070349999999</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="53"/>
-        <v>436.59000000000003</v>
+        <f t="shared" si="38"/>
+        <v>2523.8503867499999</v>
       </c>
       <c r="AL12" s="3">
-        <f t="shared" ref="AL12" si="54">+AL10+AL11</f>
-        <v>436.59000000000003</v>
+        <f t="shared" ref="AL12" si="39">+AL10-AL11</f>
+        <v>2650.0429060875003</v>
       </c>
       <c r="AM12" s="3">
-        <f t="shared" ref="AM12" si="55">+AM10+AM11</f>
-        <v>436.59000000000003</v>
+        <f t="shared" ref="AM12" si="40">+AM10-AM11</f>
+        <v>2823.7290513918751</v>
       </c>
       <c r="AN12" s="3">
-        <f t="shared" ref="AN12" si="56">+AN10+AN11</f>
-        <v>436.59000000000003</v>
+        <f t="shared" ref="AN12" si="41">+AN10-AN11</f>
+        <v>2886.4025019057945</v>
       </c>
       <c r="AO12" s="3">
-        <f t="shared" ref="AO12" si="57">+AO10+AO11</f>
-        <v>436.59000000000003</v>
+        <f t="shared" ref="AO12" si="42">+AO10-AO11</f>
+        <v>2965.7882069248521</v>
       </c>
       <c r="AP12" s="3">
-        <f t="shared" ref="AP12" si="58">+AP10+AP11</f>
-        <v>436.59000000000003</v>
+        <f t="shared" ref="AP12" si="43">+AP10-AP11</f>
+        <v>3037.1389489941007</v>
       </c>
     </row>
     <row r="13" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ref="C13" si="59">+C9-C12</f>
-        <v>85</v>
+        <v>55.3</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" ref="D13" si="60">+D9-D12</f>
-        <v>58.900000000000006</v>
+        <v>58.3</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" ref="E13" si="61">+E9-E12</f>
-        <v>122.60000000000005</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="F13" s="5">
-        <f>+F9-F12</f>
-        <v>74</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="G13" s="5">
-        <f>+G9-G12</f>
-        <v>71.800000000000011</v>
+        <v>66.7</v>
       </c>
       <c r="H13" s="5">
-        <f>+H9-H12</f>
-        <v>31.5</v>
+        <v>73.2</v>
       </c>
       <c r="I13" s="5">
-        <f>+I9-I12</f>
-        <v>67.800000000000011</v>
+        <v>74.8</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" ref="J13" si="62">+J9-J12</f>
-        <v>44.5</v>
+        <v>92.7</v>
       </c>
       <c r="K13" s="5">
-        <f>+K9-K12</f>
-        <v>63.999999999999972</v>
+        <v>87.4</v>
       </c>
       <c r="L13" s="5">
-        <f>+L9-L12</f>
-        <v>3.1000000000000227</v>
+        <v>102.2</v>
       </c>
       <c r="M13" s="5">
-        <f>+M9-M12</f>
-        <v>54.699999999999932</v>
+        <v>135.9</v>
       </c>
       <c r="N13" s="5">
-        <f>+N9-N12</f>
-        <v>87.800000000000011</v>
+        <v>107.7</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" ref="O13:P13" si="63">+O9-O12</f>
-        <v>103.40000000000003</v>
+        <v>118</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="63"/>
-        <v>128.50000000000006</v>
+        <v>139.5</v>
       </c>
       <c r="Q13" s="5">
-        <f>+Q9-Q12</f>
-        <v>73.599999999999966</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" ref="R13:W13" si="64">+R9-R12</f>
-        <v>141.20000000000005</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" si="64"/>
-        <v>149.70000000000005</v>
+        <v>137.5</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" si="64"/>
-        <v>105.29999999999995</v>
+        <v>159.4</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" si="64"/>
-        <v>147.89999999999986</v>
-      </c>
-      <c r="V13" s="5">
-        <f t="shared" si="64"/>
-        <v>568.58620000000008</v>
-      </c>
-      <c r="W13" s="5">
-        <f t="shared" si="64"/>
-        <v>626.55320000000006</v>
+        <v>191.1</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="AC13" s="3">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>275</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>328.1</v>
       </c>
       <c r="AG13" s="3">
-        <f>+AG9-AG12</f>
-        <v>249</v>
+        <f t="shared" ref="AG13:AG14" si="44">SUM(L13:O13)</f>
+        <v>463.8</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" ref="AH13:AK13" si="65">+AH9-AH12</f>
-        <v>493</v>
+        <f t="shared" ref="AH13:AH14" si="45">SUM(P13:S13)</f>
+        <v>565</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="65"/>
-        <v>1448.3393999999998</v>
-      </c>
-      <c r="AJ13" s="3">
-        <f t="shared" si="65"/>
-        <v>2012.6170349999998</v>
-      </c>
-      <c r="AK13" s="3">
-        <f t="shared" si="65"/>
-        <v>2087.2603867499997</v>
-      </c>
-      <c r="AL13" s="3">
-        <f t="shared" ref="AL13" si="66">+AL9-AL12</f>
-        <v>2213.4529060875002</v>
-      </c>
-      <c r="AM13" s="3">
-        <f t="shared" ref="AM13" si="67">+AM9-AM12</f>
-        <v>2345.9550513918753</v>
-      </c>
-      <c r="AN13" s="3">
-        <f t="shared" ref="AN13" si="68">+AN9-AN12</f>
-        <v>2373.7805019057937</v>
-      </c>
-      <c r="AO13" s="3">
-        <f t="shared" ref="AO13" si="69">+AO9-AO12</f>
-        <v>2401.8842069248522</v>
-      </c>
-      <c r="AP13" s="3">
-        <f t="shared" ref="AP13" si="70">+AP9-AP12</f>
-        <v>2430.2689489941004</v>
+        <f t="shared" ref="AI13:AI14" si="46">SUM(T13:W13)</f>
+        <v>350.5</v>
       </c>
     </row>
     <row r="14" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5">
+        <v>101.3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>117.8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>96.5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>112.5</v>
+      </c>
+      <c r="G14" s="5">
+        <v>106.5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>129</v>
+      </c>
+      <c r="I14" s="5">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="J14" s="5">
+        <v>154.6</v>
+      </c>
+      <c r="K14" s="5">
+        <v>156.5</v>
+      </c>
+      <c r="L14" s="5">
+        <v>200.7</v>
+      </c>
+      <c r="M14" s="5">
+        <v>182.8</v>
+      </c>
+      <c r="N14" s="5">
+        <v>186.3</v>
+      </c>
+      <c r="O14" s="5">
+        <v>182.9</v>
+      </c>
+      <c r="P14" s="5">
+        <v>143.9</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>221.8</v>
+      </c>
+      <c r="R14" s="5">
+        <v>204.2</v>
+      </c>
+      <c r="S14" s="5">
+        <v>218.9</v>
+      </c>
+      <c r="T14" s="5">
+        <v>243.1</v>
+      </c>
+      <c r="U14" s="5">
+        <v>242</v>
+      </c>
+      <c r="V14" s="5">
+        <f>+R14</f>
+        <v>204.2</v>
+      </c>
+      <c r="W14" s="5">
+        <f>+S14</f>
+        <v>218.9</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>248.9</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>354.1</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>433.3</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>583.29999999999995</v>
+      </c>
+      <c r="AG14" s="3">
+        <f t="shared" si="44"/>
+        <v>752.69999999999993</v>
+      </c>
+      <c r="AH14" s="3">
+        <f t="shared" si="45"/>
+        <v>788.80000000000007</v>
+      </c>
+      <c r="AI14" s="3">
+        <f t="shared" si="46"/>
+        <v>908.19999999999993</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f>+AI14*0.9</f>
+        <v>817.38</v>
+      </c>
+      <c r="AK14" s="3">
+        <f>+AJ14</f>
+        <v>817.38</v>
+      </c>
+      <c r="AL14" s="3">
+        <f t="shared" ref="AL14:AM14" si="47">+AK14</f>
+        <v>817.38</v>
+      </c>
+      <c r="AM14" s="3">
+        <f t="shared" si="47"/>
+        <v>817.38</v>
+      </c>
+      <c r="AN14" s="3">
+        <f t="shared" ref="AN14:AP14" si="48">+AM14</f>
+        <v>817.38</v>
+      </c>
+      <c r="AO14" s="3">
+        <f t="shared" si="48"/>
+        <v>817.38</v>
+      </c>
+      <c r="AP14" s="3">
+        <f t="shared" si="48"/>
+        <v>817.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" ref="C15" si="49">+C13+C14</f>
+        <v>156.6</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15" si="50">+D13+D14</f>
+        <v>176.1</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ref="E15" si="51">+E13+E14</f>
+        <v>177.4</v>
+      </c>
+      <c r="F15" s="5">
+        <f>+F13+F14</f>
+        <v>181.6</v>
+      </c>
+      <c r="G15" s="5">
+        <f>+G13+G14</f>
+        <v>173.2</v>
+      </c>
+      <c r="H15" s="5">
+        <f>+H13+H14</f>
+        <v>202.2</v>
+      </c>
+      <c r="I15" s="5">
+        <f>+I13+I14</f>
+        <v>218</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" ref="J15" si="52">+J13+J14</f>
+        <v>247.3</v>
+      </c>
+      <c r="K15" s="5">
+        <f>+K13+K14</f>
+        <v>243.9</v>
+      </c>
+      <c r="L15" s="5">
+        <f>+L13+L14</f>
+        <v>302.89999999999998</v>
+      </c>
+      <c r="M15" s="5">
+        <f>+M13+M14</f>
+        <v>318.70000000000005</v>
+      </c>
+      <c r="N15" s="5">
+        <f>+N13+N14</f>
+        <v>294</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" ref="O15:P15" si="53">+O13+O14</f>
+        <v>300.89999999999998</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="53"/>
+        <v>283.39999999999998</v>
+      </c>
+      <c r="Q15" s="5">
+        <f>+Q13+Q14</f>
+        <v>367.6</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" ref="R15:W15" si="54">+R13+R14</f>
+        <v>346.4</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="54"/>
+        <v>356.4</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="54"/>
+        <v>402.5</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="54"/>
+        <v>433.1</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="54"/>
+        <v>204.2</v>
+      </c>
+      <c r="W15" s="5">
+        <f t="shared" si="54"/>
+        <v>218.9</v>
+      </c>
+      <c r="AA15" s="3">
+        <f t="shared" ref="AA15:AC15" si="55">+AA13+AA14</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <f t="shared" si="55"/>
+        <v>404.70000000000005</v>
+      </c>
+      <c r="AD15" s="3">
+        <f>+AD13+AD14</f>
+        <v>554.1</v>
+      </c>
+      <c r="AE15" s="3">
+        <f>+AE13+AE14</f>
+        <v>708.3</v>
+      </c>
+      <c r="AF15" s="3">
+        <f>+AF13+AF14</f>
+        <v>911.4</v>
+      </c>
+      <c r="AG15" s="3">
+        <f>+AG13+AG14</f>
+        <v>1216.5</v>
+      </c>
+      <c r="AH15" s="3">
+        <f t="shared" ref="AH15:AK15" si="56">+AH13+AH14</f>
+        <v>1353.8000000000002</v>
+      </c>
+      <c r="AI15" s="3">
+        <f t="shared" si="56"/>
+        <v>1258.6999999999998</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f t="shared" si="56"/>
+        <v>817.38</v>
+      </c>
+      <c r="AK15" s="3">
+        <f t="shared" si="56"/>
+        <v>817.38</v>
+      </c>
+      <c r="AL15" s="3">
+        <f t="shared" ref="AL15" si="57">+AL13+AL14</f>
+        <v>817.38</v>
+      </c>
+      <c r="AM15" s="3">
+        <f t="shared" ref="AM15" si="58">+AM13+AM14</f>
+        <v>817.38</v>
+      </c>
+      <c r="AN15" s="3">
+        <f t="shared" ref="AN15" si="59">+AN13+AN14</f>
+        <v>817.38</v>
+      </c>
+      <c r="AO15" s="3">
+        <f t="shared" ref="AO15" si="60">+AO13+AO14</f>
+        <v>817.38</v>
+      </c>
+      <c r="AP15" s="3">
+        <f t="shared" ref="AP15" si="61">+AP13+AP14</f>
+        <v>817.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" ref="C16" si="62">+C12-C15</f>
+        <v>85</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" ref="D16" si="63">+D12-D15</f>
+        <v>58.900000000000006</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16" si="64">+E12-E15</f>
+        <v>122.60000000000005</v>
+      </c>
+      <c r="F16" s="5">
+        <f>+F12-F15</f>
+        <v>74</v>
+      </c>
+      <c r="G16" s="5">
+        <f>+G12-G15</f>
+        <v>71.800000000000011</v>
+      </c>
+      <c r="H16" s="5">
+        <f>+H12-H15</f>
+        <v>31.5</v>
+      </c>
+      <c r="I16" s="5">
+        <f>+I12-I15</f>
+        <v>67.800000000000011</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16" si="65">+J12-J15</f>
+        <v>44.5</v>
+      </c>
+      <c r="K16" s="5">
+        <f>+K12-K15</f>
+        <v>63.999999999999972</v>
+      </c>
+      <c r="L16" s="5">
+        <f>+L12-L15</f>
+        <v>3.1000000000000227</v>
+      </c>
+      <c r="M16" s="5">
+        <f>+M12-M15</f>
+        <v>54.699999999999932</v>
+      </c>
+      <c r="N16" s="5">
+        <f>+N12-N15</f>
+        <v>87.800000000000011</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" ref="O16:P16" si="66">+O12-O15</f>
+        <v>103.40000000000003</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="66"/>
+        <v>128.50000000000006</v>
+      </c>
+      <c r="Q16" s="5">
+        <f>+Q12-Q15</f>
+        <v>73.599999999999966</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" ref="R16:W16" si="67">+R12-R15</f>
+        <v>141.20000000000005</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="67"/>
+        <v>149.70000000000005</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="67"/>
+        <v>105.29999999999995</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="67"/>
+        <v>147.89999999999986</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="67"/>
+        <v>364.38620000000009</v>
+      </c>
+      <c r="W16" s="5">
+        <f t="shared" si="67"/>
+        <v>407.65320000000008</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" ref="AA16:AC16" si="68">+AA12-AA15</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <f t="shared" si="68"/>
+        <v>116.6</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" si="68"/>
+        <v>41.600000000000023</v>
+      </c>
+      <c r="AD16" s="3">
+        <f>+AD12-AD15</f>
+        <v>226.60000000000002</v>
+      </c>
+      <c r="AE16" s="3">
+        <f>+AE12-AE15</f>
+        <v>327.50000000000023</v>
+      </c>
+      <c r="AF16" s="3">
+        <f>+AF12-AF15</f>
+        <v>207.8000000000003</v>
+      </c>
+      <c r="AG16" s="3">
+        <f>+AG12-AG15</f>
+        <v>249</v>
+      </c>
+      <c r="AH16" s="3">
+        <f t="shared" ref="AH16:AK16" si="69">+AH12-AH15</f>
+        <v>493</v>
+      </c>
+      <c r="AI16" s="3">
+        <f t="shared" si="69"/>
+        <v>1025.2393999999999</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f t="shared" si="69"/>
+        <v>1631.8270349999998</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" si="69"/>
+        <v>1706.4703867499998</v>
+      </c>
+      <c r="AL16" s="3">
+        <f t="shared" ref="AL16" si="70">+AL12-AL15</f>
+        <v>1832.6629060875002</v>
+      </c>
+      <c r="AM16" s="3">
+        <f t="shared" ref="AM16" si="71">+AM12-AM15</f>
+        <v>2006.349051391875</v>
+      </c>
+      <c r="AN16" s="3">
+        <f t="shared" ref="AN16" si="72">+AN12-AN15</f>
+        <v>2069.0225019057943</v>
+      </c>
+      <c r="AO16" s="3">
+        <f t="shared" ref="AO16" si="73">+AO12-AO15</f>
+        <v>2148.408206924852</v>
+      </c>
+      <c r="AP16" s="3">
+        <f t="shared" ref="AP16" si="74">+AP12-AP15</f>
+        <v>2219.7589489941006</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C17" s="5">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D17" s="5">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E17" s="5">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F17" s="5">
         <v>-8.5</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G17" s="5">
         <v>-7.8</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H17" s="5">
         <v>-6.4</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I17" s="5">
         <v>-6.2</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J17" s="5">
         <v>-6.6</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K17" s="5">
         <v>-6.6</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L17" s="5">
         <v>-2.6</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M17" s="5">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N17" s="5">
         <v>-1.2</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O17" s="5">
         <f>-1.1+8.4</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P17" s="5">
         <f>-1.1+9.8</f>
         <v>8.7000000000000011</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q17" s="5">
         <v>10.7</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R17" s="5">
         <f>-1.1+15.6</f>
         <v>14.5</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S17" s="5">
         <f>-1.1+20</f>
         <v>18.899999999999999</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T17" s="5">
         <f>23.4-1.1</f>
         <v>22.299999999999997</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U17" s="5">
         <v>22.8</v>
       </c>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="AG14" s="3">
-        <f t="shared" ref="AG14" si="71">SUM(L14:O14)</f>
+      <c r="V17" s="5">
+        <f>+U17</f>
+        <v>22.8</v>
+      </c>
+      <c r="W17" s="5">
+        <f>+V17</f>
+        <v>22.8</v>
+      </c>
+      <c r="AC17" s="3">
+        <f>-30.5+15.5</f>
+        <v>-15</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>-32</v>
+      </c>
+      <c r="AE17" s="3">
+        <f>-32.8+12.6</f>
+        <v>-20.199999999999996</v>
+      </c>
+      <c r="AF17" s="3">
+        <f>3.8-25.8</f>
+        <v>-22</v>
+      </c>
+      <c r="AG17" s="3">
+        <f t="shared" ref="AG17" si="75">SUM(L17:O17)</f>
         <v>1.2999999999999998</v>
       </c>
-      <c r="AH14" s="3">
-        <f t="shared" ref="AH14" si="72">SUM(P14:S14)</f>
+      <c r="AH17" s="3">
+        <f t="shared" ref="AH17" si="76">SUM(P17:S17)</f>
         <v>52.8</v>
       </c>
-      <c r="AI14" s="3">
-        <f t="shared" ref="AI14" si="73">SUM(T14:W14)</f>
-        <v>45.099999999999994</v>
-      </c>
-      <c r="AJ14" s="3">
-        <f>+AI25*$AS$28</f>
+      <c r="AI17" s="3">
+        <f>SUM(T17:W17)</f>
+        <v>90.699999999999989</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f>+AI28*$AS$31</f>
+        <v>76.685263800000016</v>
+      </c>
+      <c r="AK17" s="3">
+        <f t="shared" ref="AJ17:AP17" si="77">+AJ28*$AS$31</f>
+        <v>117.68955897120001</v>
+      </c>
+      <c r="AL17" s="3">
+        <f t="shared" si="77"/>
+        <v>161.4693976685088</v>
+      </c>
+      <c r="AM17" s="3">
+        <f t="shared" si="77"/>
+        <v>209.32857295865304</v>
+      </c>
+      <c r="AN17" s="3">
+        <f t="shared" si="77"/>
+        <v>262.5048359430657</v>
+      </c>
+      <c r="AO17" s="3">
+        <f t="shared" si="77"/>
+        <v>318.46149205143837</v>
+      </c>
+      <c r="AP17" s="3">
+        <f t="shared" si="77"/>
+        <v>377.66636482686937</v>
+      </c>
+    </row>
+    <row r="18" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18" si="78">+C16+C17</f>
+        <v>76.8</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" ref="D18" si="79">+D16+D17</f>
+        <v>50.7</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18" si="80">+E16+E17</f>
+        <v>114.30000000000005</v>
+      </c>
+      <c r="F18" s="5">
+        <f>+F16+F17</f>
+        <v>65.5</v>
+      </c>
+      <c r="G18" s="5">
+        <f>+G16+G17</f>
+        <v>64.000000000000014</v>
+      </c>
+      <c r="H18" s="5">
+        <f>+H16+H17</f>
+        <v>25.1</v>
+      </c>
+      <c r="I18" s="5">
+        <f>+I16+I17</f>
+        <v>61.600000000000009</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" ref="J18" si="81">+J16+J17</f>
+        <v>37.9</v>
+      </c>
+      <c r="K18" s="5">
+        <f>+K16+K17</f>
+        <v>57.39999999999997</v>
+      </c>
+      <c r="L18" s="5">
+        <f>+L16+L17</f>
+        <v>0.50000000000002265</v>
+      </c>
+      <c r="M18" s="5">
+        <f>+M16+M17</f>
+        <v>52.499999999999929</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" ref="N18:P18" si="82">+N16+N17</f>
+        <v>86.600000000000009</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="82"/>
+        <v>110.70000000000003</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="82"/>
+        <v>137.20000000000005</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" ref="Q18:W18" si="83">+Q16+Q17</f>
+        <v>84.299999999999969</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="83"/>
+        <v>155.70000000000005</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="83"/>
+        <v>168.60000000000005</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="83"/>
+        <v>127.59999999999995</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="83"/>
+        <v>170.69999999999987</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="83"/>
+        <v>387.1862000000001</v>
+      </c>
+      <c r="W18" s="5">
+        <f t="shared" si="83"/>
+        <v>430.45320000000009</v>
+      </c>
+      <c r="AA18" s="3">
+        <f t="shared" ref="AA18:AC18" si="84">+AA16+AA17</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="3">
-        <f>+AJ25*$AS$28</f>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="3">
-        <f>+AK25*$AS$28</f>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="3">
-        <f>+AL25*$AS$28</f>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="3">
-        <f>+AM25*$AS$28</f>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="3">
-        <f>+AN25*$AS$28</f>
-        <v>0</v>
-      </c>
-      <c r="AP14" s="3">
-        <f>+AO25*$AS$28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="5">
-        <f t="shared" ref="C15" si="74">+C13+C14</f>
-        <v>76.8</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" ref="D15" si="75">+D13+D14</f>
-        <v>50.7</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" ref="E15" si="76">+E13+E14</f>
-        <v>114.30000000000005</v>
-      </c>
-      <c r="F15" s="5">
-        <f>+F13+F14</f>
-        <v>65.5</v>
-      </c>
-      <c r="G15" s="5">
-        <f>+G13+G14</f>
-        <v>64.000000000000014</v>
-      </c>
-      <c r="H15" s="5">
-        <f>+H13+H14</f>
-        <v>25.1</v>
-      </c>
-      <c r="I15" s="5">
-        <f>+I13+I14</f>
-        <v>61.600000000000009</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" ref="J15" si="77">+J13+J14</f>
-        <v>37.9</v>
-      </c>
-      <c r="K15" s="5">
-        <f>+K13+K14</f>
-        <v>57.39999999999997</v>
-      </c>
-      <c r="L15" s="5">
-        <f>+L13+L14</f>
-        <v>0.50000000000002265</v>
-      </c>
-      <c r="M15" s="5">
-        <f>+M13+M14</f>
-        <v>52.499999999999929</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" ref="N15:P15" si="78">+N13+N14</f>
-        <v>86.600000000000009</v>
-      </c>
-      <c r="O15" s="5">
-        <f t="shared" si="78"/>
-        <v>110.70000000000003</v>
-      </c>
-      <c r="P15" s="5">
-        <f t="shared" si="78"/>
-        <v>137.20000000000005</v>
-      </c>
-      <c r="Q15" s="5">
-        <f>+Q13+Q14</f>
-        <v>84.299999999999969</v>
-      </c>
-      <c r="R15" s="5">
-        <f>+R13+R14</f>
-        <v>155.70000000000005</v>
-      </c>
-      <c r="S15" s="5">
-        <f>+S13+S14</f>
-        <v>168.60000000000005</v>
-      </c>
-      <c r="T15" s="5">
-        <f>+T13+T14</f>
-        <v>127.59999999999995</v>
-      </c>
-      <c r="U15" s="5">
-        <f>+U13+U14</f>
-        <v>170.69999999999987</v>
-      </c>
-      <c r="V15" s="5">
-        <f>+V13+V14</f>
-        <v>568.58620000000008</v>
-      </c>
-      <c r="W15" s="5">
-        <f>+W13+W14</f>
-        <v>626.55320000000006</v>
-      </c>
-      <c r="AG15" s="3">
-        <f>+AG13+AG14</f>
+      <c r="AB18" s="3">
+        <f t="shared" si="84"/>
+        <v>116.6</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" si="84"/>
+        <v>26.600000000000023</v>
+      </c>
+      <c r="AD18" s="3">
+        <f>+AD16+AD17</f>
+        <v>194.60000000000002</v>
+      </c>
+      <c r="AE18" s="3">
+        <f>+AE16+AE17</f>
+        <v>307.30000000000024</v>
+      </c>
+      <c r="AF18" s="3">
+        <f>+AF16+AF17</f>
+        <v>185.8000000000003</v>
+      </c>
+      <c r="AG18" s="3">
+        <f>+AG16+AG17</f>
         <v>250.3</v>
       </c>
-      <c r="AH15" s="3">
-        <f t="shared" ref="AH15:AP15" si="79">+AH13+AH14</f>
+      <c r="AH18" s="3">
+        <f t="shared" ref="AH18:AP18" si="85">+AH16+AH17</f>
         <v>545.79999999999995</v>
       </c>
-      <c r="AI15" s="3">
-        <f t="shared" si="79"/>
-        <v>1493.4393999999998</v>
-      </c>
-      <c r="AJ15" s="3">
-        <f t="shared" si="79"/>
-        <v>2012.6170349999998</v>
-      </c>
-      <c r="AK15" s="3">
-        <f t="shared" si="79"/>
-        <v>2087.2603867499997</v>
-      </c>
-      <c r="AL15" s="3">
-        <f t="shared" si="79"/>
-        <v>2213.4529060875002</v>
-      </c>
-      <c r="AM15" s="3">
-        <f t="shared" si="79"/>
-        <v>2345.9550513918753</v>
-      </c>
-      <c r="AN15" s="3">
-        <f t="shared" si="79"/>
-        <v>2373.7805019057937</v>
-      </c>
-      <c r="AO15" s="3">
-        <f t="shared" si="79"/>
-        <v>2401.8842069248522</v>
-      </c>
-      <c r="AP15" s="3">
-        <f t="shared" si="79"/>
-        <v>2430.2689489941004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E16" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>15.2</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
-        <v>29.4</v>
-      </c>
-      <c r="O16" s="5">
-        <v>14.5</v>
-      </c>
-      <c r="P16" s="5">
-        <v>-26.7</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>26.1</v>
-      </c>
-      <c r="R16" s="5">
-        <v>32.5</v>
-      </c>
-      <c r="S16" s="5">
-        <v>50.5</v>
-      </c>
-      <c r="T16" s="5">
-        <v>-8.9</v>
-      </c>
-      <c r="U16" s="5">
-        <v>33.6</v>
-      </c>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="AG16" s="3">
-        <f t="shared" ref="AG16" si="80">SUM(L16:O16)</f>
-        <v>51.4</v>
-      </c>
-      <c r="AH16" s="3">
-        <f t="shared" ref="AH16" si="81">SUM(P16:S16)</f>
-        <v>82.4</v>
-      </c>
-      <c r="AI16" s="3">
-        <f t="shared" ref="AI16" si="82">SUM(T16:W16)</f>
-        <v>24.700000000000003</v>
-      </c>
-      <c r="AJ16" s="3">
-        <f t="shared" ref="AH16:AP16" si="83">+AJ15*0.2</f>
-        <v>402.52340699999996</v>
-      </c>
-      <c r="AK16" s="3">
-        <f t="shared" si="83"/>
-        <v>417.45207734999997</v>
-      </c>
-      <c r="AL16" s="3">
-        <f t="shared" si="83"/>
-        <v>442.69058121750004</v>
-      </c>
-      <c r="AM16" s="3">
-        <f t="shared" si="83"/>
-        <v>469.19101027837507</v>
-      </c>
-      <c r="AN16" s="3">
-        <f t="shared" si="83"/>
-        <v>474.75610038115877</v>
-      </c>
-      <c r="AO16" s="3">
-        <f t="shared" si="83"/>
-        <v>480.37684138497048</v>
-      </c>
-      <c r="AP16" s="3">
-        <f t="shared" si="83"/>
-        <v>486.05378979882011</v>
-      </c>
-    </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" ref="C17" si="84">+C15-C16</f>
-        <v>72.2</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" ref="D17" si="85">+D15-D16</f>
-        <v>49.2</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" ref="E17" si="86">+E15-E16</f>
-        <v>110.70000000000006</v>
-      </c>
-      <c r="F17" s="5">
-        <f>+F15-F16</f>
-        <v>65.5</v>
-      </c>
-      <c r="G17" s="5">
-        <f>+G15-G16</f>
-        <v>64.000000000000014</v>
-      </c>
-      <c r="H17" s="5">
-        <f>+H15-H16</f>
-        <v>25.1</v>
-      </c>
-      <c r="I17" s="5">
-        <f>+I15-I16</f>
-        <v>46.400000000000006</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" ref="J17" si="87">+J15-J16</f>
-        <v>37.9</v>
-      </c>
-      <c r="K17" s="5">
-        <f>+K15-K16</f>
-        <v>57.39999999999997</v>
-      </c>
-      <c r="L17" s="5">
-        <f>+L15-L16</f>
-        <v>-6.9999999999999769</v>
-      </c>
-      <c r="M17" s="5">
-        <f>+M15-M16</f>
-        <v>52.499999999999929</v>
-      </c>
-      <c r="N17" s="5">
-        <f t="shared" ref="N17:P17" si="88">+N15-N16</f>
-        <v>57.20000000000001</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" si="88"/>
-        <v>96.200000000000031</v>
-      </c>
-      <c r="P17" s="5">
-        <f t="shared" si="88"/>
-        <v>163.90000000000003</v>
-      </c>
-      <c r="Q17" s="5">
-        <f>+Q15-Q16</f>
-        <v>58.199999999999967</v>
-      </c>
-      <c r="R17" s="5">
-        <f>+R15-R16</f>
-        <v>123.20000000000005</v>
-      </c>
-      <c r="S17" s="5">
-        <f>+S15-S16</f>
-        <v>118.10000000000005</v>
-      </c>
-      <c r="T17" s="5">
-        <f>+T15-T16</f>
-        <v>136.49999999999994</v>
-      </c>
-      <c r="U17" s="5">
-        <f>+U15-U16</f>
-        <v>137.09999999999988</v>
-      </c>
-      <c r="V17" s="5">
-        <f>+V15-V16</f>
-        <v>568.58620000000008</v>
-      </c>
-      <c r="W17" s="5">
-        <f>+W15-W16</f>
-        <v>626.55320000000006</v>
-      </c>
-      <c r="AG17" s="3">
-        <f>+AG15-AG16</f>
-        <v>198.9</v>
-      </c>
-      <c r="AH17" s="3">
-        <f t="shared" ref="AH17:AP17" si="89">+AH15-AH16</f>
-        <v>463.4</v>
-      </c>
-      <c r="AI17" s="3">
-        <f t="shared" si="89"/>
-        <v>1468.7393999999997</v>
-      </c>
-      <c r="AJ17" s="3">
-        <f t="shared" si="89"/>
-        <v>1610.0936279999999</v>
-      </c>
-      <c r="AK17" s="3">
-        <f t="shared" si="89"/>
-        <v>1669.8083093999999</v>
-      </c>
-      <c r="AL17" s="3">
-        <f t="shared" si="89"/>
-        <v>1770.7623248700002</v>
-      </c>
-      <c r="AM17" s="3">
-        <f t="shared" si="89"/>
-        <v>1876.7640411135003</v>
-      </c>
-      <c r="AN17" s="3">
-        <f t="shared" si="89"/>
-        <v>1899.0244015246349</v>
-      </c>
-      <c r="AO17" s="3">
-        <f t="shared" si="89"/>
-        <v>1921.5073655398817</v>
-      </c>
-      <c r="AP17" s="3">
-        <f t="shared" si="89"/>
-        <v>1944.2151591952802</v>
-      </c>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-    </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" ref="C18" si="90">+C17/C19</f>
-        <v>0.74279835390946503</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" ref="D18" si="91">+D17/D19</f>
-        <v>0.5072164948453608</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" ref="E18" si="92">+E17/E19</f>
-        <v>1.1272912423625261</v>
-      </c>
-      <c r="F18" s="4">
-        <f>+F17/F19</f>
-        <v>0.70203644158628087</v>
-      </c>
-      <c r="G18" s="4">
-        <f>+G17/G19</f>
-        <v>0.65843621399176966</v>
-      </c>
-      <c r="H18" s="4">
-        <f>+H17/H19</f>
-        <v>0.25560081466395113</v>
-      </c>
-      <c r="I18" s="4">
-        <f>+I17/I19</f>
-        <v>0.47492323439099288</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" ref="J18" si="93">+J17/J19</f>
-        <v>0.38792221084953937</v>
-      </c>
-      <c r="K18" s="4">
-        <f>+K17/K19</f>
-        <v>0.60484720758693322</v>
-      </c>
-      <c r="L18" s="4">
-        <f>+L17/L19</f>
-        <v>-7.172131147540961E-2</v>
-      </c>
-      <c r="M18" s="4">
-        <f>+M17/M19</f>
-        <v>0.54916317991631725</v>
-      </c>
-      <c r="N18" s="4">
-        <f>+N17/N19</f>
-        <v>0.57777777777777783</v>
-      </c>
-      <c r="O18" s="4">
-        <f>+O17/O19</f>
-        <v>0.95247524752475277</v>
-      </c>
-      <c r="P18" s="4">
-        <f>+P17/P19</f>
-        <v>1.687950566426365</v>
-      </c>
-      <c r="Q18" s="4">
-        <f>+Q17/Q19</f>
-        <v>0.58083832335329311</v>
-      </c>
-      <c r="R18" s="4">
-        <f>+R17/R19</f>
-        <v>1.2185954500494565</v>
-      </c>
-      <c r="S18" s="4">
-        <f>+S17/S19</f>
-        <v>1.1716269841269846</v>
-      </c>
-      <c r="T18" s="4">
-        <f>+T17/T19</f>
-        <v>1.3175675675675671</v>
-      </c>
-      <c r="U18" s="4">
-        <f>+U17/U19</f>
-        <v>1.3195380173243492</v>
-      </c>
-      <c r="V18" s="4">
-        <f>+V17/V19</f>
-        <v>5.4724369586140522</v>
-      </c>
-      <c r="W18" s="4">
-        <f>+W17/W19</f>
-        <v>6.0303484119345523</v>
-      </c>
-      <c r="AG18" s="1">
-        <f>+AG17/AG19</f>
-        <v>2.0233977619532046</v>
-      </c>
-      <c r="AH18" s="1">
-        <f>+AH17/AH19</f>
-        <v>4.6432865731462929</v>
-      </c>
-      <c r="AI18" s="1">
-        <f t="shared" ref="AI18:AP18" si="94">+AI17/AI19</f>
-        <v>14.146298097760654</v>
-      </c>
-      <c r="AJ18" s="1">
-        <f t="shared" si="94"/>
-        <v>15.507764295689864</v>
-      </c>
-      <c r="AK18" s="1">
-        <f t="shared" si="94"/>
-        <v>16.082911720683843</v>
-      </c>
-      <c r="AL18" s="1">
-        <f t="shared" si="94"/>
-        <v>17.05525957014207</v>
-      </c>
-      <c r="AM18" s="1">
-        <f t="shared" si="94"/>
-        <v>18.076224812073203</v>
-      </c>
-      <c r="AN18" s="1">
-        <f t="shared" si="94"/>
-        <v>18.290627512878739</v>
-      </c>
-      <c r="AO18" s="1">
-        <f t="shared" si="94"/>
-        <v>18.507174240692336</v>
-      </c>
-      <c r="AP18" s="1">
-        <f t="shared" si="94"/>
-        <v>18.725886435784062</v>
-      </c>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
+      <c r="AI18" s="3">
+        <f t="shared" si="85"/>
+        <v>1115.9394</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f t="shared" si="85"/>
+        <v>1708.5122987999998</v>
+      </c>
+      <c r="AK18" s="3">
+        <f t="shared" si="85"/>
+        <v>1824.1599457211998</v>
+      </c>
+      <c r="AL18" s="3">
+        <f t="shared" si="85"/>
+        <v>1994.1323037560092</v>
+      </c>
+      <c r="AM18" s="3">
+        <f t="shared" si="85"/>
+        <v>2215.6776243505283</v>
+      </c>
+      <c r="AN18" s="3">
+        <f t="shared" si="85"/>
+        <v>2331.52733784886</v>
+      </c>
+      <c r="AO18" s="3">
+        <f t="shared" si="85"/>
+        <v>2466.8696989762902</v>
+      </c>
+      <c r="AP18" s="3">
+        <f t="shared" si="85"/>
+        <v>2597.4253138209701</v>
+      </c>
     </row>
     <row r="19" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5">
-        <v>97.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D19" s="5">
-        <v>97</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="5">
-        <v>98.2</v>
+        <v>3.6</v>
       </c>
       <c r="F19" s="5">
-        <v>93.3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>97.2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5">
-        <v>98.2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="5">
-        <v>97.7</v>
+        <v>15.2</v>
       </c>
       <c r="J19" s="5">
-        <v>97.7</v>
+        <v>0</v>
       </c>
       <c r="K19" s="5">
-        <v>94.9</v>
+        <v>0</v>
       </c>
       <c r="L19" s="5">
-        <v>97.6</v>
+        <v>7.5</v>
       </c>
       <c r="M19" s="5">
-        <v>95.6</v>
+        <v>0</v>
       </c>
       <c r="N19" s="5">
-        <v>99</v>
+        <v>29.4</v>
       </c>
       <c r="O19" s="5">
-        <v>101</v>
+        <v>14.5</v>
       </c>
       <c r="P19" s="5">
-        <v>97.1</v>
+        <v>-26.7</v>
       </c>
       <c r="Q19" s="5">
-        <v>100.2</v>
+        <v>26.1</v>
       </c>
       <c r="R19" s="5">
-        <v>101.1</v>
+        <v>32.5</v>
       </c>
       <c r="S19" s="5">
-        <v>100.8</v>
+        <v>50.5</v>
       </c>
       <c r="T19" s="5">
-        <v>103.6</v>
+        <v>-8.9</v>
       </c>
       <c r="U19" s="5">
-        <v>103.9</v>
+        <v>33.6</v>
       </c>
       <c r="V19" s="5">
-        <f>+U19</f>
-        <v>103.9</v>
+        <f>+V18*0.1</f>
+        <v>38.718620000000016</v>
       </c>
       <c r="W19" s="5">
-        <f>+V19</f>
-        <v>103.9</v>
+        <f>+W18*0.1</f>
+        <v>43.045320000000011</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>11.8</v>
       </c>
       <c r="AG19" s="3">
-        <f>AVERAGE(L19:O19)</f>
-        <v>98.3</v>
+        <f t="shared" ref="AG19" si="86">SUM(L19:O19)</f>
+        <v>51.4</v>
       </c>
       <c r="AH19" s="3">
-        <f>AVERAGE(P19:S19)</f>
-        <v>99.8</v>
+        <f t="shared" ref="AH19" si="87">SUM(P19:S19)</f>
+        <v>82.4</v>
       </c>
       <c r="AI19" s="3">
-        <f>AVERAGE(T19:W19)</f>
-        <v>103.82499999999999</v>
+        <f t="shared" ref="AI19" si="88">SUM(T19:W19)</f>
+        <v>106.46394000000004</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" ref="AI19:AP19" si="95">+AI19</f>
-        <v>103.82499999999999</v>
+        <f t="shared" ref="AJ19:AP19" si="89">+AJ18*0.2</f>
+        <v>341.70245976000001</v>
       </c>
       <c r="AK19" s="3">
+        <f t="shared" si="89"/>
+        <v>364.83198914423997</v>
+      </c>
+      <c r="AL19" s="3">
+        <f t="shared" si="89"/>
+        <v>398.82646075120186</v>
+      </c>
+      <c r="AM19" s="3">
+        <f t="shared" si="89"/>
+        <v>443.13552487010566</v>
+      </c>
+      <c r="AN19" s="3">
+        <f t="shared" si="89"/>
+        <v>466.30546756977202</v>
+      </c>
+      <c r="AO19" s="3">
+        <f t="shared" si="89"/>
+        <v>493.37393979525808</v>
+      </c>
+      <c r="AP19" s="3">
+        <f t="shared" si="89"/>
+        <v>519.48506276419403</v>
+      </c>
+    </row>
+    <row r="20" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" ref="C20" si="90">+C18-C19</f>
+        <v>72.2</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20" si="91">+D18-D19</f>
+        <v>49.2</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20" si="92">+E18-E19</f>
+        <v>110.70000000000006</v>
+      </c>
+      <c r="F20" s="5">
+        <f>+F18-F19</f>
+        <v>65.5</v>
+      </c>
+      <c r="G20" s="5">
+        <f>+G18-G19</f>
+        <v>64.000000000000014</v>
+      </c>
+      <c r="H20" s="5">
+        <f>+H18-H19</f>
+        <v>25.1</v>
+      </c>
+      <c r="I20" s="5">
+        <f>+I18-I19</f>
+        <v>46.400000000000006</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" ref="J20" si="93">+J18-J19</f>
+        <v>37.9</v>
+      </c>
+      <c r="K20" s="5">
+        <f>+K18-K19</f>
+        <v>57.39999999999997</v>
+      </c>
+      <c r="L20" s="5">
+        <f>+L18-L19</f>
+        <v>-6.9999999999999769</v>
+      </c>
+      <c r="M20" s="5">
+        <f>+M18-M19</f>
+        <v>52.499999999999929</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" ref="N20:P20" si="94">+N18-N19</f>
+        <v>57.20000000000001</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="94"/>
+        <v>96.200000000000031</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="94"/>
+        <v>163.90000000000003</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" ref="Q20:W20" si="95">+Q18-Q19</f>
+        <v>58.199999999999967</v>
+      </c>
+      <c r="R20" s="5">
         <f t="shared" si="95"/>
-        <v>103.82499999999999</v>
-      </c>
-      <c r="AL19" s="3">
+        <v>123.20000000000005</v>
+      </c>
+      <c r="S20" s="5">
         <f t="shared" si="95"/>
-        <v>103.82499999999999</v>
-      </c>
-      <c r="AM19" s="3">
+        <v>118.10000000000005</v>
+      </c>
+      <c r="T20" s="5">
         <f t="shared" si="95"/>
-        <v>103.82499999999999</v>
-      </c>
-      <c r="AN19" s="3">
+        <v>136.49999999999994</v>
+      </c>
+      <c r="U20" s="5">
         <f t="shared" si="95"/>
-        <v>103.82499999999999</v>
-      </c>
-      <c r="AO19" s="3">
+        <v>137.09999999999988</v>
+      </c>
+      <c r="V20" s="5">
         <f t="shared" si="95"/>
-        <v>103.82499999999999</v>
-      </c>
-      <c r="AP19" s="3">
+        <v>348.46758000000011</v>
+      </c>
+      <c r="W20" s="5">
         <f t="shared" si="95"/>
-        <v>103.82499999999999</v>
-      </c>
+        <v>387.40788000000009</v>
+      </c>
+      <c r="AA20" s="3">
+        <f t="shared" ref="AA20:AC20" si="96">+AA18-AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <f t="shared" si="96"/>
+        <v>116.6</v>
+      </c>
+      <c r="AC20" s="3">
+        <f t="shared" si="96"/>
+        <v>25.900000000000023</v>
+      </c>
+      <c r="AD20" s="3">
+        <f>+AD18-AD19</f>
+        <v>185.10000000000002</v>
+      </c>
+      <c r="AE20" s="3">
+        <f>+AE18-AE19</f>
+        <v>307.30000000000024</v>
+      </c>
+      <c r="AF20" s="3">
+        <f>+AF18-AF19</f>
+        <v>174.00000000000028</v>
+      </c>
+      <c r="AG20" s="3">
+        <f>+AG18-AG19</f>
+        <v>198.9</v>
+      </c>
+      <c r="AH20" s="3">
+        <f t="shared" ref="AH20:AP20" si="97">+AH18-AH19</f>
+        <v>463.4</v>
+      </c>
+      <c r="AI20" s="3">
+        <f t="shared" si="97"/>
+        <v>1009.4754599999999</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f>+AJ18-AJ19</f>
+        <v>1366.8098390399998</v>
+      </c>
+      <c r="AK20" s="3">
+        <f>+AK18-AK19</f>
+        <v>1459.3279565769599</v>
+      </c>
+      <c r="AL20" s="3">
+        <f t="shared" si="97"/>
+        <v>1595.3058430048072</v>
+      </c>
+      <c r="AM20" s="3">
+        <f t="shared" si="97"/>
+        <v>1772.5420994804226</v>
+      </c>
+      <c r="AN20" s="3">
+        <f t="shared" si="97"/>
+        <v>1865.2218702790881</v>
+      </c>
+      <c r="AO20" s="3">
+        <f t="shared" si="97"/>
+        <v>1973.4957591810321</v>
+      </c>
+      <c r="AP20" s="3">
+        <f>+AP18-AP19</f>
+        <v>2077.9402510567761</v>
+      </c>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
     </row>
     <row r="21" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21" si="98">+C20/C22</f>
+        <v>0.74279835390946503</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21" si="99">+D20/D22</f>
+        <v>0.5072164948453608</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" ref="E21" si="100">+E20/E22</f>
+        <v>1.1272912423625261</v>
+      </c>
+      <c r="F21" s="4">
+        <f>+F20/F22</f>
+        <v>0.70203644158628087</v>
+      </c>
+      <c r="G21" s="4">
+        <f>+G20/G22</f>
+        <v>0.65843621399176966</v>
+      </c>
+      <c r="H21" s="4">
+        <f>+H20/H22</f>
+        <v>0.25560081466395113</v>
+      </c>
+      <c r="I21" s="4">
+        <f>+I20/I22</f>
+        <v>0.47492323439099288</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" ref="J21" si="101">+J20/J22</f>
+        <v>0.38792221084953937</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" ref="K21:W21" si="102">+K20/K22</f>
+        <v>0.60484720758693322</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="102"/>
+        <v>-7.172131147540961E-2</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="102"/>
+        <v>0.54916317991631725</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="102"/>
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="102"/>
+        <v>0.95247524752475277</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="102"/>
+        <v>1.687950566426365</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="102"/>
+        <v>0.58083832335329311</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="102"/>
+        <v>1.2185954500494565</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="102"/>
+        <v>1.1716269841269846</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="102"/>
+        <v>1.3175675675675671</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="102"/>
+        <v>1.3195380173243492</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="102"/>
+        <v>3.3538746871992311</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="102"/>
+        <v>3.7286610202117427</v>
+      </c>
+      <c r="AC21" s="1">
+        <f>+AC20/AC22</f>
+        <v>0.27148846960167738</v>
+      </c>
+      <c r="AD21" s="1">
+        <f>+AD20/AD22</f>
+        <v>1.9341692789968654</v>
+      </c>
+      <c r="AE21" s="1">
+        <f>+AE20/AE22</f>
+        <v>3.1421267893660558</v>
+      </c>
+      <c r="AF21" s="1">
+        <f>+AF20/AF22</f>
+        <v>1.7773237997957128</v>
+      </c>
+      <c r="AG21" s="1">
+        <f>+AG20/AG22</f>
+        <v>2.0233977619532046</v>
+      </c>
+      <c r="AH21" s="1">
+        <f>+AH20/AH22</f>
+        <v>4.6432865731462929</v>
+      </c>
+      <c r="AI21" s="1">
+        <f t="shared" ref="AI21:AP21" si="103">+AI20/AI22</f>
+        <v>9.7228553816518186</v>
+      </c>
+      <c r="AJ21" s="1">
+        <f t="shared" si="103"/>
+        <v>13.164554192535515</v>
+      </c>
+      <c r="AK21" s="1">
+        <f t="shared" si="103"/>
+        <v>14.05565091815035</v>
+      </c>
+      <c r="AL21" s="1">
+        <f t="shared" si="103"/>
+        <v>15.365334389644184</v>
+      </c>
+      <c r="AM21" s="1">
+        <f t="shared" si="103"/>
+        <v>17.072401632366219</v>
+      </c>
+      <c r="AN21" s="1">
+        <f t="shared" si="103"/>
+        <v>17.965055336181923</v>
+      </c>
+      <c r="AO21" s="1">
+        <f t="shared" si="103"/>
+        <v>19.007905217250492</v>
+      </c>
+      <c r="AP21" s="1">
+        <f t="shared" si="103"/>
+        <v>20.013871910009886</v>
+      </c>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+    </row>
+    <row r="22" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>97.2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>97</v>
+      </c>
+      <c r="E22" s="5">
+        <v>98.2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>93.3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>97.2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>98.2</v>
+      </c>
+      <c r="I22" s="5">
+        <v>97.7</v>
+      </c>
+      <c r="J22" s="5">
+        <v>97.7</v>
+      </c>
+      <c r="K22" s="5">
+        <v>94.9</v>
+      </c>
+      <c r="L22" s="5">
+        <v>97.6</v>
+      </c>
+      <c r="M22" s="5">
+        <v>95.6</v>
+      </c>
+      <c r="N22" s="5">
+        <v>99</v>
+      </c>
+      <c r="O22" s="5">
+        <v>101</v>
+      </c>
+      <c r="P22" s="5">
+        <v>97.1</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>100.2</v>
+      </c>
+      <c r="R22" s="5">
+        <v>101.1</v>
+      </c>
+      <c r="S22" s="5">
+        <v>100.8</v>
+      </c>
+      <c r="T22" s="5">
+        <v>103.6</v>
+      </c>
+      <c r="U22" s="5">
+        <v>103.9</v>
+      </c>
+      <c r="V22" s="5">
+        <f>+U22</f>
+        <v>103.9</v>
+      </c>
+      <c r="W22" s="5">
+        <f>+V22</f>
+        <v>103.9</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>86.7</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>88.1</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>95.4</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>95.7</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>97.8</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="AG22" s="3">
+        <f>AVERAGE(L22:O22)</f>
+        <v>98.3</v>
+      </c>
+      <c r="AH22" s="3">
+        <f>AVERAGE(P22:S22)</f>
+        <v>99.8</v>
+      </c>
+      <c r="AI22" s="3">
+        <f>AVERAGE(T22:W22)</f>
+        <v>103.82499999999999</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f t="shared" ref="AJ22:AP22" si="104">+AI22</f>
+        <v>103.82499999999999</v>
+      </c>
+      <c r="AK22" s="3">
+        <f t="shared" si="104"/>
+        <v>103.82499999999999</v>
+      </c>
+      <c r="AL22" s="3">
+        <f t="shared" si="104"/>
+        <v>103.82499999999999</v>
+      </c>
+      <c r="AM22" s="3">
+        <f t="shared" si="104"/>
+        <v>103.82499999999999</v>
+      </c>
+      <c r="AN22" s="3">
+        <f t="shared" si="104"/>
+        <v>103.82499999999999</v>
+      </c>
+      <c r="AO22" s="3">
+        <f t="shared" si="104"/>
+        <v>103.82499999999999</v>
+      </c>
+      <c r="AP22" s="3">
+        <f t="shared" si="104"/>
+        <v>103.82499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="16">
-        <f t="shared" ref="H21:M21" si="96">+H5/D5-1</f>
+      <c r="H24" s="16">
+        <f t="shared" ref="H24:M24" si="105">+H6/D6-1</f>
         <v>-4.3271311120729461E-4</v>
       </c>
-      <c r="I21" s="16">
-        <f t="shared" si="96"/>
+      <c r="I24" s="16">
+        <f t="shared" si="105"/>
         <v>-2.989536621823663E-3</v>
       </c>
-      <c r="J21" s="16">
-        <f t="shared" si="96"/>
+      <c r="J24" s="16">
+        <f t="shared" si="105"/>
         <v>0.13656040928768198</v>
       </c>
-      <c r="K21" s="16">
-        <f t="shared" si="96"/>
+      <c r="K24" s="16">
+        <f t="shared" si="105"/>
         <v>0.25777041027766256</v>
       </c>
-      <c r="L21" s="16">
-        <f t="shared" si="96"/>
+      <c r="L24" s="16">
+        <f t="shared" si="105"/>
         <v>0.32034632034632038</v>
       </c>
-      <c r="M21" s="16">
-        <f t="shared" si="96"/>
+      <c r="M24" s="16">
+        <f t="shared" si="105"/>
         <v>0.31934032983508231</v>
       </c>
-      <c r="N21" s="16">
-        <f t="shared" ref="N21:W21" si="97">+N5/J5-1</f>
+      <c r="N24" s="16">
+        <f t="shared" ref="N24:W24" si="106">+N6/J6-1</f>
         <v>0.31336565096952906</v>
       </c>
-      <c r="O21" s="16">
-        <f t="shared" si="97"/>
+      <c r="O24" s="16">
+        <f t="shared" si="106"/>
         <v>0.33311367380560131</v>
       </c>
-      <c r="P21" s="16">
-        <f t="shared" si="97"/>
+      <c r="P24" s="16">
+        <f t="shared" si="106"/>
         <v>0.36163934426229516</v>
       </c>
-      <c r="Q21" s="16">
-        <f t="shared" si="97"/>
+      <c r="Q24" s="16">
+        <f t="shared" si="106"/>
         <v>0.2678977272727272</v>
       </c>
-      <c r="R21" s="16">
-        <f t="shared" si="97"/>
+      <c r="R24" s="16">
+        <f t="shared" si="106"/>
         <v>0.2965989981544952</v>
       </c>
-      <c r="S21" s="16">
-        <f t="shared" si="97"/>
+      <c r="S24" s="16">
+        <f t="shared" si="106"/>
         <v>0.25358378645575863</v>
       </c>
-      <c r="T21" s="16">
-        <f t="shared" si="97"/>
+      <c r="T24" s="16">
+        <f t="shared" si="106"/>
         <v>0.22562003371057071</v>
       </c>
-      <c r="U21" s="16">
-        <f t="shared" si="97"/>
+      <c r="U24" s="16">
+        <f t="shared" si="106"/>
         <v>0.30808872955411148</v>
       </c>
-      <c r="V21" s="16">
-        <f t="shared" si="97"/>
+      <c r="V24" s="16">
+        <f t="shared" si="106"/>
         <v>0.17972753151687693</v>
       </c>
-      <c r="W21" s="16">
-        <f t="shared" si="97"/>
+      <c r="W24" s="16">
+        <f t="shared" si="106"/>
         <v>0.26052839116719251</v>
       </c>
-      <c r="AF21" s="17">
-        <f>+AF5/AE5-1</f>
-        <v>9.6569761593400916E-2</v>
-      </c>
-      <c r="AG21" s="17">
-        <f>+AG5/AF5-1</f>
-        <v>0.32180533895972863</v>
-      </c>
-      <c r="AH21" s="17">
-        <f>+AH5/AG5-1</f>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17">
+        <f t="shared" ref="AB24:AE24" si="107">+AC6/AB6-1</f>
+        <v>2.5128644939965699</v>
+      </c>
+      <c r="AD24" s="17">
+        <f t="shared" si="107"/>
+        <v>0.83813476562499978</v>
+      </c>
+      <c r="AE24" s="17">
+        <f>+AE6/AD6-1</f>
+        <v>0.32036126975693979</v>
+      </c>
+      <c r="AF24" s="17">
+        <f>+AF6/AE6-1</f>
+        <v>9.6569761593401138E-2</v>
+      </c>
+      <c r="AG24" s="17">
+        <f>+AG6/AF6-1</f>
+        <v>0.3218053389597284</v>
+      </c>
+      <c r="AH24" s="17">
+        <f>+AH6/AG6-1</f>
         <v>0.29127628565479902</v>
       </c>
-      <c r="AI21" s="17">
-        <f t="shared" ref="AI21:AP21" si="98">+AI5/AH5-1</f>
+      <c r="AI24" s="17">
+        <f t="shared" ref="AI24:AP24" si="108">+AI6/AH6-1</f>
         <v>0.24278727292271296</v>
       </c>
-      <c r="AJ21" s="17">
-        <f t="shared" si="98"/>
+      <c r="AJ24" s="17">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AK21" s="17">
-        <f t="shared" si="98"/>
+      <c r="AK24" s="17">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AL21" s="17">
-        <f t="shared" si="98"/>
+      <c r="AL24" s="17">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AM21" s="17">
-        <f t="shared" si="98"/>
+      <c r="AM24" s="17">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AN21" s="17">
-        <f t="shared" si="98"/>
+      <c r="AN24" s="17">
+        <f t="shared" si="108"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AO21" s="17">
-        <f t="shared" si="98"/>
+      <c r="AO24" s="17">
+        <f t="shared" si="108"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AP21" s="17">
-        <f t="shared" si="98"/>
+      <c r="AP24" s="17">
+        <f t="shared" si="108"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AQ21" s="17"/>
-      <c r="AR21" s="17"/>
-      <c r="AS21" s="17"/>
-      <c r="AT21" s="17"/>
-    </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="16">
-        <f t="shared" ref="C23" si="99">C9/C7</f>
+      <c r="C26" s="16">
+        <f t="shared" ref="C26" si="109">C12/C10</f>
         <v>0.98975829578041785</v>
       </c>
-      <c r="D23" s="16">
-        <f t="shared" ref="D23" si="100">D9/D7</f>
+      <c r="D26" s="16">
+        <f t="shared" ref="D26" si="110">D12/D10</f>
         <v>0.99114297764656267</v>
       </c>
-      <c r="E23" s="16">
-        <f t="shared" ref="E23" si="101">E9/E7</f>
+      <c r="E26" s="16">
+        <f t="shared" ref="E26" si="111">E12/E10</f>
         <v>0.99206349206349209</v>
       </c>
-      <c r="F23" s="16">
-        <f t="shared" ref="F23:M23" si="102">F9/F7</f>
+      <c r="F26" s="16">
+        <f t="shared" ref="F26:M26" si="112">F12/F10</f>
         <v>0.98878143133462282</v>
       </c>
-      <c r="G23" s="16">
-        <f t="shared" si="102"/>
+      <c r="G26" s="16">
+        <f t="shared" si="112"/>
         <v>0.98830173457039128</v>
       </c>
-      <c r="H23" s="16">
-        <f t="shared" si="102"/>
+      <c r="H26" s="16">
+        <f t="shared" si="112"/>
         <v>0.98774302620456467</v>
       </c>
-      <c r="I23" s="16">
-        <f t="shared" si="102"/>
+      <c r="I26" s="16">
+        <f t="shared" si="112"/>
         <v>0.98926964347525093</v>
       </c>
-      <c r="J23" s="16">
-        <f t="shared" si="102"/>
+      <c r="J26" s="16">
+        <f t="shared" si="112"/>
         <v>0.9858108108108109</v>
       </c>
-      <c r="K23" s="16">
-        <f t="shared" si="102"/>
+      <c r="K26" s="16">
+        <f t="shared" si="112"/>
         <v>0.98685897435897429</v>
       </c>
-      <c r="L23" s="16">
-        <f t="shared" si="102"/>
+      <c r="L26" s="16">
+        <f t="shared" si="112"/>
         <v>0.98518995492594974</v>
       </c>
-      <c r="M23" s="16">
-        <f t="shared" si="102"/>
+      <c r="M26" s="16">
+        <f t="shared" si="112"/>
         <v>0.98730830248545742</v>
       </c>
-      <c r="N23" s="16">
-        <f t="shared" ref="N23:W23" si="103">N9/N7</f>
+      <c r="N26" s="16">
+        <f t="shared" ref="N26:W26" si="113">N12/N10</f>
         <v>0.98427429749935547</v>
       </c>
-      <c r="O23" s="16">
-        <f t="shared" si="103"/>
+      <c r="O26" s="16">
+        <f t="shared" si="113"/>
         <v>0.98131067961165053</v>
       </c>
-      <c r="P23" s="16">
-        <f t="shared" si="103"/>
+      <c r="P26" s="16">
+        <f t="shared" si="113"/>
         <v>0.97978116079923883</v>
       </c>
-      <c r="Q23" s="16">
-        <f t="shared" si="103"/>
+      <c r="Q26" s="16">
+        <f t="shared" si="113"/>
         <v>0.97459686326485528</v>
       </c>
-      <c r="R23" s="16">
-        <f t="shared" si="103"/>
+      <c r="R26" s="16">
+        <f t="shared" si="113"/>
         <v>0.97754611066559749</v>
       </c>
-      <c r="S23" s="16">
-        <f t="shared" si="103"/>
+      <c r="S26" s="16">
+        <f t="shared" si="113"/>
         <v>0.98348231636222305</v>
       </c>
-      <c r="T23" s="16">
-        <f t="shared" si="103"/>
+      <c r="T26" s="16">
+        <f t="shared" si="113"/>
         <v>0.9854453716281778</v>
       </c>
-      <c r="U23" s="16">
-        <f t="shared" si="103"/>
+      <c r="U26" s="16">
+        <f t="shared" si="113"/>
         <v>0.98441206370721779</v>
       </c>
-      <c r="V23" s="16">
-        <f t="shared" si="103"/>
+      <c r="V26" s="16">
+        <f t="shared" si="113"/>
         <v>0.98000000000000009</v>
       </c>
-      <c r="W23" s="16">
-        <f t="shared" si="103"/>
+      <c r="W26" s="16">
+        <f t="shared" si="113"/>
         <v>0.98000000000000009</v>
       </c>
-      <c r="AG23" s="16">
-        <f t="shared" ref="AG23:AP23" si="104">AG9/AG7</f>
+      <c r="AB26" s="16">
+        <f t="shared" ref="AB26:AE26" si="114">AB12/AB10</f>
+        <v>1</v>
+      </c>
+      <c r="AC26" s="16">
+        <f t="shared" si="114"/>
+        <v>0.98914007092198586</v>
+      </c>
+      <c r="AD26" s="16">
+        <f t="shared" si="114"/>
+        <v>0.99061032863849763</v>
+      </c>
+      <c r="AE26" s="16">
+        <f t="shared" si="114"/>
+        <v>0.99034324505210836</v>
+      </c>
+      <c r="AF26" s="16">
+        <f t="shared" ref="AF26:AP26" si="115">AF12/AF10</f>
+        <v>0.98738420820467587</v>
+      </c>
+      <c r="AG26" s="16">
+        <f t="shared" si="115"/>
         <v>0.98441593336468058</v>
       </c>
-      <c r="AH23" s="16">
-        <f t="shared" si="104"/>
+      <c r="AH26" s="16">
+        <f t="shared" si="115"/>
         <v>0.97895573813941161</v>
       </c>
-      <c r="AI23" s="16">
-        <f t="shared" si="104"/>
+      <c r="AI26" s="16">
+        <f t="shared" si="115"/>
         <v>0.98232685169653722</v>
       </c>
-      <c r="AJ23" s="16">
-        <f t="shared" si="104"/>
+      <c r="AJ26" s="16">
+        <f t="shared" si="115"/>
         <v>0.99</v>
       </c>
-      <c r="AK23" s="16">
-        <f t="shared" si="104"/>
+      <c r="AK26" s="16">
+        <f t="shared" si="115"/>
         <v>0.99</v>
       </c>
-      <c r="AL23" s="16">
-        <f t="shared" si="104"/>
+      <c r="AL26" s="16">
+        <f t="shared" si="115"/>
         <v>0.9900000000000001</v>
       </c>
-      <c r="AM23" s="16">
-        <f t="shared" si="104"/>
+      <c r="AM26" s="16">
+        <f t="shared" si="115"/>
         <v>0.99</v>
       </c>
-      <c r="AN23" s="16">
-        <f t="shared" si="104"/>
-        <v>0.98999999999999988</v>
-      </c>
-      <c r="AO23" s="16">
-        <f t="shared" si="104"/>
+      <c r="AN26" s="16">
+        <f t="shared" si="115"/>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="AO26" s="16">
+        <f t="shared" si="115"/>
         <v>0.99</v>
       </c>
-      <c r="AP23" s="16">
-        <f t="shared" si="104"/>
+      <c r="AP26" s="16">
+        <f t="shared" si="115"/>
         <v>0.99</v>
       </c>
-      <c r="AQ23" s="16"/>
-      <c r="AR23" s="16"/>
-      <c r="AS23" s="16"/>
-      <c r="AT23" s="16"/>
-    </row>
-    <row r="25" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M28" s="2">
         <f>1137-169</f>
         <v>968</v>
       </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5">
         <f>139.7+899.2+637.8+143.6</f>
         <v>1820.3</v>
       </c>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" t="s">
+      <c r="V28" s="5">
+        <f>+U28+V20</f>
+        <v>2168.7675800000002</v>
+      </c>
+      <c r="W28" s="5">
+        <f>+V28+W20</f>
+        <v>2556.1754600000004</v>
+      </c>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3">
+        <f>+W28</f>
+        <v>2556.1754600000004</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f>+AI28+AJ20</f>
+        <v>3922.9852990400004</v>
+      </c>
+      <c r="AK28" s="3">
+        <f>+AJ28+AK20</f>
+        <v>5382.3132556169603</v>
+      </c>
+      <c r="AL28" s="3">
+        <f>+AK28+AL20</f>
+        <v>6977.619098621768</v>
+      </c>
+      <c r="AM28" s="3">
+        <f>+AL28+AM20</f>
+        <v>8750.1611981021906</v>
+      </c>
+      <c r="AN28" s="3">
+        <f>+AM28+AN20</f>
+        <v>10615.383068381279</v>
+      </c>
+      <c r="AO28" s="3">
+        <f>+AN28+AO20</f>
+        <v>12588.878827562312</v>
+      </c>
+      <c r="AP28" s="3">
+        <f>+AO28+AP20</f>
+        <v>14666.819078619088</v>
+      </c>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" t="s">
         <v>81</v>
       </c>
-      <c r="AS25" s="17">
+      <c r="AS28" s="17">
         <v>0.08</v>
       </c>
-      <c r="AT25" s="3"/>
-    </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="U26" s="5">
-        <v>468.2</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS26" s="3">
-        <f>NPV(AS25,AH17:AT17)+Main!L5-Main!L6</f>
-        <v>11520.700112077373</v>
-      </c>
-    </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="U27" s="5">
-        <v>42.5</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS27" s="1">
-        <f>AS26/Main!L3</f>
-        <v>114.09316771191781</v>
-      </c>
-    </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="U28" s="5">
-        <v>120.2</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS28" s="17">
-        <v>0.03</v>
-      </c>
+      <c r="AT28" s="3"/>
     </row>
     <row r="29" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U29" s="5">
-        <v>419.5</v>
+        <v>468.2</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS29" s="3">
+        <f>NPV(AS28,AJ20:AV20)+Main!L5-Main!L6</f>
+        <v>10631.813673715102</v>
       </c>
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U30" s="5">
-        <v>262.89999999999998</v>
+        <v>42.5</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS30" s="1">
+        <f>AS29/Main!L3</f>
+        <v>105.29024180443761</v>
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="U31" s="5">
-        <v>80.099999999999994</v>
+        <v>120.2</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS31" s="17">
+        <v>0.03</v>
       </c>
     </row>
     <row r="32" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="U32" s="5">
-        <v>33.5</v>
+        <v>419.5</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U33" s="5">
-        <v>57.8</v>
+        <v>262.89999999999998</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U34" s="5">
-        <f>SUM(U25:U33)</f>
-        <v>3305</v>
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="U35" s="5">
+        <v>33.5</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="U36" s="5">
-        <v>358.5</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="U37" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>107</v>
-      </c>
-      <c r="U38" s="5">
-        <v>256.2</v>
+        <f>SUM(U28:U36)</f>
+        <v>3305</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U39" s="5">
-        <v>141.1</v>
+        <v>358.5</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U40" s="5">
-        <v>2509.1999999999998</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="U41" s="5">
+        <v>256.2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="U42" s="5">
+        <v>141.1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="U43" s="5">
+        <v>2509.1999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>103</v>
       </c>
-      <c r="U41" s="5">
-        <f>SUM(U36:U40)</f>
+      <c r="U44" s="5">
+        <f>SUM(U39:U43)</f>
         <v>3305</v>
       </c>
     </row>
@@ -4055,4 +4577,89 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A305B59E-805F-48F7-89A8-1725C9FCED24}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E379B3D9-3955-4650-8191-49A7A7DDFD2D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/NBIX.xlsx
+++ b/NBIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2E3A92-02E2-442B-94ED-5606E06C2D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C107AE8-FD24-4B8D-A18D-10278D1714B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28260" yWindow="480" windowWidth="27345" windowHeight="19950" xr2:uid="{409249CC-86EB-47D2-8A0E-5D085FBE782F}"/>
+    <workbookView xWindow="-36195" yWindow="810" windowWidth="24255" windowHeight="19950" activeTab="5" xr2:uid="{409249CC-86EB-47D2-8A0E-5D085FBE782F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -806,16 +806,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>572223</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>69694</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>507174</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>608670</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>106994</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>543622</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -838,7 +838,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4149906" y="1695914"/>
+          <a:off x="3494772" y="1932877"/>
           <a:ext cx="3079801" cy="2964495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C32A1F6-F911-40A6-8644-267FAD055F12}">
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2174,67 +2174,67 @@
         <v>639.34</v>
       </c>
       <c r="AA10" s="6">
-        <f>+AA6+AA9</f>
+        <f t="shared" ref="AA10:AG10" si="17">+AA6+AA9</f>
         <v>0</v>
       </c>
       <c r="AB10" s="6">
-        <f>+AB6+AB9</f>
+        <f t="shared" si="17"/>
         <v>116.6</v>
       </c>
       <c r="AC10" s="6">
-        <f>+AC6+AC9</f>
+        <f t="shared" si="17"/>
         <v>451.20000000000005</v>
       </c>
       <c r="AD10" s="6">
-        <f>+AD6+AD9</f>
+        <f t="shared" si="17"/>
         <v>788.1</v>
       </c>
       <c r="AE10" s="6">
-        <f>+AE6+AE9</f>
+        <f t="shared" si="17"/>
         <v>1045.9000000000001</v>
       </c>
       <c r="AF10" s="6">
-        <f>+AF6+AF9</f>
+        <f t="shared" si="17"/>
         <v>1133.5000000000002</v>
       </c>
       <c r="AG10" s="6">
-        <f>+AG6+AG9</f>
+        <f t="shared" si="17"/>
         <v>1488.7</v>
       </c>
       <c r="AH10" s="6">
-        <f t="shared" ref="AH10:AK10" si="17">+AH6+AH9</f>
+        <f t="shared" ref="AH10:AK10" si="18">+AH6+AH9</f>
         <v>1886.5000000000002</v>
       </c>
       <c r="AI10" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2325.0299999999997</v>
       </c>
       <c r="AJ10" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2473.9465</v>
       </c>
       <c r="AK10" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2549.3438249999999</v>
       </c>
       <c r="AL10" s="6">
-        <f t="shared" ref="AL10" si="18">+AL6+AL9</f>
+        <f t="shared" ref="AL10" si="19">+AL6+AL9</f>
         <v>2676.8110162500002</v>
       </c>
       <c r="AM10" s="6">
-        <f t="shared" ref="AM10" si="19">+AM6+AM9</f>
+        <f t="shared" ref="AM10" si="20">+AM6+AM9</f>
         <v>2852.2515670625003</v>
       </c>
       <c r="AN10" s="6">
-        <f t="shared" ref="AN10" si="20">+AN6+AN9</f>
+        <f t="shared" ref="AN10" si="21">+AN6+AN9</f>
         <v>2915.5580827331255</v>
       </c>
       <c r="AO10" s="6">
-        <f t="shared" ref="AO10" si="21">+AO6+AO9</f>
+        <f t="shared" ref="AO10" si="22">+AO6+AO9</f>
         <v>2995.7456635604567</v>
       </c>
       <c r="AP10" s="6">
-        <f t="shared" ref="AP10" si="22">+AP6+AP9</f>
+        <f t="shared" ref="AP10" si="23">+AP6+AP9</f>
         <v>3067.8171201960613</v>
       </c>
     </row>
@@ -2320,43 +2320,43 @@
         <v>14.3</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" ref="AG11" si="23">SUM(L11:O11)</f>
+        <f t="shared" ref="AG11" si="24">SUM(L11:O11)</f>
         <v>23.2</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" ref="AH11" si="24">SUM(P11:S11)</f>
+        <f t="shared" ref="AH11" si="25">SUM(P11:S11)</f>
         <v>39.700000000000003</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" ref="AI11" si="25">SUM(T11:W11)</f>
+        <f t="shared" ref="AI11" si="26">SUM(T11:W11)</f>
         <v>41.090600000000002</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" ref="AJ11:AK11" si="26">+AJ10*0.01</f>
+        <f t="shared" ref="AJ11:AK11" si="27">+AJ10*0.01</f>
         <v>24.739464999999999</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>25.493438250000001</v>
       </c>
       <c r="AL11" s="3">
-        <f t="shared" ref="AL11" si="27">+AL10*0.01</f>
+        <f t="shared" ref="AL11" si="28">+AL10*0.01</f>
         <v>26.768110162500001</v>
       </c>
       <c r="AM11" s="3">
-        <f t="shared" ref="AM11" si="28">+AM10*0.01</f>
+        <f t="shared" ref="AM11" si="29">+AM10*0.01</f>
         <v>28.522515670625005</v>
       </c>
       <c r="AN11" s="3">
-        <f t="shared" ref="AN11" si="29">+AN10*0.01</f>
+        <f t="shared" ref="AN11" si="30">+AN10*0.01</f>
         <v>29.155580827331256</v>
       </c>
       <c r="AO11" s="3">
-        <f t="shared" ref="AO11" si="30">+AO10*0.01</f>
+        <f t="shared" ref="AO11" si="31">+AO10*0.01</f>
         <v>29.957456635604569</v>
       </c>
       <c r="AP11" s="3">
-        <f t="shared" ref="AP11" si="31">+AP10*0.01</f>
+        <f t="shared" ref="AP11" si="32">+AP10*0.01</f>
         <v>30.678171201960613</v>
       </c>
     </row>
@@ -2365,15 +2365,15 @@
         <v>39</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" ref="C12" si="32">+C10-C11</f>
+        <f t="shared" ref="C12" si="33">+C10-C11</f>
         <v>241.6</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" ref="D12" si="33">+D10-D11</f>
+        <f t="shared" ref="D12" si="34">+D10-D11</f>
         <v>235</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ref="E12" si="34">+E10-E11</f>
+        <f t="shared" ref="E12" si="35">+E10-E11</f>
         <v>300.00000000000006</v>
       </c>
       <c r="F12" s="5">
@@ -2393,71 +2393,71 @@
         <v>285.8</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" ref="J12" si="35">+J10-J11</f>
+        <f t="shared" ref="J12" si="36">+J10-J11</f>
         <v>291.8</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" ref="K12:W12" si="36">+K10-K11</f>
+        <f t="shared" ref="K12:W12" si="37">+K10-K11</f>
         <v>307.89999999999998</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>306</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>373.4</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>381.8</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>404.3</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>411.90000000000003</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>441.2</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>487.6</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>506.1</v>
       </c>
       <c r="T12" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>507.79999999999995</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>580.99999999999989</v>
       </c>
       <c r="V12" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>568.58620000000008</v>
       </c>
       <c r="W12" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>626.55320000000006</v>
       </c>
       <c r="AA12" s="3">
-        <f t="shared" ref="AA12:AC12" si="37">+AA10-AA11</f>
+        <f t="shared" ref="AA12:AC12" si="38">+AA10-AA11</f>
         <v>0</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>116.6</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>446.30000000000007</v>
       </c>
       <c r="AD12" s="3">
@@ -2477,39 +2477,39 @@
         <v>1465.5</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" ref="AH12:AK12" si="38">+AH10-AH11</f>
+        <f t="shared" ref="AH12:AK12" si="39">+AH10-AH11</f>
         <v>1846.8000000000002</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2283.9393999999998</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2449.2070349999999</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2523.8503867499999</v>
       </c>
       <c r="AL12" s="3">
-        <f t="shared" ref="AL12" si="39">+AL10-AL11</f>
+        <f t="shared" ref="AL12" si="40">+AL10-AL11</f>
         <v>2650.0429060875003</v>
       </c>
       <c r="AM12" s="3">
-        <f t="shared" ref="AM12" si="40">+AM10-AM11</f>
+        <f t="shared" ref="AM12" si="41">+AM10-AM11</f>
         <v>2823.7290513918751</v>
       </c>
       <c r="AN12" s="3">
-        <f t="shared" ref="AN12" si="41">+AN10-AN11</f>
+        <f t="shared" ref="AN12" si="42">+AN10-AN11</f>
         <v>2886.4025019057945</v>
       </c>
       <c r="AO12" s="3">
-        <f t="shared" ref="AO12" si="42">+AO10-AO11</f>
+        <f t="shared" ref="AO12" si="43">+AO10-AO11</f>
         <v>2965.7882069248521</v>
       </c>
       <c r="AP12" s="3">
-        <f t="shared" ref="AP12" si="43">+AP10-AP11</f>
+        <f t="shared" ref="AP12" si="44">+AP10-AP11</f>
         <v>3037.1389489941007</v>
       </c>
     </row>
@@ -2589,15 +2589,15 @@
         <v>328.1</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" ref="AG13:AG14" si="44">SUM(L13:O13)</f>
+        <f t="shared" ref="AG13:AG14" si="45">SUM(L13:O13)</f>
         <v>463.8</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" ref="AH13:AH14" si="45">SUM(P13:S13)</f>
+        <f t="shared" ref="AH13:AH14" si="46">SUM(P13:S13)</f>
         <v>565</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" ref="AI13:AI14" si="46">SUM(T13:W13)</f>
+        <f t="shared" ref="AI13:AI14" si="47">SUM(T13:W13)</f>
         <v>350.5</v>
       </c>
     </row>
@@ -2683,15 +2683,15 @@
         <v>583.29999999999995</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>752.69999999999993</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>788.80000000000007</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>908.19999999999993</v>
       </c>
       <c r="AJ14" s="3">
@@ -2703,23 +2703,23 @@
         <v>817.38</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" ref="AL14:AM14" si="47">+AK14</f>
+        <f t="shared" ref="AL14:AM14" si="48">+AK14</f>
         <v>817.38</v>
       </c>
       <c r="AM14" s="3">
-        <f t="shared" si="47"/>
-        <v>817.38</v>
-      </c>
-      <c r="AN14" s="3">
-        <f t="shared" ref="AN14:AP14" si="48">+AM14</f>
-        <v>817.38</v>
-      </c>
-      <c r="AO14" s="3">
         <f t="shared" si="48"/>
         <v>817.38</v>
       </c>
+      <c r="AN14" s="3">
+        <f t="shared" ref="AN14:AP14" si="49">+AM14</f>
+        <v>817.38</v>
+      </c>
+      <c r="AO14" s="3">
+        <f t="shared" si="49"/>
+        <v>817.38</v>
+      </c>
       <c r="AP14" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>817.38</v>
       </c>
     </row>
@@ -2728,15 +2728,15 @@
         <v>40</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" ref="C15" si="49">+C13+C14</f>
+        <f t="shared" ref="C15" si="50">+C13+C14</f>
         <v>156.6</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" ref="D15" si="50">+D13+D14</f>
+        <f t="shared" ref="D15" si="51">+D13+D14</f>
         <v>176.1</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" ref="E15" si="51">+E13+E14</f>
+        <f t="shared" ref="E15" si="52">+E13+E14</f>
         <v>177.4</v>
       </c>
       <c r="F15" s="5">
@@ -2756,7 +2756,7 @@
         <v>218</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" ref="J15" si="52">+J13+J14</f>
+        <f t="shared" ref="J15" si="53">+J13+J14</f>
         <v>247.3</v>
       </c>
       <c r="K15" s="5">
@@ -2776,11 +2776,11 @@
         <v>294</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" ref="O15:P15" si="53">+O13+O14</f>
+        <f t="shared" ref="O15:P15" si="54">+O13+O14</f>
         <v>300.89999999999998</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>283.39999999999998</v>
       </c>
       <c r="Q15" s="5">
@@ -2788,39 +2788,39 @@
         <v>367.6</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" ref="R15:W15" si="54">+R13+R14</f>
+        <f t="shared" ref="R15:W15" si="55">+R13+R14</f>
         <v>346.4</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>356.4</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>402.5</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>433.1</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>204.2</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>218.9</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" ref="AA15:AC15" si="55">+AA13+AA14</f>
+        <f t="shared" ref="AA15:AC15" si="56">+AA13+AA14</f>
         <v>0</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>404.70000000000005</v>
       </c>
       <c r="AD15" s="3">
@@ -2840,39 +2840,39 @@
         <v>1216.5</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" ref="AH15:AK15" si="56">+AH13+AH14</f>
+        <f t="shared" ref="AH15:AK15" si="57">+AH13+AH14</f>
         <v>1353.8000000000002</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1258.6999999999998</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>817.38</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>817.38</v>
       </c>
       <c r="AL15" s="3">
-        <f t="shared" ref="AL15" si="57">+AL13+AL14</f>
+        <f t="shared" ref="AL15" si="58">+AL13+AL14</f>
         <v>817.38</v>
       </c>
       <c r="AM15" s="3">
-        <f t="shared" ref="AM15" si="58">+AM13+AM14</f>
+        <f t="shared" ref="AM15" si="59">+AM13+AM14</f>
         <v>817.38</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" ref="AN15" si="59">+AN13+AN14</f>
+        <f t="shared" ref="AN15" si="60">+AN13+AN14</f>
         <v>817.38</v>
       </c>
       <c r="AO15" s="3">
-        <f t="shared" ref="AO15" si="60">+AO13+AO14</f>
+        <f t="shared" ref="AO15" si="61">+AO13+AO14</f>
         <v>817.38</v>
       </c>
       <c r="AP15" s="3">
-        <f t="shared" ref="AP15" si="61">+AP13+AP14</f>
+        <f t="shared" ref="AP15" si="62">+AP13+AP14</f>
         <v>817.38</v>
       </c>
     </row>
@@ -2881,15 +2881,15 @@
         <v>41</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" ref="C16" si="62">+C12-C15</f>
+        <f t="shared" ref="C16" si="63">+C12-C15</f>
         <v>85</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" ref="D16" si="63">+D12-D15</f>
+        <f t="shared" ref="D16" si="64">+D12-D15</f>
         <v>58.900000000000006</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ref="E16" si="64">+E12-E15</f>
+        <f t="shared" ref="E16" si="65">+E12-E15</f>
         <v>122.60000000000005</v>
       </c>
       <c r="F16" s="5">
@@ -2909,7 +2909,7 @@
         <v>67.800000000000011</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ref="J16" si="65">+J12-J15</f>
+        <f t="shared" ref="J16" si="66">+J12-J15</f>
         <v>44.5</v>
       </c>
       <c r="K16" s="5">
@@ -2929,11 +2929,11 @@
         <v>87.800000000000011</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" ref="O16:P16" si="66">+O12-O15</f>
+        <f t="shared" ref="O16:P16" si="67">+O12-O15</f>
         <v>103.40000000000003</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>128.50000000000006</v>
       </c>
       <c r="Q16" s="5">
@@ -2941,39 +2941,39 @@
         <v>73.599999999999966</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" ref="R16:W16" si="67">+R12-R15</f>
+        <f t="shared" ref="R16:W16" si="68">+R12-R15</f>
         <v>141.20000000000005</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>149.70000000000005</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>105.29999999999995</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>147.89999999999986</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>364.38620000000009</v>
       </c>
       <c r="W16" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>407.65320000000008</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ref="AA16:AC16" si="68">+AA12-AA15</f>
+        <f t="shared" ref="AA16:AC16" si="69">+AA12-AA15</f>
         <v>0</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>116.6</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>41.600000000000023</v>
       </c>
       <c r="AD16" s="3">
@@ -2993,39 +2993,39 @@
         <v>249</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" ref="AH16:AK16" si="69">+AH12-AH15</f>
+        <f t="shared" ref="AH16:AK16" si="70">+AH12-AH15</f>
         <v>493</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1025.2393999999999</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1631.8270349999998</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1706.4703867499998</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" ref="AL16" si="70">+AL12-AL15</f>
+        <f t="shared" ref="AL16" si="71">+AL12-AL15</f>
         <v>1832.6629060875002</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" ref="AM16" si="71">+AM12-AM15</f>
+        <f t="shared" ref="AM16" si="72">+AM12-AM15</f>
         <v>2006.349051391875</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" ref="AN16" si="72">+AN12-AN15</f>
+        <f t="shared" ref="AN16" si="73">+AN12-AN15</f>
         <v>2069.0225019057943</v>
       </c>
       <c r="AO16" s="3">
-        <f t="shared" ref="AO16" si="73">+AO12-AO15</f>
+        <f t="shared" ref="AO16" si="74">+AO12-AO15</f>
         <v>2148.408206924852</v>
       </c>
       <c r="AP16" s="3">
-        <f t="shared" ref="AP16" si="74">+AP12-AP15</f>
+        <f t="shared" ref="AP16" si="75">+AP12-AP15</f>
         <v>2219.7589489941006</v>
       </c>
     </row>
@@ -3119,11 +3119,11 @@
         <v>-22</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" ref="AG17" si="75">SUM(L17:O17)</f>
+        <f t="shared" ref="AG17" si="76">SUM(L17:O17)</f>
         <v>1.2999999999999998</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" ref="AH17" si="76">SUM(P17:S17)</f>
+        <f t="shared" ref="AH17" si="77">SUM(P17:S17)</f>
         <v>52.8</v>
       </c>
       <c r="AI17" s="3">
@@ -3135,27 +3135,27 @@
         <v>76.685263800000016</v>
       </c>
       <c r="AK17" s="3">
-        <f t="shared" ref="AJ17:AP17" si="77">+AJ28*$AS$31</f>
+        <f t="shared" ref="AK17:AP17" si="78">+AJ28*$AS$31</f>
         <v>117.68955897120001</v>
       </c>
       <c r="AL17" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>161.4693976685088</v>
       </c>
       <c r="AM17" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>209.32857295865304</v>
       </c>
       <c r="AN17" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>262.5048359430657</v>
       </c>
       <c r="AO17" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>318.46149205143837</v>
       </c>
       <c r="AP17" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>377.66636482686937</v>
       </c>
     </row>
@@ -3164,15 +3164,15 @@
         <v>45</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18" si="78">+C16+C17</f>
+        <f t="shared" ref="C18" si="79">+C16+C17</f>
         <v>76.8</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" ref="D18" si="79">+D16+D17</f>
+        <f t="shared" ref="D18" si="80">+D16+D17</f>
         <v>50.7</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" ref="E18" si="80">+E16+E17</f>
+        <f t="shared" ref="E18" si="81">+E16+E17</f>
         <v>114.30000000000005</v>
       </c>
       <c r="F18" s="5">
@@ -3192,7 +3192,7 @@
         <v>61.600000000000009</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ref="J18" si="81">+J16+J17</f>
+        <f t="shared" ref="J18" si="82">+J16+J17</f>
         <v>37.9</v>
       </c>
       <c r="K18" s="5">
@@ -3208,55 +3208,55 @@
         <v>52.499999999999929</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" ref="N18:P18" si="82">+N16+N17</f>
+        <f t="shared" ref="N18:P18" si="83">+N16+N17</f>
         <v>86.600000000000009</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>110.70000000000003</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>137.20000000000005</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" ref="Q18:W18" si="83">+Q16+Q17</f>
+        <f t="shared" ref="Q18:W18" si="84">+Q16+Q17</f>
         <v>84.299999999999969</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>155.70000000000005</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>168.60000000000005</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>127.59999999999995</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>170.69999999999987</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>387.1862000000001</v>
       </c>
       <c r="W18" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>430.45320000000009</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" ref="AA18:AC18" si="84">+AA16+AA17</f>
+        <f t="shared" ref="AA18:AC18" si="85">+AA16+AA17</f>
         <v>0</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>116.6</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>26.600000000000023</v>
       </c>
       <c r="AD18" s="3">
@@ -3276,39 +3276,39 @@
         <v>250.3</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" ref="AH18:AP18" si="85">+AH16+AH17</f>
+        <f t="shared" ref="AH18:AP18" si="86">+AH16+AH17</f>
         <v>545.79999999999995</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1115.9394</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1708.5122987999998</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1824.1599457211998</v>
       </c>
       <c r="AL18" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1994.1323037560092</v>
       </c>
       <c r="AM18" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2215.6776243505283</v>
       </c>
       <c r="AN18" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2331.52733784886</v>
       </c>
       <c r="AO18" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2466.8696989762902</v>
       </c>
       <c r="AP18" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2597.4253138209701</v>
       </c>
     </row>
@@ -3394,43 +3394,43 @@
         <v>11.8</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" ref="AG19" si="86">SUM(L19:O19)</f>
+        <f t="shared" ref="AG19" si="87">SUM(L19:O19)</f>
         <v>51.4</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" ref="AH19" si="87">SUM(P19:S19)</f>
+        <f t="shared" ref="AH19" si="88">SUM(P19:S19)</f>
         <v>82.4</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" ref="AI19" si="88">SUM(T19:W19)</f>
+        <f t="shared" ref="AI19" si="89">SUM(T19:W19)</f>
         <v>106.46394000000004</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" ref="AJ19:AP19" si="89">+AJ18*0.2</f>
+        <f t="shared" ref="AJ19:AP19" si="90">+AJ18*0.2</f>
         <v>341.70245976000001</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>364.83198914423997</v>
       </c>
       <c r="AL19" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>398.82646075120186</v>
       </c>
       <c r="AM19" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>443.13552487010566</v>
       </c>
       <c r="AN19" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>466.30546756977202</v>
       </c>
       <c r="AO19" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>493.37393979525808</v>
       </c>
       <c r="AP19" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>519.48506276419403</v>
       </c>
     </row>
@@ -3439,15 +3439,15 @@
         <v>47</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" ref="C20" si="90">+C18-C19</f>
+        <f t="shared" ref="C20" si="91">+C18-C19</f>
         <v>72.2</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" ref="D20" si="91">+D18-D19</f>
+        <f t="shared" ref="D20" si="92">+D18-D19</f>
         <v>49.2</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" ref="E20" si="92">+E18-E19</f>
+        <f t="shared" ref="E20" si="93">+E18-E19</f>
         <v>110.70000000000006</v>
       </c>
       <c r="F20" s="5">
@@ -3467,7 +3467,7 @@
         <v>46.400000000000006</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ref="J20" si="93">+J18-J19</f>
+        <f t="shared" ref="J20" si="94">+J18-J19</f>
         <v>37.9</v>
       </c>
       <c r="K20" s="5">
@@ -3483,55 +3483,55 @@
         <v>52.499999999999929</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" ref="N20:P20" si="94">+N18-N19</f>
+        <f t="shared" ref="N20:P20" si="95">+N18-N19</f>
         <v>57.20000000000001</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>96.200000000000031</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>163.90000000000003</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" ref="Q20:W20" si="95">+Q18-Q19</f>
+        <f t="shared" ref="Q20:W20" si="96">+Q18-Q19</f>
         <v>58.199999999999967</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>123.20000000000005</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>118.10000000000005</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>136.49999999999994</v>
       </c>
       <c r="U20" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>137.09999999999988</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>348.46758000000011</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>387.40788000000009</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" ref="AA20:AC20" si="96">+AA18-AA19</f>
+        <f t="shared" ref="AA20:AC20" si="97">+AA18-AA19</f>
         <v>0</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>116.6</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>25.900000000000023</v>
       </c>
       <c r="AD20" s="3">
@@ -3551,11 +3551,11 @@
         <v>198.9</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" ref="AH20:AP20" si="97">+AH18-AH19</f>
+        <f t="shared" ref="AH20:AO20" si="98">+AH18-AH19</f>
         <v>463.4</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1009.4754599999999</v>
       </c>
       <c r="AJ20" s="3">
@@ -3567,19 +3567,19 @@
         <v>1459.3279565769599</v>
       </c>
       <c r="AL20" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1595.3058430048072</v>
       </c>
       <c r="AM20" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1772.5420994804226</v>
       </c>
       <c r="AN20" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1865.2218702790881</v>
       </c>
       <c r="AO20" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1973.4957591810321</v>
       </c>
       <c r="AP20" s="3">
@@ -3596,15 +3596,15 @@
         <v>48</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21" si="98">+C20/C22</f>
+        <f t="shared" ref="C21" si="99">+C20/C22</f>
         <v>0.74279835390946503</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" ref="D21" si="99">+D20/D22</f>
+        <f t="shared" ref="D21" si="100">+D20/D22</f>
         <v>0.5072164948453608</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" ref="E21" si="100">+E20/E22</f>
+        <f t="shared" ref="E21" si="101">+E20/E22</f>
         <v>1.1272912423625261</v>
       </c>
       <c r="F21" s="4">
@@ -3624,115 +3624,115 @@
         <v>0.47492323439099288</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" ref="J21" si="101">+J20/J22</f>
+        <f t="shared" ref="J21" si="102">+J20/J22</f>
         <v>0.38792221084953937</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" ref="K21:W21" si="102">+K20/K22</f>
+        <f t="shared" ref="K21:W21" si="103">+K20/K22</f>
         <v>0.60484720758693322</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-7.172131147540961E-2</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.54916317991631725</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.57777777777777783</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.95247524752475277</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1.687950566426365</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.58083832335329311</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1.2185954500494565</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1.1716269841269846</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1.3175675675675671</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1.3195380173243492</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>3.3538746871992311</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>3.7286610202117427</v>
       </c>
       <c r="AC21" s="1">
-        <f>+AC20/AC22</f>
+        <f t="shared" ref="AC21:AH21" si="104">+AC20/AC22</f>
         <v>0.27148846960167738</v>
       </c>
       <c r="AD21" s="1">
-        <f>+AD20/AD22</f>
+        <f t="shared" si="104"/>
         <v>1.9341692789968654</v>
       </c>
       <c r="AE21" s="1">
-        <f>+AE20/AE22</f>
+        <f t="shared" si="104"/>
         <v>3.1421267893660558</v>
       </c>
       <c r="AF21" s="1">
-        <f>+AF20/AF22</f>
+        <f t="shared" si="104"/>
         <v>1.7773237997957128</v>
       </c>
       <c r="AG21" s="1">
-        <f>+AG20/AG22</f>
+        <f t="shared" si="104"/>
         <v>2.0233977619532046</v>
       </c>
       <c r="AH21" s="1">
-        <f>+AH20/AH22</f>
+        <f t="shared" si="104"/>
         <v>4.6432865731462929</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" ref="AI21:AP21" si="103">+AI20/AI22</f>
+        <f t="shared" ref="AI21:AP21" si="105">+AI20/AI22</f>
         <v>9.7228553816518186</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>13.164554192535515</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>14.05565091815035</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>15.365334389644184</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>17.072401632366219</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>17.965055336181923</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>19.007905217250492</v>
       </c>
       <c r="AP21" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>20.013871910009886</v>
       </c>
       <c r="AQ21" s="1"/>
@@ -3840,31 +3840,31 @@
         <v>103.82499999999999</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" ref="AJ22:AP22" si="104">+AI22</f>
+        <f t="shared" ref="AJ22:AP22" si="106">+AI22</f>
         <v>103.82499999999999</v>
       </c>
       <c r="AK22" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>103.82499999999999</v>
       </c>
       <c r="AL22" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>103.82499999999999</v>
       </c>
       <c r="AM22" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>103.82499999999999</v>
       </c>
       <c r="AN22" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>103.82499999999999</v>
       </c>
       <c r="AO22" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>103.82499999999999</v>
       </c>
       <c r="AP22" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>103.82499999999999</v>
       </c>
     </row>
@@ -3873,76 +3873,76 @@
         <v>73</v>
       </c>
       <c r="H24" s="16">
-        <f t="shared" ref="H24:M24" si="105">+H6/D6-1</f>
+        <f t="shared" ref="H24:M24" si="107">+H6/D6-1</f>
         <v>-4.3271311120729461E-4</v>
       </c>
       <c r="I24" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>-2.989536621823663E-3</v>
       </c>
       <c r="J24" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>0.13656040928768198</v>
       </c>
       <c r="K24" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>0.25777041027766256</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>0.32034632034632038</v>
       </c>
       <c r="M24" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>0.31934032983508231</v>
       </c>
       <c r="N24" s="16">
-        <f t="shared" ref="N24:W24" si="106">+N6/J6-1</f>
+        <f t="shared" ref="N24:W24" si="108">+N6/J6-1</f>
         <v>0.31336565096952906</v>
       </c>
       <c r="O24" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.33311367380560131</v>
       </c>
       <c r="P24" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.36163934426229516</v>
       </c>
       <c r="Q24" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.2678977272727272</v>
       </c>
       <c r="R24" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.2965989981544952</v>
       </c>
       <c r="S24" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.25358378645575863</v>
       </c>
       <c r="T24" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.22562003371057071</v>
       </c>
       <c r="U24" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.30808872955411148</v>
       </c>
       <c r="V24" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.17972753151687693</v>
       </c>
       <c r="W24" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.26052839116719251</v>
       </c>
       <c r="AB24" s="17"/>
       <c r="AC24" s="17">
-        <f t="shared" ref="AB24:AE24" si="107">+AC6/AB6-1</f>
+        <f t="shared" ref="AC24:AD24" si="109">+AC6/AB6-1</f>
         <v>2.5128644939965699</v>
       </c>
       <c r="AD24" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0.83813476562499978</v>
       </c>
       <c r="AE24" s="17">
@@ -3962,35 +3962,35 @@
         <v>0.29127628565479902</v>
       </c>
       <c r="AI24" s="17">
-        <f t="shared" ref="AI24:AP24" si="108">+AI6/AH6-1</f>
+        <f t="shared" ref="AI24:AP24" si="110">+AI6/AH6-1</f>
         <v>0.24278727292271296</v>
       </c>
       <c r="AJ24" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AK24" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AL24" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AM24" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AN24" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AO24" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AP24" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AQ24" s="17"/>
@@ -4003,147 +4003,147 @@
         <v>74</v>
       </c>
       <c r="C26" s="16">
-        <f t="shared" ref="C26" si="109">C12/C10</f>
+        <f t="shared" ref="C26" si="111">C12/C10</f>
         <v>0.98975829578041785</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" ref="D26" si="110">D12/D10</f>
+        <f t="shared" ref="D26" si="112">D12/D10</f>
         <v>0.99114297764656267</v>
       </c>
       <c r="E26" s="16">
-        <f t="shared" ref="E26" si="111">E12/E10</f>
+        <f t="shared" ref="E26" si="113">E12/E10</f>
         <v>0.99206349206349209</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" ref="F26:M26" si="112">F12/F10</f>
+        <f t="shared" ref="F26:M26" si="114">F12/F10</f>
         <v>0.98878143133462282</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0.98830173457039128</v>
       </c>
       <c r="H26" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0.98774302620456467</v>
       </c>
       <c r="I26" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0.98926964347525093</v>
       </c>
       <c r="J26" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0.9858108108108109</v>
       </c>
       <c r="K26" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0.98685897435897429</v>
       </c>
       <c r="L26" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0.98518995492594974</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0.98730830248545742</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" ref="N26:W26" si="113">N12/N10</f>
+        <f t="shared" ref="N26:W26" si="115">N12/N10</f>
         <v>0.98427429749935547</v>
       </c>
       <c r="O26" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.98131067961165053</v>
       </c>
       <c r="P26" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.97978116079923883</v>
       </c>
       <c r="Q26" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.97459686326485528</v>
       </c>
       <c r="R26" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.97754611066559749</v>
       </c>
       <c r="S26" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.98348231636222305</v>
       </c>
       <c r="T26" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.9854453716281778</v>
       </c>
       <c r="U26" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.98441206370721779</v>
       </c>
       <c r="V26" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.98000000000000009</v>
       </c>
       <c r="W26" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.98000000000000009</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" ref="AB26:AE26" si="114">AB12/AB10</f>
+        <f t="shared" ref="AB26:AE26" si="116">AB12/AB10</f>
         <v>1</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>0.98914007092198586</v>
       </c>
       <c r="AD26" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>0.99061032863849763</v>
       </c>
       <c r="AE26" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>0.99034324505210836</v>
       </c>
       <c r="AF26" s="16">
-        <f t="shared" ref="AF26:AP26" si="115">AF12/AF10</f>
+        <f t="shared" ref="AF26:AP26" si="117">AF12/AF10</f>
         <v>0.98738420820467587</v>
       </c>
       <c r="AG26" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.98441593336468058</v>
       </c>
       <c r="AH26" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.97895573813941161</v>
       </c>
       <c r="AI26" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.98232685169653722</v>
       </c>
       <c r="AJ26" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.99</v>
       </c>
       <c r="AK26" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.99</v>
       </c>
       <c r="AL26" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.9900000000000001</v>
       </c>
       <c r="AM26" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.99</v>
       </c>
       <c r="AN26" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.9900000000000001</v>
       </c>
       <c r="AO26" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.99</v>
       </c>
       <c r="AP26" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.99</v>
       </c>
       <c r="AQ26" s="16"/>
@@ -4185,31 +4185,31 @@
         <v>2556.1754600000004</v>
       </c>
       <c r="AJ28" s="3">
-        <f>+AI28+AJ20</f>
+        <f t="shared" ref="AJ28:AP28" si="118">+AI28+AJ20</f>
         <v>3922.9852990400004</v>
       </c>
       <c r="AK28" s="3">
-        <f>+AJ28+AK20</f>
+        <f t="shared" si="118"/>
         <v>5382.3132556169603</v>
       </c>
       <c r="AL28" s="3">
-        <f>+AK28+AL20</f>
+        <f t="shared" si="118"/>
         <v>6977.619098621768</v>
       </c>
       <c r="AM28" s="3">
-        <f>+AL28+AM20</f>
+        <f t="shared" si="118"/>
         <v>8750.1611981021906</v>
       </c>
       <c r="AN28" s="3">
-        <f>+AM28+AN20</f>
+        <f t="shared" si="118"/>
         <v>10615.383068381279</v>
       </c>
       <c r="AO28" s="3">
-        <f>+AN28+AO20</f>
+        <f t="shared" si="118"/>
         <v>12588.878827562312</v>
       </c>
       <c r="AP28" s="3">
-        <f>+AO28+AP20</f>
+        <f t="shared" si="118"/>
         <v>14666.819078619088</v>
       </c>
       <c r="AQ28" s="3"/>
@@ -4583,7 +4583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A305B59E-805F-48F7-89A8-1725C9FCED24}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
